--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448" activeTab="6"/>
+    <workbookView windowWidth="22185" windowHeight="8535" tabRatio="448"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="449">
   <si>
     <t>序号</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>ods_tdx_stock_pepb_info</t>
+  </si>
+  <si>
+    <t>这个表需要从通达信手动下载更新</t>
   </si>
   <si>
     <t>行情数据</t>
@@ -1154,6 +1157,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">DMART </t>
     </r>
     <r>
@@ -1694,17 +1704,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2181,7 +2191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2205,9 +2215,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2310,7 +2317,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11445875" y="5366385"/>
+          <a:off x="12653645" y="5366385"/>
           <a:ext cx="1118870" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -2597,22 +2604,22 @@
   <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="12.1111111111111" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="12.1083333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="33.1083333333333" customWidth="1"/>
     <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="33.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="26.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="33.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="26.5583333333333" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2659,7 +2666,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="str">
+      <c r="F3" s="11" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
@@ -2683,7 +2690,7 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="12" t="str">
+      <c r="F4" s="11" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
@@ -2707,7 +2714,7 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="12" t="str">
+      <c r="F5" s="11" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
@@ -2731,7 +2738,7 @@
       <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="12" t="str">
+      <c r="F6" s="11" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
@@ -2749,13 +2756,13 @@
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="12" t="str">
+      <c r="F7" s="11" t="str">
         <f>HYPERLINK("#股票基本面数据_所属交易所",股票基本面数据_所属交易所)</f>
         <v>股票基本面数据_所属交易所</v>
       </c>
@@ -2782,19 +2789,19 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="12" t="str">
+      <c r="F8" s="11" t="str">
         <f>HYPERLINK("#股票基本面数据_资产数据",股票基本面数据_资产数据)</f>
         <v>股票基本面数据_资产数据</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:8">
-      <c r="F9" s="12"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="1:8">
-      <c r="F10" s="12"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" ht="19.95" customHeight="1"/>
     <row r="12" ht="19.95" customHeight="1" spans="1:8">
@@ -2805,15 +2812,15 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="12" t="str">
+        <v>21</v>
+      </c>
+      <c r="F12" s="11" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
@@ -2829,15 +2836,15 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12" t="str">
+        <v>22</v>
+      </c>
+      <c r="F13" s="11" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
@@ -2853,15 +2860,15 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="12" t="str">
+        <v>23</v>
+      </c>
+      <c r="F14" s="11" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
@@ -2877,15 +2884,15 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="12" t="str">
+        <v>25</v>
+      </c>
+      <c r="F15" s="11" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
@@ -2898,16 +2905,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="12" t="s">
         <v>26</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="19.95" customHeight="1" spans="1:12">
@@ -2915,23 +2922,23 @@
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F18" s="12"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F19" s="12"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:12">
       <c r="A20" s="4">
@@ -2941,15 +2948,15 @@
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="12" t="str">
+        <v>31</v>
+      </c>
+      <c r="F20" s="11" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
@@ -2966,15 +2973,15 @@
         <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="12" t="str">
+        <v>33</v>
+      </c>
+      <c r="F22" s="11" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
@@ -2990,15 +2997,15 @@
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="12" t="str">
+        <v>34</v>
+      </c>
+      <c r="F23" s="11" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
@@ -3014,15 +3021,15 @@
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="12" t="str">
+        <v>35</v>
+      </c>
+      <c r="F24" s="11" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
@@ -3038,15 +3045,15 @@
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="12" t="str">
+        <v>36</v>
+      </c>
+      <c r="F25" s="11" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
@@ -3054,9 +3061,9 @@
         <v>12</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="12" t="str">
+        <v>37</v>
+      </c>
+      <c r="L25" s="11" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
@@ -3069,15 +3076,15 @@
         <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="12" t="str">
+        <v>38</v>
+      </c>
+      <c r="F26" s="11" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
@@ -3093,15 +3100,15 @@
         <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="12" t="str">
+        <v>39</v>
+      </c>
+      <c r="F27" s="11" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
@@ -3117,15 +3124,15 @@
         <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="12" t="str">
+        <v>40</v>
+      </c>
+      <c r="F28" s="11" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
@@ -3141,15 +3148,15 @@
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="12" t="str">
+        <v>42</v>
+      </c>
+      <c r="F29" s="11" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
@@ -3158,33 +3165,33 @@
       </c>
     </row>
     <row r="30" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F30" s="12"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F31" s="12"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F32" s="12"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" ht="105" customHeight="1" spans="1:8">
       <c r="A33" s="4">
         <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="12" t="str">
+        <v>37</v>
+      </c>
+      <c r="F33" s="11" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>43</v>
+      <c r="H33" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" ht="67" customHeight="1" spans="1:8">
@@ -3192,20 +3199,20 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="12" t="str">
+        <v>45</v>
+      </c>
+      <c r="F34" s="11" t="str">
         <f>HYPERLINK("#股票基础信息大宽表",股票基础信息大宽表)</f>
         <v>股票基础信息大宽表</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>45</v>
+      <c r="H34" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:8">
@@ -3213,20 +3220,20 @@
         <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="12" t="str">
+        <v>47</v>
+      </c>
+      <c r="F35" s="11" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>47</v>
+      <c r="H35" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:8">
@@ -3234,20 +3241,20 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="12" t="str">
+        <v>49</v>
+      </c>
+      <c r="F36" s="11" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>47</v>
+      <c r="H36" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" ht="19.95" customHeight="1"/>
@@ -3255,30 +3262,30 @@
     <row r="39" ht="19.95" customHeight="1"/>
     <row r="40" ht="39" customHeight="1" spans="1:8">
       <c r="B40" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="14" t="s">
         <v>52</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:8">
       <c r="E41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" ht="19.95" customHeight="1"/>
@@ -3329,25 +3336,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.225" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="35.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="19.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="28.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="35.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="19.775" customWidth="1"/>
     <col min="13" max="13" width="28.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="17.5555555555556" customWidth="1"/>
-    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="17.5583333333333" customWidth="1"/>
+    <col min="18" max="18" width="14.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="1:13">
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
@@ -3355,32 +3362,32 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>59</v>
+      <c r="B7" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>61</v>
+      <c r="B8" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -3388,10 +3395,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">
@@ -3399,32 +3406,32 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -3432,86 +3439,86 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>61</v>
+      <c r="B16" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>73</v>
+      <c r="G16" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>75</v>
+      <c r="L16" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="M16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>59</v>
+      <c r="B17" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>79</v>
+      <c r="L17" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -3519,28 +3526,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F18" s="4">
         <v>3</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>83</v>
+      <c r="G18" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K18" s="4">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -3548,28 +3555,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="4">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" s="4">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -3577,28 +3584,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" s="4">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M20" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -3606,28 +3613,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="4">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" s="4">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -3635,28 +3642,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K22" s="4">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M22" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -3664,47 +3671,47 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F23" s="4">
         <v>8</v>
       </c>
       <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
         <v>108</v>
-      </c>
-      <c r="H23" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -3712,113 +3719,113 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>117</v>
+      <c r="B30" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="11" t="s">
-        <v>119</v>
+      <c r="G30" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="H30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K30" s="4">
         <v>1</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>121</v>
+      <c r="L30" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P30" s="4">
         <v>1</v>
       </c>
-      <c r="Q30" s="11" t="s">
-        <v>122</v>
+      <c r="Q30" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>123</v>
+      <c r="B31" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>124</v>
+      <c r="G31" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K31" s="4">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P31" s="4">
         <v>2</v>
       </c>
-      <c r="Q31" s="11" t="s">
-        <v>128</v>
+      <c r="Q31" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="R31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -3826,37 +3833,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F32" s="4">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K32" s="4">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M32" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P32" s="4">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -3864,37 +3871,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F33" s="4">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K33" s="4">
         <v>4</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>139</v>
+      <c r="L33" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="M33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P33" s="4">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -3902,37 +3909,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F34" s="4">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K34" s="4">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P34" s="4">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -3940,37 +3947,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F35" s="4">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K35" s="4">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P35" s="4">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -3978,37 +3985,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F36" s="4">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K36" s="4">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P36" s="4">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R36" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -4016,34 +4023,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F37" s="4">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K37" s="4">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P37" s="4">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -4051,34 +4058,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F38" s="4">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K38" s="4">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P38" s="4">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="R38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -4086,65 +4093,65 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H39" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K39" s="4">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P39" s="4">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="R39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="B40" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F40" s="4">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H40" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P40" s="4">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R40" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="B41" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F41" s="4">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
@@ -4152,39 +4159,39 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F42" s="4">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="4">
         <v>1</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>186</v>
+      <c r="B43" s="10" t="s">
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F43" s="4">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -4192,39 +4199,39 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F44" s="4">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H44" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>75</v>
+      <c r="B45" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="4">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -4232,19 +4239,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F46" s="4">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -4252,19 +4259,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F47" s="4">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -4272,19 +4279,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F48" s="4">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -4292,19 +4299,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F49" s="4">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -4312,10 +4319,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -4323,10 +4330,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -4334,38 +4341,38 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="B53" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F53" s="4">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="B54" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F54" s="4">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -4373,50 +4380,50 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F55" s="4">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="4">
         <v>1</v>
       </c>
-      <c r="B56" s="11" t="s">
-        <v>128</v>
+      <c r="B56" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F56" s="4">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="4">
         <v>2</v>
       </c>
-      <c r="B57" s="11" t="s">
-        <v>122</v>
+      <c r="B57" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F57" s="4"/>
     </row>
@@ -4425,10 +4432,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F58" s="4"/>
     </row>
@@ -4437,10 +4444,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F59" s="4"/>
     </row>
@@ -4467,19 +4474,19 @@
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="8" max="8" width="21.8916666666667" customWidth="1"/>
     <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:4">
       <c r="C4" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -4487,32 +4494,32 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>230</v>
+      <c r="C7" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>232</v>
+      <c r="C8" s="10" t="s">
+        <v>233</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -4520,10 +4527,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -4531,10 +4538,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -4542,10 +4549,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -4553,10 +4560,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4564,28 +4571,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="C18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -4593,59 +4600,59 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>238</v>
+      <c r="C21" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="D21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>240</v>
+      <c r="H21" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>240</v>
+      <c r="C22" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>238</v>
+      <c r="H22" s="10" t="s">
+        <v>239</v>
       </c>
       <c r="I22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -4653,10 +4660,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -4665,10 +4672,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -4677,10 +4684,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -4689,10 +4696,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -4712,72 +4719,72 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="4"/>
+    <col min="2" max="2" width="8.89166666666667" style="4"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="4"/>
-    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="8.89166666666667" style="4"/>
+    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.225" customWidth="1"/>
+    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
+    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="A3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -4785,28 +4792,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -4814,28 +4821,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -4843,28 +4850,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L10" s="4">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -4872,28 +4879,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L11" s="4">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -4901,28 +4908,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L12" s="4">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -4930,44 +4937,44 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L13" s="4">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
       <c r="C16" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -4975,19 +4982,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -4995,19 +5002,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -5015,19 +5022,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -5035,19 +5042,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -5055,19 +5062,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -5075,49 +5082,49 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G23" s="4">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
       <c r="C27" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:9">
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -5125,19 +5132,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -5145,19 +5152,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -5165,19 +5172,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -5185,19 +5192,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -5205,19 +5212,19 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G33" s="4">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -5225,28 +5232,28 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G34" s="4">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:9">
       <c r="C38" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:9">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5255,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
@@ -5266,10 +5273,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
@@ -5277,10 +5284,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
@@ -5288,10 +5295,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
@@ -5299,10 +5306,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -5310,10 +5317,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D45" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -5321,10 +5328,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D46" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -5332,10 +5339,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -5343,10 +5350,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
@@ -5354,10 +5361,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
@@ -5365,10 +5372,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D50" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
@@ -5376,10 +5383,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
@@ -5387,26 +5394,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D52" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E59" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5427,18 +5434,18 @@
       <selection activeCell="B84" sqref="B84:D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="4"/>
+    <col min="2" max="2" width="8.89166666666667" style="4"/>
     <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="26.5583333333333" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="24.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5462,7 +5469,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="C6" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5475,10 +5482,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5486,10 +5493,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5497,10 +5504,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -5508,10 +5515,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -5519,15 +5526,15 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5554,12 +5561,12 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
@@ -5567,10 +5574,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -5578,10 +5585,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -5589,10 +5596,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -5600,10 +5607,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -5611,10 +5618,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D24" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -5622,10 +5629,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -5633,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -5644,10 +5651,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -5655,10 +5662,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D28" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -5666,10 +5673,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -5677,10 +5684,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -5688,10 +5695,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -5699,10 +5706,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D32" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -5710,10 +5717,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -5721,10 +5728,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -5732,20 +5739,20 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="C38" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="C39" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
@@ -5753,10 +5760,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -5764,10 +5771,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -5775,10 +5782,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -5786,10 +5793,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -5797,10 +5804,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -5808,10 +5815,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -5819,28 +5826,28 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
@@ -5848,19 +5855,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -5868,19 +5875,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -5888,19 +5895,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -5908,19 +5915,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G55" s="4">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -5928,19 +5935,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G56" s="4">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -5948,19 +5955,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G57" s="4">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -5968,19 +5975,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G58" s="4">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -5988,19 +5995,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G59" s="4">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -6008,19 +6015,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G60" s="4">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -6028,19 +6035,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G61" s="4">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I61" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -6048,19 +6055,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D62" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G62" s="4">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I62" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -6068,19 +6075,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G63" s="4">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -6088,19 +6095,19 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G64" s="4">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -6108,19 +6115,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G65" s="4">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -6128,19 +6135,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G66" s="4">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -6148,19 +6155,19 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G67" s="4">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I67" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
@@ -6168,19 +6175,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G68" s="4">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
@@ -6188,40 +6195,40 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D69" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G69" s="4">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I69" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="B73" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="C75" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -6245,20 +6252,20 @@
     </row>
     <row r="84" customHeight="1" spans="1:9">
       <c r="C84" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
       <c r="C85" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:9">
@@ -6266,19 +6273,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:9">
@@ -6286,19 +6293,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
-        <v>60</v>
-      </c>
-      <c r="G87" s="8">
+        <v>61</v>
+      </c>
+      <c r="G87" s="4">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:9">
@@ -6306,19 +6313,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
-      </c>
-      <c r="G88" s="8">
+        <v>63</v>
+      </c>
+      <c r="G88" s="4">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:9">
@@ -6326,19 +6333,19 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D89" t="s">
-        <v>135</v>
-      </c>
-      <c r="G89" s="8">
+        <v>136</v>
+      </c>
+      <c r="G89" s="4">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I89" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
@@ -6346,19 +6353,19 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D90" t="s">
+        <v>349</v>
+      </c>
+      <c r="G90" s="4">
+        <v>4</v>
+      </c>
+      <c r="H90" t="s">
         <v>348</v>
       </c>
-      <c r="G90" s="8">
-        <v>4</v>
-      </c>
-      <c r="H90" t="s">
-        <v>347</v>
-      </c>
       <c r="I90" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
@@ -6366,19 +6373,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D91" t="s">
+        <v>351</v>
+      </c>
+      <c r="G91" s="4">
+        <v>5</v>
+      </c>
+      <c r="H91" t="s">
         <v>350</v>
       </c>
-      <c r="G91" s="8">
-        <v>5</v>
-      </c>
-      <c r="H91" t="s">
-        <v>349</v>
-      </c>
       <c r="I91" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
@@ -6386,19 +6393,19 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D92" t="s">
+        <v>353</v>
+      </c>
+      <c r="G92" s="4">
+        <v>6</v>
+      </c>
+      <c r="H92" t="s">
         <v>352</v>
       </c>
-      <c r="G92" s="8">
-        <v>6</v>
-      </c>
-      <c r="H92" t="s">
-        <v>351</v>
-      </c>
       <c r="I92" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
@@ -6406,19 +6413,19 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D93" t="s">
+        <v>355</v>
+      </c>
+      <c r="G93" s="4">
+        <v>7</v>
+      </c>
+      <c r="H93" t="s">
         <v>354</v>
       </c>
-      <c r="G93" s="8">
-        <v>7</v>
-      </c>
-      <c r="H93" t="s">
-        <v>353</v>
-      </c>
       <c r="I93" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
@@ -6426,19 +6433,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D94" t="s">
+        <v>357</v>
+      </c>
+      <c r="G94" s="4">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
         <v>356</v>
       </c>
-      <c r="G94" s="8">
-        <v>8</v>
-      </c>
-      <c r="H94" t="s">
-        <v>355</v>
-      </c>
       <c r="I94" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -6461,11 +6468,11 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="32.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="32.1083333333333" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
-    <col min="5" max="8" width="20.7777777777778" customWidth="1"/>
+    <col min="5" max="8" width="20.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:4">
@@ -6473,39 +6480,39 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:4">
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:4">
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:4">
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:4">
@@ -6513,23 +6520,23 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:4">
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
@@ -6537,7 +6544,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
@@ -6545,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6559,45 +6566,45 @@
   <sheetPr/>
   <dimension ref="C5:I158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E93" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E93" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="8.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="32.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="8.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="32.5583333333333" customWidth="1"/>
     <col min="8" max="8" width="51" customWidth="1"/>
-    <col min="9" max="9" width="47.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="47.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -6605,89 +6612,89 @@
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>13</v>
@@ -6695,144 +6702,144 @@
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>14</v>
@@ -6840,17 +6847,17 @@
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>15</v>
@@ -6858,41 +6865,41 @@
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>16</v>
@@ -6900,163 +6907,163 @@
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>14</v>
@@ -7069,7 +7076,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="8535" tabRatio="448"/>
+    <workbookView windowWidth="14651" windowHeight="7944" tabRatio="448" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -1704,17 +1704,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2317,7 +2317,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12653645" y="5366385"/>
+          <a:off x="11445875" y="5366385"/>
           <a:ext cx="1118870" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -2604,22 +2604,22 @@
   <sheetPr/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="12.1083333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="33.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.1111111111111" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="33.1083333333333" customWidth="1"/>
-    <col min="10" max="10" width="26.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="33.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="26.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3336,15 +3336,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.225" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.775" customWidth="1"/>
-    <col min="7" max="7" width="28.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="35.1083333333333" customWidth="1"/>
-    <col min="12" max="12" width="19.775" customWidth="1"/>
+    <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="35.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="19.7777777777778" customWidth="1"/>
     <col min="13" max="13" width="28.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="17.5583333333333" customWidth="1"/>
-    <col min="18" max="18" width="14.1083333333333" customWidth="1"/>
+    <col min="17" max="17" width="17.5555555555556" customWidth="1"/>
+    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="1:13">
@@ -4474,8 +4474,8 @@
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.775" customWidth="1"/>
-    <col min="8" max="8" width="21.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4715,20 +4715,20 @@
   <sheetPr/>
   <dimension ref="A3:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.89166666666667" style="4"/>
+    <col min="2" max="2" width="8.88888888888889" style="4"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.89166666666667" style="4"/>
-    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.225" customWidth="1"/>
-    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
-    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="4"/>
+    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
@@ -5434,13 +5434,13 @@
       <selection activeCell="B84" sqref="B84:D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.89166666666667" style="4"/>
+    <col min="2" max="2" width="8.88888888888889" style="4"/>
     <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="26.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="24.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
@@ -6468,11 +6468,11 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="32.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="32.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
-    <col min="5" max="8" width="20.775" customWidth="1"/>
+    <col min="5" max="8" width="20.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="3:4">
@@ -6570,14 +6570,14 @@
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="8.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="32.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="32.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="51" customWidth="1"/>
-    <col min="9" max="9" width="47.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="47.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:9">

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14651" windowHeight="7944" tabRatio="448" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <definedName name="股票基本面数据_资产数据">TDX!$C$38</definedName>
     <definedName name="股票基本面数据_所属交易所">ODS_DWD_DMART!$C$6</definedName>
     <definedName name="股票基础信息大宽表">ODS_DWD_DMART!$C$18</definedName>
+    <definedName name="交易所的交易日历">Tinsight!$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="454">
   <si>
     <t>序号</t>
   </si>
@@ -121,10 +122,19 @@
     <t>这个表需要从通达信手动下载更新</t>
   </si>
   <si>
+    <t>ods_trading_days_insight</t>
+  </si>
+  <si>
+    <t>交易所的交易日历</t>
+  </si>
+  <si>
     <t>行情数据</t>
   </si>
   <si>
     <t>ods_stock_kline_daily_insight</t>
+  </si>
+  <si>
+    <t>每日17点，实际上0点才有数</t>
   </si>
   <si>
     <t>ods_index_a_share_insight</t>
@@ -245,6 +255,9 @@
     <t>quant.ods_stock_code_daily_insight</t>
   </si>
   <si>
+    <t>quant.ods_trading_days_insight</t>
+  </si>
+  <si>
     <t>字段英文名称</t>
   </si>
   <si>
@@ -263,6 +276,12 @@
     <t>股票代码</t>
   </si>
   <si>
+    <t xml:space="preserve">exchange </t>
+  </si>
+  <si>
+    <t>交易所名称</t>
+  </si>
+  <si>
     <t xml:space="preserve">name      </t>
   </si>
   <si>
@@ -270,9 +289,6 @@
   </si>
   <si>
     <t xml:space="preserve">exchange  </t>
-  </si>
-  <si>
-    <t>交易所名称</t>
   </si>
   <si>
     <t>当日已上市股票的历史日K</t>
@@ -1704,17 +1720,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -2607,7 +2623,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2798,7 +2814,21 @@
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:8">
-      <c r="F9" s="11"/>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="1:8">
       <c r="F10" s="11"/>
@@ -2812,20 +2842,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F12" s="11" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:8">
@@ -2836,13 +2866,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F13" s="11" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
@@ -2860,13 +2890,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F14" s="11" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
@@ -2884,13 +2914,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F15" s="11" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
@@ -2905,16 +2935,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" ht="19.95" customHeight="1" spans="1:12">
@@ -2922,16 +2952,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:12">
@@ -2948,13 +2978,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F20" s="11" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
@@ -2973,13 +3003,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F22" s="11" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
@@ -2997,13 +3027,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F23" s="11" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
@@ -3021,13 +3051,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F24" s="11" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
@@ -3045,13 +3075,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F25" s="11" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
@@ -3061,7 +3091,7 @@
         <v>12</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L25" s="11" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
@@ -3076,13 +3106,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F26" s="11" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
@@ -3100,13 +3130,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F27" s="11" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
@@ -3124,13 +3154,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F28" s="11" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
@@ -3148,13 +3178,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F29" s="11" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
@@ -3178,20 +3208,20 @@
         <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F33" s="11" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" ht="67" customHeight="1" spans="1:8">
@@ -3199,20 +3229,20 @@
         <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F34" s="11" t="str">
         <f>HYPERLINK("#股票基础信息大宽表",股票基础信息大宽表)</f>
         <v>股票基础信息大宽表</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" ht="40" customHeight="1" spans="1:8">
@@ -3220,20 +3250,20 @@
         <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F35" s="11" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="42" customHeight="1" spans="1:8">
@@ -3241,20 +3271,20 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F36" s="11" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="19.95" customHeight="1"/>
@@ -3262,30 +3292,30 @@
     <row r="39" ht="19.95" customHeight="1"/>
     <row r="40" ht="39" customHeight="1" spans="1:8">
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:8">
       <c r="E41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" t="s">
         <v>54</v>
-      </c>
-      <c r="F41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="42" ht="19.95" customHeight="1"/>
@@ -3318,6 +3348,9 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K29" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="F9" location="交易所的交易日历" display="交易所的交易日历"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3330,8 +3363,8 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
@@ -3349,12 +3382,20 @@
   <sheetData>
     <row r="4" customHeight="1" spans="1:13">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
@@ -3362,10 +3403,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
@@ -3373,10 +3423,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -3384,10 +3443,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -3395,43 +3463,45 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:13">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -3439,28 +3509,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -3468,28 +3538,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
@@ -3497,28 +3567,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -3526,28 +3596,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F18" s="4">
         <v>3</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K18" s="4">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -3555,28 +3625,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F19" s="4">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K19" s="4">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -3584,28 +3654,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K20" s="4">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -3613,28 +3683,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F21" s="4">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K21" s="4">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -3642,28 +3712,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F22" s="4">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K22" s="4">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="M22" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -3671,47 +3741,47 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F23" s="4">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -3719,37 +3789,37 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
@@ -3757,37 +3827,37 @@
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="K30" s="4">
         <v>1</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P30" s="4">
         <v>1</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="R30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
@@ -3795,37 +3865,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H31" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K31" s="4">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P31" s="4">
         <v>2</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="R31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -3833,37 +3903,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F32" s="4">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K32" s="4">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M32" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P32" s="4">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="R32" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -3871,37 +3941,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F33" s="4">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H33" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K33" s="4">
         <v>4</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M33" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P33" s="4">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="R33" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -3909,37 +3979,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F34" s="4">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H34" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K34" s="4">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P34" s="4">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="R34" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -3947,37 +4017,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F35" s="4">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H35" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K35" s="4">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M35" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P35" s="4">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="R35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -3985,37 +4055,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F36" s="4">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K36" s="4">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M36" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P36" s="4">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="R36" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -4023,34 +4093,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F37" s="4">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H37" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K37" s="4">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M37" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P37" s="4">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="R37" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -4058,34 +4128,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F38" s="4">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H38" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K38" s="4">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M38" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P38" s="4">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="R38" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -4093,65 +4163,65 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H39" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K39" s="4">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M39" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="P39" s="4">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="R39" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="B40" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F40" s="4">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H40" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P40" s="4">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
+        <v>186</v>
+      </c>
+      <c r="R40" t="s">
         <v>181</v>
-      </c>
-      <c r="R40" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="B41" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F41" s="4">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
@@ -4159,19 +4229,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F42" s="4">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H42" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
@@ -4179,19 +4249,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F43" s="4">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H43" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -4199,19 +4269,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F44" s="4">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
@@ -4219,19 +4289,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F45" s="4">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H45" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -4239,19 +4309,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F46" s="4">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H46" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -4259,19 +4329,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F47" s="4">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H47" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -4279,19 +4349,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F48" s="4">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H48" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -4299,19 +4369,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F49" s="4">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H49" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -4319,10 +4389,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H50" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -4330,10 +4400,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H51" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -4341,38 +4411,38 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H52" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="B53" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="F53" s="4">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H53" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="B54" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F54" s="4">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H54" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -4380,19 +4450,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F55" s="4">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H55" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
@@ -4400,19 +4470,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F56" s="4">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H56" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
@@ -4420,10 +4490,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F57" s="4"/>
     </row>
@@ -4432,10 +4502,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C58" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F58" s="4"/>
     </row>
@@ -4444,10 +4514,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F59" s="4"/>
     </row>
@@ -4481,12 +4551,12 @@
   <sheetData>
     <row r="4" customHeight="1" spans="2:4">
       <c r="C4" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -4494,10 +4564,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -4505,10 +4575,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -4516,10 +4586,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -4527,10 +4597,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -4538,10 +4608,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -4549,10 +4619,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -4560,10 +4630,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4571,28 +4641,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -4600,19 +4670,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -4620,19 +4690,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D21" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -4640,19 +4710,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -4660,10 +4730,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -4672,10 +4742,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -4684,10 +4754,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -4696,10 +4766,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -4715,8 +4785,8 @@
   <sheetPr/>
   <dimension ref="A3:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -4733,7 +4803,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4765,26 +4835,26 @@
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -4792,28 +4862,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -4821,28 +4891,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -4850,28 +4920,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L10" s="4">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -4879,28 +4949,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I11" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L11" s="4">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="N11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -4908,28 +4978,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L12" s="4">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -4937,44 +5007,44 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L13" s="4">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
       <c r="C16" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -4982,19 +5052,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -5002,19 +5072,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -5022,19 +5092,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I20" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -5042,19 +5112,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -5062,19 +5132,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -5082,49 +5152,49 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G23" s="4">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
       <c r="C27" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:9">
       <c r="C28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -5132,19 +5202,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -5152,19 +5222,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="I30" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -5172,19 +5242,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -5192,19 +5262,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D32" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -5212,19 +5282,19 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D33" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G33" s="4">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="I33" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -5232,24 +5302,24 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G34" s="4">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:9">
       <c r="C38" s="1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:9">
@@ -5262,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
@@ -5273,10 +5343,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
@@ -5284,10 +5354,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
@@ -5295,10 +5365,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
@@ -5306,10 +5376,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D44" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -5317,10 +5387,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D45" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -5328,10 +5398,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D46" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -5339,10 +5409,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D47" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -5350,10 +5420,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D48" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
@@ -5361,10 +5431,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D49" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
@@ -5372,10 +5442,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
@@ -5383,10 +5453,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D51" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
@@ -5394,26 +5464,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D52" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D59" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E59" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5445,7 +5515,7 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5469,7 +5539,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="C6" s="1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -5482,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5493,10 +5563,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5504,10 +5574,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -5515,10 +5585,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -5526,15 +5596,15 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D12" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5561,12 +5631,12 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
@@ -5574,10 +5644,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -5585,10 +5655,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -5596,10 +5666,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -5607,10 +5677,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D23" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -5618,10 +5688,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D24" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -5629,10 +5699,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D25" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -5640,10 +5710,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D26" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -5651,10 +5721,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="D27" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -5662,10 +5732,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D28" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -5673,10 +5743,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="D29" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -5684,10 +5754,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="D30" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -5695,10 +5765,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -5706,10 +5776,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D32" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -5717,10 +5787,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D33" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -5728,10 +5798,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D34" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -5739,20 +5809,20 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="D35" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="C38" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
@@ -5760,10 +5830,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -5771,10 +5841,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -5782,10 +5852,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D42" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -5793,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D43" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -5804,10 +5874,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D44" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -5815,10 +5885,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -5826,28 +5896,28 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D46" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
       <c r="C51" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
@@ -5855,19 +5925,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -5875,19 +5945,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I53" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -5895,19 +5965,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I54" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -5915,19 +5985,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G55" s="4">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I55" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -5935,19 +6005,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D56" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G56" s="4">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="I56" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -5955,19 +6025,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G57" s="4">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I57" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -5975,19 +6045,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G58" s="4">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="I58" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -5995,19 +6065,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D59" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G59" s="4">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="I59" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -6015,19 +6085,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D60" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G60" s="4">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="I60" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -6035,19 +6105,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D61" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G61" s="4">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="I61" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -6055,19 +6125,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D62" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G62" s="4">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="I62" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -6075,19 +6145,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D63" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G63" s="4">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="I63" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -6095,19 +6165,19 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D64" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G64" s="4">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="I64" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -6115,19 +6185,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D65" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G65" s="4">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="I65" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -6135,19 +6205,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D66" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G66" s="4">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I66" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -6155,19 +6225,19 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D67" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G67" s="4">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I67" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
@@ -6175,19 +6245,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D68" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G68" s="4">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="I68" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
@@ -6195,40 +6265,40 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D69" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G69" s="4">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I69" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="B73" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C73" t="s">
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="C75" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -6252,20 +6322,20 @@
     </row>
     <row r="84" customHeight="1" spans="1:9">
       <c r="C84" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
       <c r="C85" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:9">
@@ -6273,19 +6343,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:9">
@@ -6293,19 +6363,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D87" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G87" s="4">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="I87" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:9">
@@ -6313,19 +6383,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D88" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G88" s="4">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="I88" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:9">
@@ -6333,19 +6403,19 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D89" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G89" s="4">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I89" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
@@ -6353,19 +6423,19 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="G90" s="4">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="I90" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
@@ -6373,19 +6443,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D91" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G91" s="4">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="I91" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
@@ -6393,19 +6463,19 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D92" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G92" s="4">
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="I92" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
@@ -6413,19 +6483,19 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D93" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G93" s="4">
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I93" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
@@ -6433,19 +6503,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D94" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G94" s="4">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="I94" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6480,39 +6550,39 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:4">
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:4">
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:4">
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:4">
@@ -6520,23 +6590,23 @@
         <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:4">
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
@@ -6544,7 +6614,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
@@ -6552,7 +6622,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6582,29 +6652,29 @@
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>11</v>
@@ -6612,89 +6682,89 @@
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>13</v>
@@ -6702,144 +6772,144 @@
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>14</v>
@@ -6847,17 +6917,17 @@
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>15</v>
@@ -6865,41 +6935,41 @@
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>16</v>
@@ -6907,163 +6977,163 @@
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>14</v>
@@ -7076,7 +7146,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
     <sheet name="Tinsight" sheetId="2" r:id="rId2"/>
-    <sheet name="Tvantage" sheetId="3" r:id="rId3"/>
-    <sheet name="TDX" sheetId="4" r:id="rId4"/>
-    <sheet name="ODS_DWD_DMART" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Takshare" sheetId="9" r:id="rId3"/>
+    <sheet name="Tvantage" sheetId="3" r:id="rId4"/>
+    <sheet name="TDX" sheetId="4" r:id="rId5"/>
+    <sheet name="ODS_DWD_DMART" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$37</definedName>
     <definedName name="A股的筹码分布数据">Tinsight!$G$27</definedName>
     <definedName name="北向持仓数据">Tinsight!$B$53</definedName>
     <definedName name="大A的主要指数日K">Tinsight!$G$13</definedName>
@@ -41,6 +42,19 @@
     <definedName name="股票基本面数据_所属交易所">ODS_DWD_DMART!$C$6</definedName>
     <definedName name="股票基础信息大宽表">ODS_DWD_DMART!$C$18</definedName>
     <definedName name="交易所的交易日历">Tinsight!$G$4</definedName>
+    <definedName name="通达信地区板块数据" localSheetId="2">Takshare!$H$6</definedName>
+    <definedName name="通达信风格板块数据" localSheetId="2">Takshare!$C$26</definedName>
+    <definedName name="通达信概念板块数据" localSheetId="2">Takshare!$C$6</definedName>
+    <definedName name="通达信行业板块数据" localSheetId="2">Takshare!$M$6</definedName>
+    <definedName name="通达信指数板块数据" localSheetId="2">Takshare!$H$26</definedName>
+    <definedName name="小红书渠道个股板块数据" localSheetId="2">Takshare!$C$52</definedName>
+    <definedName name="股票基本面数据_资产数据" localSheetId="2">Takshare!$C$63</definedName>
+    <definedName name="ods_akshare_stock_value_em">Takshare!$C$7</definedName>
+    <definedName name="ods_akshare_stock_zh_a_gdhs_detail_em">Takshare!$H$7</definedName>
+    <definedName name="ods_akshare_stock_cyq_em">Takshare!$M$7</definedName>
+    <definedName name="ods_akshare_stock_yjkb_em">Takshare!$C$27</definedName>
+    <definedName name="ods_akshare_stock_yjyg_em">Takshare!$H$27</definedName>
+    <definedName name="ods_akshare_stock_a_high_low_statistics">Takshare!$M$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="589">
   <si>
     <t>序号</t>
   </si>
@@ -95,15 +109,27 @@
     <t>insight</t>
   </si>
   <si>
+    <t>ods_trading_days_insight</t>
+  </si>
+  <si>
+    <t>交易所的交易日历</t>
+  </si>
+  <si>
+    <t>一次性下载更新至20261231</t>
+  </si>
+  <si>
     <t>ods_stock_code_daily_insight</t>
   </si>
   <si>
+    <t>每日17点  目前更新至 20260129，T日</t>
+  </si>
+  <si>
+    <t>ods_stock_chouma_insight</t>
+  </si>
+  <si>
     <t>每日17点</t>
   </si>
   <si>
-    <t>ods_stock_chouma_insight</t>
-  </si>
-  <si>
     <t>ods_shareholder_num</t>
   </si>
   <si>
@@ -119,13 +145,40 @@
     <t>ods_tdx_stock_pepb_info</t>
   </si>
   <si>
-    <t>这个表需要从通达信手动下载更新</t>
-  </si>
-  <si>
-    <t>ods_trading_days_insight</t>
-  </si>
-  <si>
-    <t>交易所的交易日历</t>
+    <t>这个表需要从通达信手动下载更新，目前数据已清空</t>
+  </si>
+  <si>
+    <t>akshare</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_value_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_估值数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_zh_a_gdhs_detail_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_股东数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_cyq_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_筹码数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_yjkb_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_业绩快报数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_yjyg_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_业绩预告数据</t>
   </si>
   <si>
     <t>行情数据</t>
@@ -165,6 +218,12 @@
   </si>
   <si>
     <t>ods_stock_limit_summary_insight</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_a_high_low_statistics</t>
+  </si>
+  <si>
+    <t>大盘情绪数据_大盘区间内的新低新高股票数</t>
   </si>
   <si>
     <t>行业标签</t>
@@ -777,15 +836,492 @@
     <t>北向资金持有股票占比</t>
   </si>
   <si>
+    <t>股票基本面数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ymd         </t>
+  </si>
+  <si>
+    <t>数据日期</t>
+  </si>
+  <si>
+    <t>ymd</t>
+  </si>
+  <si>
+    <t>股东户数统计截止日（对应核心日期维度）</t>
+  </si>
+  <si>
+    <t>stock_code</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>当日收盘价(元)</t>
+  </si>
+  <si>
+    <t>stock_name</t>
+  </si>
+  <si>
+    <t>change_pct</t>
+  </si>
+  <si>
+    <t>当日涨跌幅(%)</t>
+  </si>
+  <si>
+    <t>range_change_pct</t>
+  </si>
+  <si>
+    <t>区间涨跌幅(%)</t>
+  </si>
+  <si>
+    <t>profit_ratio</t>
+  </si>
+  <si>
+    <t>获利比例</t>
+  </si>
+  <si>
+    <t>total_market</t>
+  </si>
+  <si>
+    <t>总市值(元)</t>
+  </si>
+  <si>
+    <t>holder_num_current</t>
+  </si>
+  <si>
+    <t>股东户数-本次</t>
+  </si>
+  <si>
+    <t>avg_cost</t>
+  </si>
+  <si>
+    <t>平均成本</t>
+  </si>
+  <si>
+    <t>circulation_market</t>
+  </si>
+  <si>
+    <t>流通市值(元)</t>
+  </si>
+  <si>
+    <t>holder_num_last</t>
+  </si>
+  <si>
+    <t>股东户数-上次</t>
+  </si>
+  <si>
+    <t>cost_low_90</t>
+  </si>
+  <si>
+    <t>90成本-低</t>
+  </si>
+  <si>
+    <t>total_shares</t>
+  </si>
+  <si>
+    <t>总股本(股)</t>
+  </si>
+  <si>
+    <t>holder_num_change</t>
+  </si>
+  <si>
+    <t>股东户数-增减</t>
+  </si>
+  <si>
+    <t>cost_high_90</t>
+  </si>
+  <si>
+    <t>90成本-高</t>
+  </si>
+  <si>
+    <t>circulation_shares</t>
+  </si>
+  <si>
+    <t>流通股本(股)</t>
+  </si>
+  <si>
+    <t>holder_num_change_pct</t>
+  </si>
+  <si>
+    <t>股东户数-增减比例(%)</t>
+  </si>
+  <si>
+    <t>concentration_90</t>
+  </si>
+  <si>
+    <t>90集中度</t>
+  </si>
+  <si>
+    <t>pe_ttm</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>avg_holder_market</t>
+  </si>
+  <si>
+    <t>户均持股市值</t>
+  </si>
+  <si>
+    <t>cost_low_70</t>
+  </si>
+  <si>
+    <t>70成本-低</t>
+  </si>
+  <si>
+    <t>pe_static</t>
+  </si>
+  <si>
+    <t>PE(静)</t>
+  </si>
+  <si>
+    <t>avg_holder_share_num</t>
+  </si>
+  <si>
+    <t>户均持股数量</t>
+  </si>
+  <si>
+    <t>cost_high_70</t>
+  </si>
+  <si>
+    <t>70成本-高</t>
+  </si>
+  <si>
+    <t>pb</t>
+  </si>
+  <si>
+    <t>市净率</t>
+  </si>
+  <si>
+    <t>总市值</t>
+  </si>
+  <si>
+    <t>concentration_70</t>
+  </si>
+  <si>
+    <t>70集中度</t>
+  </si>
+  <si>
+    <t>peg</t>
+  </si>
+  <si>
+    <t>PEG值</t>
+  </si>
+  <si>
+    <t>总股本</t>
+  </si>
+  <si>
+    <t>pcf</t>
+  </si>
+  <si>
+    <t>市现率</t>
+  </si>
+  <si>
+    <t>share_change</t>
+  </si>
+  <si>
+    <t>股本变动</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>市销率</t>
+  </si>
+  <si>
+    <t>share_change_reason</t>
+  </si>
+  <si>
+    <t>股本变动原因</t>
+  </si>
+  <si>
+    <t>holder_num_announce_date</t>
+  </si>
+  <si>
+    <t>股东户数公告日期</t>
+  </si>
+  <si>
+    <t>公告日期（核心日期维度）</t>
+  </si>
+  <si>
+    <t>公告日期</t>
+  </si>
+  <si>
+    <t>serial_num</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>市场类型</t>
+  </si>
+  <si>
+    <t>相关指数收盘价</t>
+  </si>
+  <si>
+    <t>股票简称</t>
+  </si>
+  <si>
+    <t>high20</t>
+  </si>
+  <si>
+    <t>20日新高</t>
+  </si>
+  <si>
+    <t>eps</t>
+  </si>
+  <si>
+    <t>每股收益</t>
+  </si>
+  <si>
+    <t>forecast_index</t>
+  </si>
+  <si>
+    <t>预测指标</t>
+  </si>
+  <si>
+    <t>low20</t>
+  </si>
+  <si>
+    <t>20日新低</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>营业收入-营业收入</t>
+  </si>
+  <si>
+    <t>performance_change</t>
+  </si>
+  <si>
+    <t>业绩变动</t>
+  </si>
+  <si>
+    <t>high60</t>
+  </si>
+  <si>
+    <t>60日新高</t>
+  </si>
+  <si>
+    <t>income_last_year</t>
+  </si>
+  <si>
+    <t>营业收入-去年同期</t>
+  </si>
+  <si>
+    <t>forecast_value</t>
+  </si>
+  <si>
+    <t>预测数值(元)</t>
+  </si>
+  <si>
+    <t>low60</t>
+  </si>
+  <si>
+    <t>60日新低</t>
+  </si>
+  <si>
+    <t>income_yoy</t>
+  </si>
+  <si>
+    <t>营业收入-同比增长</t>
+  </si>
+  <si>
+    <t>业绩变动幅度(%)</t>
+  </si>
+  <si>
+    <t>high120</t>
+  </si>
+  <si>
+    <t>120日新高</t>
+  </si>
+  <si>
+    <t>income_qoq</t>
+  </si>
+  <si>
+    <t>营业收入-季度环比增长</t>
+  </si>
+  <si>
+    <t>change_reason</t>
+  </si>
+  <si>
+    <t>业绩变动原因</t>
+  </si>
+  <si>
+    <t>low120</t>
+  </si>
+  <si>
+    <t>120日新低</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>净利润-净利润</t>
+  </si>
+  <si>
+    <t>forecast_type</t>
+  </si>
+  <si>
+    <t>预告类型</t>
+  </si>
+  <si>
+    <t>profit_last_year</t>
+  </si>
+  <si>
+    <t>净利润-去年同期</t>
+  </si>
+  <si>
+    <t>last_year_value</t>
+  </si>
+  <si>
+    <t>上年同期值(元)</t>
+  </si>
+  <si>
+    <t>profit_yoy</t>
+  </si>
+  <si>
+    <t>净利润-同比增长</t>
+  </si>
+  <si>
+    <t>profit_qoq</t>
+  </si>
+  <si>
+    <t>净利润-季度环比增长</t>
+  </si>
+  <si>
+    <t>asset_per_share</t>
+  </si>
+  <si>
+    <t>每股净资产</t>
+  </si>
+  <si>
+    <t>roe</t>
+  </si>
+  <si>
+    <t>净资产收益率</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>所处行业</t>
+  </si>
+  <si>
+    <t>market_board</t>
+  </si>
+  <si>
+    <t>市场板块</t>
+  </si>
+  <si>
+    <t>securities_type</t>
+  </si>
+  <si>
+    <t>证券类型</t>
+  </si>
+  <si>
+    <t>多渠道来源</t>
+  </si>
+  <si>
+    <t>汇总板块码表</t>
+  </si>
+  <si>
+    <t>小红书渠道个股板块数据</t>
+  </si>
+  <si>
+    <t>plate_name</t>
+  </si>
+  <si>
+    <t>板块名称</t>
+  </si>
+  <si>
+    <t>标的代码</t>
+  </si>
+  <si>
+    <t>标的名称</t>
+  </si>
+  <si>
+    <t>source_table</t>
+  </si>
+  <si>
+    <t>来源表</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>股票基本面数据_资产数据</t>
+  </si>
+  <si>
+    <t>market_value</t>
+  </si>
+  <si>
+    <t>流通市值(亿)</t>
+  </si>
+  <si>
+    <t>total_asset</t>
+  </si>
+  <si>
+    <t>总资产(亿)</t>
+  </si>
+  <si>
+    <t>net_asset</t>
+  </si>
+  <si>
+    <t>净资产(亿)</t>
+  </si>
+  <si>
+    <t>total_capital</t>
+  </si>
+  <si>
+    <t>总股本(亿)</t>
+  </si>
+  <si>
+    <t>float_capital</t>
+  </si>
+  <si>
+    <t>流通股(亿)</t>
+  </si>
+  <si>
+    <t>shareholder_num</t>
+  </si>
+  <si>
+    <t>股东人数</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>市盈(动)</t>
+  </si>
+  <si>
+    <t>细分行业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加一个标的_股本数  </t>
+  </si>
+  <si>
+    <t>算市值</t>
+  </si>
+  <si>
+    <t>可以按周的维度，手工去加载数据</t>
+  </si>
+  <si>
+    <t>净资产</t>
+  </si>
+  <si>
     <t>美股_日K</t>
   </si>
   <si>
     <t xml:space="preserve">name  </t>
   </si>
   <si>
-    <t>标的名称</t>
-  </si>
-  <si>
     <t xml:space="preserve">ymd   </t>
   </si>
   <si>
@@ -810,9 +1346,6 @@
     <t>货币对</t>
   </si>
   <si>
-    <t>ymd</t>
-  </si>
-  <si>
     <t>美元指数</t>
   </si>
   <si>
@@ -823,9 +1356,6 @@
   </si>
   <si>
     <t>low</t>
-  </si>
-  <si>
-    <t>close</t>
   </si>
   <si>
     <r>
@@ -849,9 +1379,6 @@
     <t>通达信行业板块数据</t>
   </si>
   <si>
-    <t xml:space="preserve">ymd         </t>
-  </si>
-  <si>
     <t xml:space="preserve">ymd        </t>
   </si>
   <si>
@@ -925,111 +1452,6 @@
   </si>
   <si>
     <t>指数板块名称</t>
-  </si>
-  <si>
-    <t>stock_code</t>
-  </si>
-  <si>
-    <t>stock_name</t>
-  </si>
-  <si>
-    <t>多渠道来源</t>
-  </si>
-  <si>
-    <t>汇总板块码表</t>
-  </si>
-  <si>
-    <t>小红书渠道个股板块数据</t>
-  </si>
-  <si>
-    <t>plate_name</t>
-  </si>
-  <si>
-    <t>板块名称</t>
-  </si>
-  <si>
-    <t>标的代码</t>
-  </si>
-  <si>
-    <t>source_table</t>
-  </si>
-  <si>
-    <t>来源表</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>股票基本面数据_资产数据</t>
-  </si>
-  <si>
-    <t>market_value</t>
-  </si>
-  <si>
-    <t>流通市值(亿)</t>
-  </si>
-  <si>
-    <t>total_asset</t>
-  </si>
-  <si>
-    <t>总资产(亿)</t>
-  </si>
-  <si>
-    <t>net_asset</t>
-  </si>
-  <si>
-    <t>净资产(亿)</t>
-  </si>
-  <si>
-    <t>total_capital</t>
-  </si>
-  <si>
-    <t>总股本(亿)</t>
-  </si>
-  <si>
-    <t>float_capital</t>
-  </si>
-  <si>
-    <t>流通股(亿)</t>
-  </si>
-  <si>
-    <t>shareholder_num</t>
-  </si>
-  <si>
-    <t>股东人数</t>
-  </si>
-  <si>
-    <t>pb</t>
-  </si>
-  <si>
-    <t>市净率</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>市盈(动)</t>
-  </si>
-  <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>细分行业</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加一个标的_股本数  </t>
-  </si>
-  <si>
-    <t>算市值</t>
-  </si>
-  <si>
-    <t>可以按周的维度，手工去加载数据</t>
-  </si>
-  <si>
-    <t>净资产</t>
   </si>
   <si>
     <r>
@@ -1055,9 +1477,6 @@
   </si>
   <si>
     <t>股票基本面数据_所属交易所</t>
-  </si>
-  <si>
-    <t>market</t>
   </si>
   <si>
     <t>市场特征主板创业板等</t>
@@ -1563,6 +1982,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1716,13 +2142,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2077,16 +2496,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2095,119 +2511,122 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2241,7 +2660,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2317,13 +2745,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>572135</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1691005</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2333,7 +2761,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11445875" y="5366385"/>
+          <a:off x="14745335" y="7393305"/>
           <a:ext cx="1118870" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -2618,12 +3046,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2631,9 +3059,9 @@
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="3" width="12.1111111111111" style="4" customWidth="1"/>
     <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="33.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="29.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="42.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="43.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="37.7777777777778" customWidth="1"/>
     <col min="8" max="8" width="33.1111111111111" customWidth="1"/>
     <col min="10" max="10" width="26.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
@@ -2667,7 +3095,7 @@
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2682,650 +3110,760 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="14" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="11" t="str">
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="14" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="11" t="str">
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="14" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="11" t="str">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="14" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="str">
+      <c r="E8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="14" t="str">
         <f>HYPERLINK("#股票基本面数据_所属交易所",股票基本面数据_所属交易所)</f>
         <v>股票基本面数据_所属交易所</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="11" t="str">
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14" t="str">
         <f>HYPERLINK("#股票基本面数据_资产数据",股票基本面数据_资产数据)</f>
         <v>股票基本面数据_资产数据</v>
       </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" ht="19.95" customHeight="1" spans="1:8">
-      <c r="B9" s="4" t="s">
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" ht="19.95" customHeight="1" spans="1:8">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" ht="19.95" customHeight="1" spans="1:8">
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="19.95" customHeight="1"/>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" ht="19.95" customHeight="1" spans="1:8">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="12" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A12" s="4">
-        <v>6</v>
-      </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="19.95" customHeight="1" spans="1:8">
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="19.95" customHeight="1" spans="1:8">
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" ht="19.95" customHeight="1" spans="1:8">
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" ht="19.95" customHeight="1" spans="1:8">
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" ht="19.95" customHeight="1"/>
+    <row r="18" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A18" s="4">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="11" t="str">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="14" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A13" s="4">
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A19" s="4">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="11" t="str">
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="14" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A14" s="4">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A20" s="4">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="11" t="str">
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="14" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A15" s="4">
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A21" s="4">
         <v>9</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="11" t="str">
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="14" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="19.95" customHeight="1" spans="1:8">
-      <c r="B16" s="4" t="s">
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="19.95" customHeight="1" spans="1:7">
+      <c r="B22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="19.95" customHeight="1" spans="1:12">
-      <c r="B17" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" ht="19.95" customHeight="1" spans="1:7">
+      <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A20" s="4">
+      <c r="C23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" ht="19.95" customHeight="1" spans="1:7">
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" ht="19.95" customHeight="1" spans="1:7">
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A26" s="4">
         <v>11</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="11" t="str">
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="14" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="19.95" customHeight="1"/>
-    <row r="22" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A22" s="4">
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" ht="19.95" customHeight="1" spans="1:7">
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" ht="19.95" customHeight="1" spans="1:7">
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" ht="19.95" customHeight="1"/>
+    <row r="30" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A30" s="4">
         <v>13</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="11" t="str">
+      <c r="E30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="14" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A23" s="4">
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A31" s="4">
         <v>14</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
         <v>10</v>
       </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="11" t="str">
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="14" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A24" s="4">
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A32" s="4">
         <v>15</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="11" t="str">
+      <c r="C32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="14" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A25" s="4">
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A33" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="11" t="str">
+      <c r="C33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="14" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="11" t="str">
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L33" s="14" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
-    <row r="26" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A26" s="4">
+    <row r="34" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A34" s="4">
         <v>17</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="11" t="str">
+      <c r="C34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="14" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A27" s="4">
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A35" s="4">
         <v>18</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="11" t="str">
+      <c r="C35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="14" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A28" s="4">
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A36" s="4">
         <v>19</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="11" t="str">
+      <c r="C36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="14" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A29" s="4">
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A37" s="4">
         <v>20</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="11" t="str">
+      <c r="C37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="14" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" ht="105" customHeight="1" spans="1:8">
-      <c r="A33" s="4">
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" ht="105" customHeight="1" spans="1:12">
+      <c r="A41" s="4">
         <v>26</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="11" t="str">
+      <c r="B41" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="14" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" ht="67" customHeight="1" spans="1:8">
-      <c r="A34" s="4">
+      <c r="H41" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" ht="67" customHeight="1" spans="1:12">
+      <c r="A42" s="4">
         <v>27</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="11" t="str">
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="14" t="str">
         <f>HYPERLINK("#股票基础信息大宽表",股票基础信息大宽表)</f>
         <v>股票基础信息大宽表</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" ht="40" customHeight="1" spans="1:8">
-      <c r="A35" s="4">
+      <c r="H42" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" ht="40" customHeight="1" spans="1:12">
+      <c r="A43" s="4">
         <v>28</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="11" t="str">
+      <c r="B43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="14" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" ht="42" customHeight="1" spans="1:8">
-      <c r="A36" s="4">
+      <c r="H43" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" ht="42" customHeight="1" spans="1:12">
+      <c r="A44" s="4">
         <v>29</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="11" t="str">
+      <c r="B44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="14" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" ht="19.95" customHeight="1"/>
-    <row r="38" ht="19.95" customHeight="1"/>
-    <row r="39" ht="19.95" customHeight="1"/>
-    <row r="40" ht="39" customHeight="1" spans="1:8">
-      <c r="B40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:8">
-      <c r="E41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" ht="19.95" customHeight="1"/>
-    <row r="43" ht="19.95" customHeight="1"/>
-    <row r="44" ht="19.95" customHeight="1"/>
+      <c r="H44" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="45" ht="19.95" customHeight="1"/>
     <row r="46" ht="19.95" customHeight="1"/>
     <row r="47" ht="19.95" customHeight="1"/>
-    <row r="48" ht="19.95" customHeight="1"/>
-    <row r="49" ht="19.95" customHeight="1"/>
+    <row r="48" ht="39" customHeight="1" spans="1:12">
+      <c r="B48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="5:8">
+      <c r="E49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s">
+        <v>69</v>
+      </c>
+    </row>
     <row r="50" ht="19.95" customHeight="1"/>
     <row r="51" ht="19.95" customHeight="1"/>
     <row r="52" ht="19.95" customHeight="1"/>
@@ -3344,12 +3882,26 @@
     <row r="65" ht="19.95" customHeight="1"/>
     <row r="66" ht="19.95" customHeight="1"/>
     <row r="67" ht="19.95" customHeight="1"/>
+    <row r="68" ht="19.95" customHeight="1"/>
+    <row r="69" ht="19.95" customHeight="1"/>
+    <row r="70" ht="19.95" customHeight="1"/>
+    <row r="71" ht="19.95" customHeight="1"/>
+    <row r="72" ht="19.95" customHeight="1"/>
+    <row r="73" ht="19.95" customHeight="1"/>
+    <row r="74" ht="19.95" customHeight="1"/>
+    <row r="75" ht="19.95" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K29" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K37" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F9" location="交易所的交易日历" display="交易所的交易日历"/>
+    <hyperlink ref="F3" location="交易所的交易日历" display="交易所的交易日历"/>
+    <hyperlink ref="E10" location="ods_akshare_stock_value_em" display="ods_akshare_stock_value_em"/>
+    <hyperlink ref="E11" location="ods_akshare_stock_zh_a_gdhs_detail_em" display="ods_akshare_stock_zh_a_gdhs_detail_em"/>
+    <hyperlink ref="E12" location="ods_akshare_stock_cyq_em" display="ods_akshare_stock_cyq_em"/>
+    <hyperlink ref="E13" location="ods_akshare_stock_yjkb_em" display="ods_akshare_stock_yjkb_em"/>
+    <hyperlink ref="E14" location="ods_akshare_stock_yjyg_em" display="ods_akshare_stock_yjyg_em"/>
+    <hyperlink ref="E27" location="ods_akshare_stock_a_high_low_statistics" display="ods_akshare_stock_a_high_low_statistics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3363,8 +3915,8 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
@@ -3382,20 +3934,20 @@
   <sheetData>
     <row r="4" customHeight="1" spans="1:13">
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
@@ -3403,19 +3955,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
@@ -3423,19 +3975,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -3443,19 +3995,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -3463,10 +4015,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -3475,33 +4027,33 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="B13" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -3509,28 +4061,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -3538,28 +4090,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
@@ -3567,28 +4119,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M17" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -3596,28 +4148,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F18" s="4">
         <v>3</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K18" s="4">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -3625,28 +4177,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F19" s="4">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="K19" s="4">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -3654,28 +4206,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="K20" s="4">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M20" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -3683,28 +4235,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F21" s="4">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K21" s="4">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M21" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -3712,28 +4264,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F22" s="4">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="K22" s="4">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="M22" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -3741,47 +4293,47 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F23" s="4">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="H23" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="B27" s="1" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -3789,37 +4341,37 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
@@ -3827,37 +4379,37 @@
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K30" s="4">
         <v>1</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="M30" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="P30" s="4">
         <v>1</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="R30" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
@@ -3865,37 +4417,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K31" s="4">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="M31" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="P31" s="4">
         <v>2</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="R31" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -3903,37 +4455,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="F32" s="4">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="H32" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K32" s="4">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M32" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P32" s="4">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="R32" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -3941,37 +4493,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F33" s="4">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K33" s="4">
         <v>4</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M33" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="P33" s="4">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="R33" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -3979,37 +4531,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F34" s="4">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H34" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K34" s="4">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M34" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="P34" s="4">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="R34" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -4017,37 +4569,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F35" s="4">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K35" s="4">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="P35" s="4">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="R35" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -4055,37 +4607,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F36" s="4">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H36" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K36" s="4">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M36" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="P36" s="4">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="R36" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -4093,34 +4645,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="F37" s="4">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="H37" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="K37" s="4">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="P37" s="4">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="R37" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -4128,34 +4680,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F38" s="4">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H38" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="K38" s="4">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M38" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P38" s="4">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="R38" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -4163,65 +4715,65 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H39" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="K39" s="4">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="M39" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P39" s="4">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="R39" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="B40" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F40" s="4">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P40" s="4">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="R40" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="B41" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F41" s="4">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="H41" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
@@ -4229,19 +4781,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F42" s="4">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H42" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
@@ -4249,19 +4801,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F43" s="4">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H43" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -4269,19 +4821,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F44" s="4">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
@@ -4289,19 +4841,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F45" s="4">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="H45" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -4309,19 +4861,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F46" s="4">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H46" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -4329,19 +4881,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F47" s="4">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H47" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -4349,19 +4901,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F48" s="4">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -4369,19 +4921,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F49" s="4">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H49" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -4389,10 +4941,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="H50" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -4400,10 +4952,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="H51" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -4411,38 +4963,38 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H52" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="B53" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F53" s="4">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="H53" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="B54" s="1" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F54" s="4">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="H54" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -4450,19 +5002,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F55" s="4">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="H55" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
@@ -4470,19 +5022,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="F56" s="4">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="H56" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
@@ -4490,10 +5042,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F57" s="4"/>
     </row>
@@ -4502,10 +5054,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F58" s="4"/>
     </row>
@@ -4514,10 +5066,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F59" s="4"/>
     </row>
@@ -4534,10 +5086,1263 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A3:N89"/>
+  <sheetViews>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="8.88888888888889" style="4"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="4"/>
+    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="34.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" customHeight="1" spans="1:14">
+      <c r="A3" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:14">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:14">
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:14">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:14">
+      <c r="B8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:14">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:14">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:14">
+      <c r="B11" s="4">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I12" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>263</v>
+      </c>
+      <c r="N12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:14">
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>267</v>
+      </c>
+      <c r="I13" t="s">
+        <v>268</v>
+      </c>
+      <c r="L13" s="4">
+        <v>5</v>
+      </c>
+      <c r="M13" t="s">
+        <v>269</v>
+      </c>
+      <c r="N13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:14">
+      <c r="B14" s="4">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" t="s">
+        <v>272</v>
+      </c>
+      <c r="G14" s="4">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>273</v>
+      </c>
+      <c r="I14" t="s">
+        <v>274</v>
+      </c>
+      <c r="L14" s="4">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
+        <v>275</v>
+      </c>
+      <c r="N14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:14">
+      <c r="B15" s="4">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>279</v>
+      </c>
+      <c r="I15" t="s">
+        <v>280</v>
+      </c>
+      <c r="L15" s="4">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>281</v>
+      </c>
+      <c r="N15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D16" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="4">
+        <v>8</v>
+      </c>
+      <c r="H16" t="s">
+        <v>285</v>
+      </c>
+      <c r="I16" t="s">
+        <v>286</v>
+      </c>
+      <c r="L16" s="4">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>287</v>
+      </c>
+      <c r="N16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:14">
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="4">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>291</v>
+      </c>
+      <c r="I17" t="s">
+        <v>292</v>
+      </c>
+      <c r="L17" s="4">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>293</v>
+      </c>
+      <c r="N17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:14">
+      <c r="B18" s="4">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="4">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>297</v>
+      </c>
+      <c r="I18" t="s">
+        <v>298</v>
+      </c>
+      <c r="L18" s="4">
+        <v>10</v>
+      </c>
+      <c r="M18" t="s">
+        <v>299</v>
+      </c>
+      <c r="N18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:14">
+      <c r="B19" s="4">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D19" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>265</v>
+      </c>
+      <c r="I19" t="s">
+        <v>303</v>
+      </c>
+      <c r="L19" s="4">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>304</v>
+      </c>
+      <c r="N19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:14">
+      <c r="B20" s="4">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G20" s="4">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>277</v>
+      </c>
+      <c r="I20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:14">
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="4">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>311</v>
+      </c>
+      <c r="I21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:14">
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" t="s">
+        <v>314</v>
+      </c>
+      <c r="G22" s="4">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>315</v>
+      </c>
+      <c r="I22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:14">
+      <c r="G23" s="4">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>317</v>
+      </c>
+      <c r="I23" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:14">
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:14">
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:14">
+      <c r="B28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:14">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:14">
+      <c r="B30" s="4">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>321</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>321</v>
+      </c>
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>2</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:14">
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="4">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>256</v>
+      </c>
+      <c r="N31" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:14">
+      <c r="B32" s="4">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" t="s">
+        <v>325</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>258</v>
+      </c>
+      <c r="I32" t="s">
+        <v>325</v>
+      </c>
+      <c r="L32" s="4">
+        <v>4</v>
+      </c>
+      <c r="M32" t="s">
+        <v>326</v>
+      </c>
+      <c r="N32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:14">
+      <c r="B33" s="4">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>328</v>
+      </c>
+      <c r="D33" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" s="4">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>330</v>
+      </c>
+      <c r="I33" t="s">
+        <v>331</v>
+      </c>
+      <c r="L33" s="4">
+        <v>5</v>
+      </c>
+      <c r="M33" t="s">
+        <v>332</v>
+      </c>
+      <c r="N33" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:14">
+      <c r="B34" s="4">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>334</v>
+      </c>
+      <c r="D34" t="s">
+        <v>335</v>
+      </c>
+      <c r="G34" s="4">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>336</v>
+      </c>
+      <c r="I34" t="s">
+        <v>337</v>
+      </c>
+      <c r="L34" s="4">
+        <v>6</v>
+      </c>
+      <c r="M34" t="s">
+        <v>338</v>
+      </c>
+      <c r="N34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:14">
+      <c r="B35" s="4">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>340</v>
+      </c>
+      <c r="D35" t="s">
+        <v>341</v>
+      </c>
+      <c r="G35" s="4">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>342</v>
+      </c>
+      <c r="I35" t="s">
+        <v>343</v>
+      </c>
+      <c r="L35" s="4">
+        <v>7</v>
+      </c>
+      <c r="M35" t="s">
+        <v>344</v>
+      </c>
+      <c r="N35" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:14">
+      <c r="B36" s="4">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>346</v>
+      </c>
+      <c r="D36" t="s">
+        <v>347</v>
+      </c>
+      <c r="G36" s="4">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>259</v>
+      </c>
+      <c r="I36" t="s">
+        <v>348</v>
+      </c>
+      <c r="L36" s="4">
+        <v>8</v>
+      </c>
+      <c r="M36" t="s">
+        <v>349</v>
+      </c>
+      <c r="N36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:14">
+      <c r="B37" s="4">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>351</v>
+      </c>
+      <c r="D37" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" s="4">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>353</v>
+      </c>
+      <c r="I37" t="s">
+        <v>354</v>
+      </c>
+      <c r="L37" s="4">
+        <v>9</v>
+      </c>
+      <c r="M37" t="s">
+        <v>355</v>
+      </c>
+      <c r="N37" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:14">
+      <c r="B38" s="4">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>357</v>
+      </c>
+      <c r="D38" t="s">
+        <v>358</v>
+      </c>
+      <c r="G38" s="4">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>359</v>
+      </c>
+      <c r="I38" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:14">
+      <c r="B39" s="4">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" t="s">
+        <v>362</v>
+      </c>
+      <c r="G39" s="4">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>363</v>
+      </c>
+      <c r="I39" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:14">
+      <c r="B40" s="4">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>365</v>
+      </c>
+      <c r="D40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:14">
+      <c r="B41" s="4">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>367</v>
+      </c>
+      <c r="D41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:14">
+      <c r="B42" s="4">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="2:14">
+      <c r="B43" s="4">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:14">
+      <c r="B44" s="4">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:14">
+      <c r="B45" s="4">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
+      <c r="D45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:14">
+      <c r="B46" s="4">
+        <v>18</v>
+      </c>
+      <c r="C46" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:9">
+      <c r="B51" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:9">
+      <c r="C52" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:9">
+      <c r="B54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>253</v>
+      </c>
+      <c r="I54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:9">
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>253</v>
+      </c>
+      <c r="D55" t="s">
+        <v>97</v>
+      </c>
+      <c r="G55" s="4">
+        <v>2</v>
+      </c>
+      <c r="H55" t="s">
+        <v>382</v>
+      </c>
+      <c r="I55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:9">
+      <c r="B56" s="4">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" t="s">
+        <v>383</v>
+      </c>
+      <c r="G56" s="4">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>255</v>
+      </c>
+      <c r="I56" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:9">
+      <c r="B57" s="4">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>255</v>
+      </c>
+      <c r="D57" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" s="4">
+        <v>4</v>
+      </c>
+      <c r="H57" t="s">
+        <v>258</v>
+      </c>
+      <c r="I57" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:9">
+      <c r="B58" s="4">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>258</v>
+      </c>
+      <c r="D58" t="s">
+        <v>385</v>
+      </c>
+      <c r="G58" s="4">
+        <v>5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>386</v>
+      </c>
+      <c r="I58" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:9">
+      <c r="B59" s="4">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>388</v>
+      </c>
+      <c r="D59" t="s">
+        <v>389</v>
+      </c>
+      <c r="G59" s="4">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>388</v>
+      </c>
+      <c r="I59" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:9">
+      <c r="C63" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:9">
+      <c r="C64" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="2:4">
+      <c r="B65" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:4">
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:4">
+      <c r="B67" s="4">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>255</v>
+      </c>
+      <c r="D67" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:4">
+      <c r="B68" s="4">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:4">
+      <c r="B69" s="4">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>391</v>
+      </c>
+      <c r="D69" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:4">
+      <c r="B70" s="4">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>393</v>
+      </c>
+      <c r="D70" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:4">
+      <c r="B71" s="4">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>395</v>
+      </c>
+      <c r="D71" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="2:4">
+      <c r="B72" s="4">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>397</v>
+      </c>
+      <c r="D72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:4">
+      <c r="B73" s="4">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>399</v>
+      </c>
+      <c r="D73" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="2:4">
+      <c r="B74" s="4">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>401</v>
+      </c>
+      <c r="D74" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="2:4">
+      <c r="B75" s="4">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>301</v>
+      </c>
+      <c r="D75" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:4">
+      <c r="B76" s="4">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>403</v>
+      </c>
+      <c r="D76" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:4">
+      <c r="B77" s="4">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>373</v>
+      </c>
+      <c r="D77" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="3:5">
+      <c r="C84" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" t="s">
+        <v>407</v>
+      </c>
+      <c r="E84" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="3:5">
+      <c r="C89" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:M4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B4:I26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
@@ -4551,12 +6356,12 @@
   <sheetData>
     <row r="4" customHeight="1" spans="2:4">
       <c r="C4" s="1" t="s">
-        <v>235</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -4564,10 +6369,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -4575,10 +6380,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -4586,10 +6391,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>238</v>
+        <v>412</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -4597,10 +6402,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>413</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -4608,10 +6413,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>240</v>
+        <v>414</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -4619,10 +6424,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>415</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -4630,10 +6435,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>416</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -4641,28 +6446,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>243</v>
+        <v>417</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -4670,19 +6475,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -4690,19 +6495,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>244</v>
+        <v>418</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
+        <v>419</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -4710,19 +6515,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>244</v>
+        <v>418</v>
       </c>
       <c r="I22" t="s">
-        <v>247</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -4730,10 +6535,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -4742,10 +6547,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>422</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -4754,10 +6559,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>250</v>
+        <v>423</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -4766,10 +6571,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -4780,13 +6585,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -4803,7 +6608,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>252</v>
+        <v>424</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -4835,26 +6640,26 @@
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
-        <v>253</v>
+        <v>425</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>254</v>
+        <v>426</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
-        <v>255</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -4862,28 +6667,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -4891,28 +6696,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>428</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -4920,28 +6725,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
-        <v>259</v>
+        <v>430</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>260</v>
+        <v>431</v>
       </c>
       <c r="I10" t="s">
-        <v>261</v>
+        <v>432</v>
       </c>
       <c r="L10" s="4">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N10" t="s">
-        <v>262</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -4949,28 +6754,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>434</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>265</v>
+        <v>436</v>
       </c>
       <c r="I11" t="s">
-        <v>266</v>
+        <v>437</v>
       </c>
       <c r="L11" s="4">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="N11" t="s">
-        <v>267</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -4978,28 +6783,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>439</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>269</v>
+        <v>440</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="L12" s="4">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>270</v>
+        <v>441</v>
       </c>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -5007,44 +6812,44 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>442</v>
       </c>
       <c r="D13" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>272</v>
+        <v>443</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L13" s="4">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>273</v>
+        <v>444</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
       <c r="C16" s="1" t="s">
-        <v>274</v>
+        <v>445</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>275</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="C17" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -5052,19 +6857,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -5072,19 +6877,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -5092,19 +6897,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>430</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>277</v>
+        <v>448</v>
       </c>
       <c r="I20" t="s">
-        <v>278</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -5112,19 +6917,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>280</v>
+        <v>451</v>
       </c>
       <c r="I21" t="s">
-        <v>281</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -5132,19 +6937,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -5152,49 +6957,49 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G23" s="4">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="I23" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="6" t="s">
-        <v>284</v>
+        <v>379</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
       <c r="C27" s="1" t="s">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:9">
       <c r="C28" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -5202,19 +7007,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I29" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -5222,19 +7027,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -5242,19 +7047,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="D31" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -5262,19 +7067,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D32" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -5282,19 +7087,19 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D33" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
       <c r="G33" s="4">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -5302,29 +7107,29 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="D34" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
       <c r="G34" s="4">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:9">
       <c r="C38" s="1" t="s">
-        <v>294</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:9">
       <c r="C39" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:9">
@@ -5332,10 +7137,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
@@ -5343,10 +7148,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
@@ -5354,10 +7159,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D42" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
@@ -5365,10 +7170,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D43" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
@@ -5376,10 +7181,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="D44" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -5387,10 +7192,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -5398,10 +7203,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>299</v>
+        <v>395</v>
       </c>
       <c r="D46" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -5409,10 +7214,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="D47" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -5420,10 +7225,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="D48" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
@@ -5431,10 +7236,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="D49" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
@@ -5442,10 +7247,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
@@ -5453,10 +7258,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="D51" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
@@ -5464,26 +7269,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="D52" t="s">
-        <v>312</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="D59" t="s">
-        <v>314</v>
+        <v>407</v>
       </c>
       <c r="E59" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
-        <v>316</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -5495,7 +7300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:I94"/>
@@ -5515,7 +7320,7 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>317</v>
+        <v>453</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5539,12 +7344,12 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="C6" s="1" t="s">
-        <v>318</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:9">
@@ -5552,10 +7357,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -5563,10 +7368,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -5574,10 +7379,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -5585,10 +7390,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -5596,15 +7401,15 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>321</v>
+        <v>456</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -5631,12 +7436,12 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
-        <v>322</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
@@ -5644,10 +7449,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -5655,10 +7460,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -5666,10 +7471,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>323</v>
+        <v>458</v>
       </c>
       <c r="D22" t="s">
-        <v>324</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -5677,10 +7482,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>460</v>
       </c>
       <c r="D23" t="s">
-        <v>326</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -5688,10 +7493,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
+        <v>462</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>463</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -5699,10 +7504,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>329</v>
+        <v>464</v>
       </c>
       <c r="D25" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -5710,10 +7515,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>465</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -5721,10 +7526,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>332</v>
+        <v>467</v>
       </c>
       <c r="D27" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -5732,10 +7537,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>333</v>
+        <v>468</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -5743,10 +7548,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>334</v>
+        <v>469</v>
       </c>
       <c r="D29" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -5754,10 +7559,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>470</v>
       </c>
       <c r="D30" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -5765,10 +7570,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="D31" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -5776,10 +7581,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>336</v>
+        <v>471</v>
       </c>
       <c r="D32" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -5787,10 +7592,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>337</v>
+        <v>472</v>
       </c>
       <c r="D33" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -5798,10 +7603,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>338</v>
+        <v>473</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -5809,20 +7614,20 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="C38" s="1" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
@@ -5830,10 +7635,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -5841,10 +7646,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -5852,10 +7657,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>382</v>
       </c>
       <c r="D42" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -5863,10 +7668,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -5874,10 +7679,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -5885,10 +7690,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -5896,28 +7701,28 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>292</v>
+        <v>388</v>
       </c>
       <c r="D46" t="s">
-        <v>293</v>
+        <v>389</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
-        <v>340</v>
+        <v>475</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="1" t="s">
-        <v>341</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
       <c r="C51" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
@@ -5925,19 +7730,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -5945,19 +7750,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I53" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -5965,19 +7770,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="I54" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -5985,19 +7790,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G55" s="4">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="I55" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -6005,19 +7810,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>342</v>
+        <v>477</v>
       </c>
       <c r="D56" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
       <c r="G56" s="4">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>342</v>
+        <v>477</v>
       </c>
       <c r="I56" t="s">
-        <v>343</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -6025,19 +7830,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="G57" s="4">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="I57" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -6045,19 +7850,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>344</v>
+        <v>479</v>
       </c>
       <c r="D58" t="s">
-        <v>345</v>
+        <v>480</v>
       </c>
       <c r="G58" s="4">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>344</v>
+        <v>479</v>
       </c>
       <c r="I58" t="s">
-        <v>345</v>
+        <v>480</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -6065,19 +7870,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="D59" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
       <c r="G59" s="4">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>295</v>
+        <v>391</v>
       </c>
       <c r="I59" t="s">
-        <v>296</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -6085,19 +7890,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="D60" t="s">
-        <v>331</v>
+        <v>466</v>
       </c>
       <c r="G60" s="4">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="I60" t="s">
-        <v>331</v>
+        <v>466</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -6105,19 +7910,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="D61" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
       <c r="G61" s="4">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="I61" t="s">
-        <v>298</v>
+        <v>394</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -6125,19 +7930,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>299</v>
+        <v>395</v>
       </c>
       <c r="D62" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="G62" s="4">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>299</v>
+        <v>395</v>
       </c>
       <c r="I62" t="s">
-        <v>300</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -6145,19 +7950,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="D63" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
       <c r="G63" s="4">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="I63" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -6165,19 +7970,19 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="D64" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="G64" s="4">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="I64" t="s">
-        <v>304</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -6185,19 +7990,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="D65" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
       <c r="G65" s="4">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>305</v>
+        <v>401</v>
       </c>
       <c r="I65" t="s">
-        <v>306</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -6205,19 +8010,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D66" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G66" s="4">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="I66" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -6225,19 +8030,19 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="D67" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
       <c r="G67" s="4">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="I67" t="s">
-        <v>310</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
@@ -6245,19 +8050,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D68" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
       <c r="G68" s="4">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I68" t="s">
-        <v>320</v>
+        <v>455</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
@@ -6265,40 +8070,40 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>347</v>
+        <v>482</v>
       </c>
       <c r="D69" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="G69" s="4">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>347</v>
+        <v>482</v>
       </c>
       <c r="I69" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="B73" s="4" t="s">
-        <v>348</v>
+        <v>483</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>349</v>
+        <v>484</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="C75" t="s">
-        <v>350</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>351</v>
+        <v>486</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -6322,20 +8127,20 @@
     </row>
     <row r="84" customHeight="1" spans="1:9">
       <c r="C84" s="1" t="s">
-        <v>352</v>
+        <v>487</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="1" t="s">
-        <v>352</v>
+        <v>487</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
       <c r="C85" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:9">
@@ -6343,19 +8148,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:9">
@@ -6363,19 +8168,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G87" s="4">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="I87" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:9">
@@ -6383,19 +8188,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D88" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G88" s="4">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="I88" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:9">
@@ -6403,19 +8208,19 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G89" s="4">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="I89" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
@@ -6423,19 +8228,19 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>488</v>
       </c>
       <c r="D90" t="s">
-        <v>354</v>
+        <v>489</v>
       </c>
       <c r="G90" s="4">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>353</v>
+        <v>488</v>
       </c>
       <c r="I90" t="s">
-        <v>354</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
@@ -6443,19 +8248,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>355</v>
+        <v>490</v>
       </c>
       <c r="D91" t="s">
-        <v>356</v>
+        <v>491</v>
       </c>
       <c r="G91" s="4">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>355</v>
+        <v>490</v>
       </c>
       <c r="I91" t="s">
-        <v>356</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
@@ -6463,19 +8268,19 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>492</v>
       </c>
       <c r="D92" t="s">
-        <v>358</v>
+        <v>493</v>
       </c>
       <c r="G92" s="4">
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>357</v>
+        <v>492</v>
       </c>
       <c r="I92" t="s">
-        <v>358</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
@@ -6483,19 +8288,19 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>359</v>
+        <v>494</v>
       </c>
       <c r="D93" t="s">
-        <v>360</v>
+        <v>495</v>
       </c>
       <c r="G93" s="4">
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>359</v>
+        <v>494</v>
       </c>
       <c r="I93" t="s">
-        <v>360</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
@@ -6503,19 +8308,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>361</v>
+        <v>496</v>
       </c>
       <c r="D94" t="s">
-        <v>362</v>
+        <v>497</v>
       </c>
       <c r="G94" s="4">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>361</v>
+        <v>496</v>
       </c>
       <c r="I94" t="s">
-        <v>362</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -6529,7 +8334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C4:D13"/>
@@ -6547,82 +8352,82 @@
   <sheetData>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:4">
       <c r="C5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:4">
       <c r="C7" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:4">
       <c r="C8" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:4">
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:4">
       <c r="C10" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -6631,12 +8436,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C5:I158"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E93" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E105" workbookViewId="0">
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
@@ -6652,501 +8457,501 @@
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>363</v>
+        <v>498</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>364</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>365</v>
+        <v>500</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>366</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>367</v>
+        <v>502</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>368</v>
+        <v>503</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>369</v>
+        <v>504</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>370</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>371</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>372</v>
+        <v>507</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>373</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>374</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>375</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>376</v>
+        <v>511</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>377</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>378</v>
+        <v>513</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>379</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>380</v>
+        <v>515</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>381</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>382</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>383</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>384</v>
+        <v>519</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>385</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>386</v>
+        <v>521</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>387</v>
+        <v>522</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>388</v>
+        <v>523</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>389</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>390</v>
+        <v>525</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>391</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>392</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>393</v>
+        <v>528</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>394</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>395</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>396</v>
+        <v>531</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>397</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>398</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>399</v>
+        <v>534</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>400</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>401</v>
+        <v>536</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>402</v>
+        <v>537</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>374</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>403</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>404</v>
+        <v>539</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>378</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>405</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>406</v>
+        <v>541</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>382</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>407</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>408</v>
+        <v>543</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>409</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>410</v>
+        <v>545</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>411</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>412</v>
+        <v>547</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>413</v>
+        <v>548</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>414</v>
+        <v>549</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>415</v>
+        <v>550</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>416</v>
+        <v>551</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>418</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>419</v>
+        <v>554</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>420</v>
+        <v>555</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>421</v>
+        <v>556</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>422</v>
+        <v>557</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>423</v>
+        <v>558</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>424</v>
+        <v>559</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>425</v>
+        <v>560</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>426</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>427</v>
+        <v>562</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>428</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>429</v>
+        <v>564</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>430</v>
+        <v>565</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>431</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>432</v>
+        <v>567</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>433</v>
+        <v>568</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>432</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>434</v>
+        <v>569</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>435</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>436</v>
+        <v>571</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>437</v>
+        <v>572</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>438</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>439</v>
+        <v>574</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>440</v>
+        <v>575</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>438</v>
+        <v>573</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>441</v>
+        <v>576</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>442</v>
+        <v>577</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>443</v>
+        <v>578</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>444</v>
+        <v>579</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>445</v>
+        <v>580</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>446</v>
+        <v>581</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>447</v>
+        <v>582</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>448</v>
+        <v>583</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>449</v>
+        <v>584</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>451</v>
+        <v>586</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>452</v>
+        <v>587</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="8:9">
       <c r="I141" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>453</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
     <sheet name="Tinsight" sheetId="2" r:id="rId2"/>
     <sheet name="Takshare" sheetId="9" r:id="rId3"/>
-    <sheet name="Tvantage" sheetId="3" r:id="rId4"/>
-    <sheet name="TDX" sheetId="4" r:id="rId5"/>
-    <sheet name="ODS_DWD_DMART" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
+    <sheet name="Tcal" sheetId="11" r:id="rId4"/>
+    <sheet name="Tvantage" sheetId="3" r:id="rId5"/>
+    <sheet name="TDX" sheetId="4" r:id="rId6"/>
+    <sheet name="ODS_DWD_DMART" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$2:$K$40</definedName>
     <definedName name="A股的筹码分布数据">Tinsight!$G$27</definedName>
     <definedName name="北向持仓数据">Tinsight!$B$53</definedName>
     <definedName name="大A的主要指数日K">Tinsight!$G$13</definedName>
@@ -55,6 +56,19 @@
     <definedName name="ods_akshare_stock_yjkb_em">Takshare!$C$27</definedName>
     <definedName name="ods_akshare_stock_yjyg_em">Takshare!$H$27</definedName>
     <definedName name="ods_akshare_stock_a_high_low_statistics">Takshare!$M$27</definedName>
+    <definedName name="通达信地区板块数据" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="通达信风格板块数据" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="通达信概念板块数据" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="通达信行业板块数据" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="通达信指数板块数据" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="小红书渠道个股板块数据" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="股票基本面数据_资产数据" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_value_em" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_zh_a_gdhs_detail_em" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_cyq_em" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_yjkb_em" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_yjyg_em" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_a_high_low_statistics" localSheetId="3">Tcal!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="654">
   <si>
     <t>序号</t>
   </si>
@@ -212,6 +226,12 @@
   </si>
   <si>
     <t>美元指数 日K</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_zh_a_spot_em</t>
+  </si>
+  <si>
+    <t>行情数据_个股行情数据</t>
   </si>
   <si>
     <t>大盘情绪</t>
@@ -1223,31 +1243,223 @@
     <t>证券类型</t>
   </si>
   <si>
-    <t>多渠道来源</t>
-  </si>
-  <si>
-    <t>汇总板块码表</t>
-  </si>
-  <si>
-    <t>小红书渠道个股板块数据</t>
+    <t>东方财富 行情数据</t>
+  </si>
+  <si>
+    <t>行情数据_板块行情数据</t>
+  </si>
+  <si>
+    <t>行情数据_板块内个股的行情数据</t>
+  </si>
+  <si>
+    <t>行情数据_板块历史行情数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_board_concept_name_em</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_board_concept_cons_em</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_board_concept_hist_em</t>
+  </si>
+  <si>
+    <t>数据日期（行情交易日，统一日期维度）</t>
+  </si>
+  <si>
+    <t>数据日期（核心日期维度，适配量化数据统一归档）</t>
+  </si>
+  <si>
+    <t>数据日期（核心日期维度，用于归档和跨表关联）</t>
+  </si>
+  <si>
+    <t>日期（行情交易日）</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>board_name</t>
+  </si>
+  <si>
+    <t>板块名称</t>
+  </si>
+  <si>
+    <t>board_code</t>
+  </si>
+  <si>
+    <t>板块代码（补充字段，关联板块基础信息，适配量化关联分析）</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>板块代码</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>开盘</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>收盘</t>
+  </si>
+  <si>
+    <t>最新价</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>最高</t>
+  </si>
+  <si>
+    <t>涨跌幅(%)</t>
+  </si>
+  <si>
+    <t>change_amt</t>
+  </si>
+  <si>
+    <t>涨跌额</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>最低</t>
+  </si>
+  <si>
+    <t>trading_volume</t>
+  </si>
+  <si>
+    <t>成交量(手)</t>
+  </si>
+  <si>
+    <t>trading_amount</t>
+  </si>
+  <si>
+    <t>成交额(元)</t>
+  </si>
+  <si>
+    <t>turnover_rate</t>
+  </si>
+  <si>
+    <t>换手率(%)</t>
+  </si>
+  <si>
+    <t>amplitude</t>
+  </si>
+  <si>
+    <t>振幅(%)</t>
+  </si>
+  <si>
+    <t>rising_stocks_num</t>
+  </si>
+  <si>
+    <t>上涨家数</t>
+  </si>
+  <si>
+    <t>成交额</t>
+  </si>
+  <si>
+    <t>falling_stocks_num</t>
+  </si>
+  <si>
+    <t>下跌家数</t>
+  </si>
+  <si>
+    <t>leading_stock</t>
+  </si>
+  <si>
+    <t>领涨股票</t>
+  </si>
+  <si>
+    <t>今开</t>
+  </si>
+  <si>
+    <t>leading_stock_pct</t>
+  </si>
+  <si>
+    <t>领涨股票-涨跌幅(%)</t>
+  </si>
+  <si>
+    <t>prev_close</t>
+  </si>
+  <si>
+    <t>昨收</t>
+  </si>
+  <si>
+    <t>volume_ratio</t>
+  </si>
+  <si>
+    <t>量比</t>
+  </si>
+  <si>
+    <t>pe_dynamic</t>
+  </si>
+  <si>
+    <t>市盈率-动态</t>
+  </si>
+  <si>
+    <t>price_rise_speed</t>
+  </si>
+  <si>
+    <t>涨速</t>
+  </si>
+  <si>
+    <t>five_min_price_change</t>
+  </si>
+  <si>
+    <t>5分钟涨跌(%)</t>
+  </si>
+  <si>
+    <t>sixty_day_price_change</t>
+  </si>
+  <si>
+    <t>60日涨跌幅(%)</t>
+  </si>
+  <si>
+    <t>ytd_price_change</t>
+  </si>
+  <si>
+    <t>年初至今涨跌幅(%)</t>
+  </si>
+  <si>
+    <t>行情数据_同花顺板块码值</t>
+  </si>
+  <si>
+    <t>行情数据_同花顺板块行情数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_board_concept_name_ths</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_board_concept_index_ths</t>
+  </si>
+  <si>
+    <t>自行收集计算数据</t>
+  </si>
+  <si>
+    <t>股票基本面数据_所属交易所</t>
   </si>
   <si>
     <t>plate_name</t>
   </si>
   <si>
-    <t>板块名称</t>
-  </si>
-  <si>
     <t>标的代码</t>
   </si>
   <si>
     <t>标的名称</t>
   </si>
   <si>
-    <t>source_table</t>
-  </si>
-  <si>
-    <t>来源表</t>
+    <t>市场特征主板创业板等</t>
   </si>
   <si>
     <t>remark</t>
@@ -1256,64 +1468,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>股票基本面数据_资产数据</t>
-  </si>
-  <si>
-    <t>market_value</t>
-  </si>
-  <si>
-    <t>流通市值(亿)</t>
-  </si>
-  <si>
-    <t>total_asset</t>
-  </si>
-  <si>
-    <t>总资产(亿)</t>
-  </si>
-  <si>
-    <t>net_asset</t>
-  </si>
-  <si>
-    <t>净资产(亿)</t>
-  </si>
-  <si>
-    <t>total_capital</t>
-  </si>
-  <si>
-    <t>总股本(亿)</t>
-  </si>
-  <si>
-    <t>float_capital</t>
-  </si>
-  <si>
-    <t>流通股(亿)</t>
-  </si>
-  <si>
-    <t>shareholder_num</t>
-  </si>
-  <si>
-    <t>股东人数</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>市盈(动)</t>
-  </si>
-  <si>
-    <t>细分行业</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加一个标的_股本数  </t>
-  </si>
-  <si>
-    <t>算市值</t>
-  </si>
-  <si>
-    <t>可以按周的维度，手工去加载数据</t>
-  </si>
-  <si>
-    <t>净资产</t>
+    <t>计算数据</t>
   </si>
   <si>
     <t>美股_日K</t>
@@ -1347,15 +1502,6 @@
   </si>
   <si>
     <t>美元指数</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
   </si>
   <si>
     <r>
@@ -1452,6 +1598,81 @@
   </si>
   <si>
     <t>指数板块名称</t>
+  </si>
+  <si>
+    <t>多渠道来源</t>
+  </si>
+  <si>
+    <t>汇总板块码表</t>
+  </si>
+  <si>
+    <t>小红书渠道个股板块数据</t>
+  </si>
+  <si>
+    <t>source_table</t>
+  </si>
+  <si>
+    <t>来源表</t>
+  </si>
+  <si>
+    <t>股票基本面数据_资产数据</t>
+  </si>
+  <si>
+    <t>market_value</t>
+  </si>
+  <si>
+    <t>流通市值(亿)</t>
+  </si>
+  <si>
+    <t>total_asset</t>
+  </si>
+  <si>
+    <t>总资产(亿)</t>
+  </si>
+  <si>
+    <t>net_asset</t>
+  </si>
+  <si>
+    <t>净资产(亿)</t>
+  </si>
+  <si>
+    <t>total_capital</t>
+  </si>
+  <si>
+    <t>总股本(亿)</t>
+  </si>
+  <si>
+    <t>float_capital</t>
+  </si>
+  <si>
+    <t>流通股(亿)</t>
+  </si>
+  <si>
+    <t>shareholder_num</t>
+  </si>
+  <si>
+    <t>股东人数</t>
+  </si>
+  <si>
+    <t>pe</t>
+  </si>
+  <si>
+    <t>市盈(动)</t>
+  </si>
+  <si>
+    <t>细分行业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加一个标的_股本数  </t>
+  </si>
+  <si>
+    <t>算市值</t>
+  </si>
+  <si>
+    <t>可以按周的维度，手工去加载数据</t>
+  </si>
+  <si>
+    <t>净资产</t>
   </si>
   <si>
     <r>
@@ -1476,12 +1697,6 @@
     </r>
   </si>
   <si>
-    <t>股票基本面数据_所属交易所</t>
-  </si>
-  <si>
-    <t>市场特征主板创业板等</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1510,13 +1725,7 @@
     <t xml:space="preserve">stock_code     </t>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t xml:space="preserve">stock_name     </t>
-  </si>
-  <si>
-    <t>名称</t>
   </si>
   <si>
     <t xml:space="preserve">close          </t>
@@ -2666,14 +2875,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2745,13 +2954,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>572135</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1691005</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2761,7 +2970,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14745335" y="7393305"/>
+          <a:off x="14745335" y="8153400"/>
           <a:ext cx="1118870" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3046,12 +3255,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3095,7 +3304,7 @@
       </c>
     </row>
     <row r="3" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A3" s="13">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3110,7 +3319,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -3119,7 +3328,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3134,7 +3343,7 @@
       <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="14" t="str">
+      <c r="F4" s="15" t="str">
         <f>HYPERLINK("#当日已上市股票码表",当日已上市股票码表)</f>
         <v>当日已上市股票码表</v>
       </c>
@@ -3143,7 +3352,7 @@
       </c>
     </row>
     <row r="5" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A5" s="13">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3158,7 +3367,7 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14" t="str">
+      <c r="F5" s="15" t="str">
         <f>HYPERLINK("#A股的筹码分布数据",A股的筹码分布数据)</f>
         <v>A股的筹码分布数据</v>
       </c>
@@ -3167,7 +3376,7 @@
       </c>
     </row>
     <row r="6" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3182,7 +3391,7 @@
       <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="14" t="str">
+      <c r="F6" s="15" t="str">
         <f>HYPERLINK("#个股的股东数",个股的股东数)</f>
         <v>个股的股东数</v>
       </c>
@@ -3191,7 +3400,7 @@
       </c>
     </row>
     <row r="7" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A7" s="13">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3206,7 +3415,7 @@
       <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="14" t="str">
+      <c r="F7" s="15" t="str">
         <f>HYPERLINK("#北向持仓数据",北向持仓数据)</f>
         <v>北向持仓数据</v>
       </c>
@@ -3215,7 +3424,7 @@
       </c>
     </row>
     <row r="8" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3227,10 +3436,10 @@
       <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14" t="str">
+      <c r="F8" s="15" t="str">
         <f>HYPERLINK("#股票基本面数据_所属交易所",股票基本面数据_所属交易所)</f>
         <v>股票基本面数据_所属交易所</v>
       </c>
@@ -3242,7 +3451,7 @@
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A9" s="13">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3257,7 +3466,7 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="14" t="str">
+      <c r="F9" s="15" t="str">
         <f>HYPERLINK("#股票基本面数据_资产数据",股票基本面数据_资产数据)</f>
         <v>股票基本面数据_资产数据</v>
       </c>
@@ -3275,7 +3484,7 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
@@ -3295,10 +3504,10 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3312,10 +3521,10 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3329,10 +3538,10 @@
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3346,18 +3555,18 @@
       <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" ht="19.95" customHeight="1" spans="1:8">
-      <c r="F15" s="14"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" ht="19.95" customHeight="1" spans="1:8">
-      <c r="F16" s="14"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" ht="19.95" customHeight="1"/>
     <row r="18" ht="19.95" customHeight="1" spans="1:7">
@@ -3376,7 +3585,7 @@
       <c r="E18" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="14" t="str">
+      <c r="F18" s="15" t="str">
         <f>HYPERLINK("#当日已上市股票的历史日K",当日已上市股票的历史日K)</f>
         <v>当日已上市股票的历史日K</v>
       </c>
@@ -3400,7 +3609,7 @@
       <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="14" t="str">
+      <c r="F19" s="15" t="str">
         <f>HYPERLINK("#大A的主要指数日K",大A的主要指数日K)</f>
         <v>大A的主要指数日K</v>
       </c>
@@ -3424,7 +3633,7 @@
       <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="14" t="str">
+      <c r="F20" s="15" t="str">
         <f>HYPERLINK("#内盘主要期货数据日K",内盘主要期货数据日K)</f>
         <v>内盘主要期货数据日K</v>
       </c>
@@ -3448,7 +3657,7 @@
       <c r="E21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="14" t="str">
+      <c r="F21" s="15" t="str">
         <f>HYPERLINK("#美股_日K",美股_日K)</f>
         <v>美股_日K</v>
       </c>
@@ -3469,7 +3678,7 @@
       <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3486,387 +3695,407 @@
       <c r="E23" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" ht="19.95" customHeight="1" spans="1:7">
-      <c r="F24" s="14"/>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:7">
-      <c r="F25" s="14"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A26" s="4">
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" ht="19.95" customHeight="1" spans="1:7">
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" ht="19.95" customHeight="1" spans="1:7">
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A29" s="4">
         <v>11</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="14" t="str">
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="15" t="str">
         <f>HYPERLINK("#当日大A行情温度",当日大A行情温度)</f>
         <v>当日大A行情温度</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" ht="19.95" customHeight="1" spans="1:7">
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" ht="19.95" customHeight="1" spans="1:7">
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" ht="19.95" customHeight="1"/>
     <row r="30" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A30" s="4">
-        <v>13</v>
-      </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" ht="19.95" customHeight="1" spans="1:7">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" ht="19.95" customHeight="1"/>
+    <row r="33" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A33" s="4">
+        <v>13</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="14" t="str">
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="15" t="str">
         <f>HYPERLINK("#行业分类_申万三级分类",行业分类_申万三级分类)</f>
         <v>行业分类_申万三级分类</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A31" s="4">
+    <row r="34" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A34" s="4">
         <v>14</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="14" t="str">
+      <c r="E34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="15" t="str">
         <f>HYPERLINK("#华泰股票行业明细",华泰股票行业明细)</f>
         <v>华泰股票行业明细</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A32" s="4">
+    <row r="35" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A35" s="4">
         <v>15</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
         <v>21</v>
       </c>
-      <c r="E32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="14" t="str">
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="15" t="str">
         <f>HYPERLINK("#通达信概念板块数据",通达信概念板块数据)</f>
         <v>通达信概念板块数据</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G35" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A33" s="4">
+    <row r="36" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A36" s="4">
         <v>16</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
         <v>21</v>
       </c>
-      <c r="E33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="14" t="str">
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="15" t="str">
         <f>HYPERLINK("#通达信地区板块数据",通达信地区板块数据)</f>
         <v>通达信地区板块数据</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G36" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="14" t="str">
+      <c r="K36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="15" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
     </row>
-    <row r="34" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A34" s="4">
+    <row r="37" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A37" s="4">
         <v>17</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
         <v>21</v>
       </c>
-      <c r="E34" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="14" t="str">
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="15" t="str">
         <f>HYPERLINK("#通达信行业板块数据",通达信行业板块数据)</f>
         <v>通达信行业板块数据</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A35" s="4">
+    <row r="38" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A38" s="4">
         <v>18</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C38" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
         <v>21</v>
       </c>
-      <c r="E35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="14" t="str">
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="15" t="str">
         <f>HYPERLINK("#通达信风格板块数据",通达信风格板块数据)</f>
         <v>通达信风格板块数据</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A36" s="4">
+    <row r="39" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A39" s="4">
         <v>19</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
         <v>21</v>
       </c>
-      <c r="E36" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="14" t="str">
+      <c r="E39" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="15" t="str">
         <f>HYPERLINK("#通达信指数板块数据",通达信指数板块数据)</f>
         <v>通达信指数板块数据</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G39" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A37" s="4">
+    <row r="40" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A40" s="4">
         <v>20</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="14" t="str">
+      <c r="C40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="15" t="str">
         <f>HYPERLINK("#小红书渠道个股板块数据",小红书渠道个股板块数据)</f>
         <v>小红书渠道个股板块数据</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" ht="19.95" customHeight="1" spans="1:12">
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" ht="105" customHeight="1" spans="1:12">
-      <c r="A41" s="4">
+    <row r="41" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" ht="19.95" customHeight="1" spans="1:12">
+      <c r="F43" s="15"/>
+    </row>
+    <row r="44" ht="105" customHeight="1" spans="1:12">
+      <c r="A44" s="4">
         <v>26</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="14" t="str">
+      <c r="B44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="15" t="str">
         <f>HYPERLINK("#汇总板块码表",汇总板块码表)</f>
         <v>汇总板块码表</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" ht="67" customHeight="1" spans="1:12">
-      <c r="A42" s="4">
+      <c r="H44" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" ht="67" customHeight="1" spans="1:12">
+      <c r="A45" s="4">
         <v>27</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="14" t="str">
+      <c r="E45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="15" t="str">
         <f>HYPERLINK("#股票基础信息大宽表",股票基础信息大宽表)</f>
         <v>股票基础信息大宽表</v>
       </c>
-      <c r="H42" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" ht="40" customHeight="1" spans="1:12">
-      <c r="A43" s="4">
+      <c r="H45" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" ht="40" customHeight="1" spans="1:12">
+      <c r="A46" s="4">
         <v>28</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="B46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="14" t="str">
+      <c r="E46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="15" t="str">
         <f>HYPERLINK("#涨停股票清单",涨停股票清单)</f>
         <v>涨停股票清单</v>
       </c>
-      <c r="H43" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" ht="42" customHeight="1" spans="1:12">
-      <c r="A44" s="4">
+      <c r="H46" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" ht="42" customHeight="1" spans="1:12">
+      <c r="A47" s="4">
         <v>29</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="14" t="str">
+      <c r="E47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="15" t="str">
         <f>HYPERLINK("#跌停股票清单",跌停股票清单)</f>
         <v>跌停股票清单</v>
       </c>
-      <c r="H44" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" ht="19.95" customHeight="1"/>
-    <row r="46" ht="19.95" customHeight="1"/>
-    <row r="47" ht="19.95" customHeight="1"/>
-    <row r="48" ht="39" customHeight="1" spans="1:12">
-      <c r="B48" s="4" t="s">
+      <c r="H47" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="4" t="s">
+    </row>
+    <row r="48" ht="19.95" customHeight="1"/>
+    <row r="49" ht="19.95" customHeight="1"/>
+    <row r="50" ht="19.95" customHeight="1"/>
+    <row r="51" ht="39" customHeight="1" spans="2:8">
+      <c r="B51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="16" t="s">
+      <c r="E51" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" ht="30" customHeight="1" spans="5:8">
-      <c r="E49" s="1" t="s">
+      <c r="F51" t="s">
         <v>72</v>
       </c>
-      <c r="F49" t="s">
+      <c r="H51" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" ht="19.95" customHeight="1"/>
-    <row r="51" ht="19.95" customHeight="1"/>
-    <row r="52" ht="19.95" customHeight="1"/>
+    </row>
+    <row r="52" ht="30" customHeight="1" spans="2:8">
+      <c r="E52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="53" ht="19.95" customHeight="1"/>
     <row r="54" ht="19.95" customHeight="1"/>
     <row r="55" ht="19.95" customHeight="1"/>
@@ -3890,8 +4119,11 @@
     <row r="73" ht="19.95" customHeight="1"/>
     <row r="74" ht="19.95" customHeight="1"/>
     <row r="75" ht="19.95" customHeight="1"/>
+    <row r="76" ht="19.95" customHeight="1"/>
+    <row r="77" ht="19.95" customHeight="1"/>
+    <row r="78" ht="19.95" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K37" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A2:K40" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -3901,7 +4133,7 @@
     <hyperlink ref="E12" location="ods_akshare_stock_cyq_em" display="ods_akshare_stock_cyq_em"/>
     <hyperlink ref="E13" location="ods_akshare_stock_yjkb_em" display="ods_akshare_stock_yjkb_em"/>
     <hyperlink ref="E14" location="ods_akshare_stock_yjyg_em" display="ods_akshare_stock_yjyg_em"/>
-    <hyperlink ref="E27" location="ods_akshare_stock_a_high_low_statistics" display="ods_akshare_stock_a_high_low_statistics"/>
+    <hyperlink ref="E30" location="ods_akshare_stock_a_high_low_statistics" display="ods_akshare_stock_a_high_low_statistics"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3915,7 +4147,7 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3934,7 +4166,7 @@
   <sheetData>
     <row r="4" customHeight="1" spans="1:13">
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="1" t="s">
@@ -3943,11 +4175,11 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
@@ -3955,19 +4187,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
@@ -3975,19 +4207,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -3995,19 +4227,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F8" s="4">
         <v>2</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -4015,10 +4247,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -4027,33 +4259,33 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -4061,28 +4293,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -4090,28 +4322,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
@@ -4119,28 +4351,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="4">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="4">
         <v>2</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -4148,28 +4380,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F18" s="4">
         <v>3</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K18" s="4">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -4177,28 +4409,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" s="4">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K19" s="4">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -4206,28 +4438,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="4">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K20" s="4">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -4235,28 +4467,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F21" s="4">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K21" s="4">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -4264,28 +4496,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="4">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K22" s="4">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M22" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -4293,47 +4525,47 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F23" s="4">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="B28" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -4341,37 +4573,37 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
@@ -4379,37 +4611,37 @@
         <v>1</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K30" s="4">
         <v>1</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P30" s="4">
         <v>1</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R30" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
@@ -4417,37 +4649,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F31" s="4">
         <v>2</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K31" s="4">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P31" s="4">
         <v>2</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -4455,37 +4687,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F32" s="4">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K32" s="4">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P32" s="4">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -4493,37 +4725,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F33" s="4">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K33" s="4">
         <v>4</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P33" s="4">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R33" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -4531,37 +4763,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F34" s="4">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K34" s="4">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M34" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P34" s="4">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -4569,37 +4801,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F35" s="4">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K35" s="4">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P35" s="4">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="R35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -4607,37 +4839,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F36" s="4">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H36" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K36" s="4">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M36" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P36" s="4">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R36" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -4645,34 +4877,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F37" s="4">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K37" s="4">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P37" s="4">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="R37" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -4680,34 +4912,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F38" s="4">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K38" s="4">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P38" s="4">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R38" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -4715,65 +4947,65 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K39" s="4">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M39" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P39" s="4">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="R39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
       <c r="B40" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F40" s="4">
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P40" s="4">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="R40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
       <c r="B41" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F41" s="4">
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
@@ -4781,19 +5013,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F42" s="4">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
@@ -4801,19 +5033,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F43" s="4">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -4821,19 +5053,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F44" s="4">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H44" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
@@ -4841,19 +5073,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F45" s="4">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H45" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -4861,19 +5093,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F46" s="4">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -4881,19 +5113,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F47" s="4">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -4901,19 +5133,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F48" s="4">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -4921,19 +5153,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F49" s="4">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -4941,10 +5173,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H50" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -4952,10 +5184,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H51" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -4963,38 +5195,38 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H52" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
       <c r="B53" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F53" s="4">
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
       <c r="B54" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F54" s="4">
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H54" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -5002,19 +5234,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F55" s="4">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H55" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
@@ -5022,19 +5254,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F56" s="4">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H56" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
@@ -5042,10 +5274,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F57" s="4"/>
     </row>
@@ -5054,10 +5286,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F58" s="4"/>
     </row>
@@ -5066,10 +5298,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F59" s="4"/>
     </row>
@@ -5086,27 +5318,29 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N89"/>
+  <dimension ref="A3:T106"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="8.88888888888889" style="4"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="24.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="8.88888888888889" style="4"/>
     <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="34.1111111111111" customWidth="1"/>
     <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
     <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="32.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -5165,28 +5399,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -5194,28 +5428,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -5223,28 +5457,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L10" s="4">
         <v>2</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -5252,28 +5486,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L11" s="4">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -5281,28 +5515,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="I12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L12" s="4">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -5310,28 +5544,28 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L13" s="4">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:14">
@@ -5339,28 +5573,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G14" s="4">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L14" s="4">
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:14">
@@ -5368,28 +5602,28 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G15" s="4">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L15" s="4">
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
@@ -5397,28 +5631,28 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G16" s="4">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I16" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L16" s="4">
         <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:14">
@@ -5426,28 +5660,28 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G17" s="4">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L17" s="4">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:14">
@@ -5455,28 +5689,28 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G18" s="4">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I18" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L18" s="4">
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N18" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:14">
@@ -5484,28 +5718,28 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G19" s="4">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I19" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L19" s="4">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:14">
@@ -5513,19 +5747,19 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G20" s="4">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I20" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:14">
@@ -5533,19 +5767,19 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G21" s="4">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I21" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:14">
@@ -5553,19 +5787,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G22" s="4">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:14">
@@ -5573,10 +5807,10 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I23" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:14">
@@ -5587,7 +5821,7 @@
         <v>34</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:14">
@@ -5598,7 +5832,7 @@
         <v>33</v>
       </c>
       <c r="M27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:14">
@@ -5606,28 +5840,28 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:14">
@@ -5635,28 +5869,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L29" s="4">
         <v>1</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:14">
@@ -5664,7 +5898,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -5673,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -5682,10 +5916,10 @@
         <v>2</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:14">
@@ -5693,28 +5927,28 @@
         <v>3</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L31" s="4">
         <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N31" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:14">
@@ -5722,28 +5956,28 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I32" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L32" s="4">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N32" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:14">
@@ -5751,28 +5985,28 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D33" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G33" s="4">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="I33" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L33" s="4">
         <v>5</v>
       </c>
       <c r="M33" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N33" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:14">
@@ -5780,28 +6014,28 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D34" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G34" s="4">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I34" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L34" s="4">
         <v>6</v>
       </c>
       <c r="M34" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N34" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:14">
@@ -5809,28 +6043,28 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D35" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G35" s="4">
         <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I35" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L35" s="4">
         <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N35" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:14">
@@ -5838,28 +6072,28 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D36" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G36" s="4">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I36" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L36" s="4">
         <v>8</v>
       </c>
       <c r="M36" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:14">
@@ -5867,28 +6101,28 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D37" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G37" s="4">
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I37" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L37" s="4">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N37" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:14">
@@ -5896,19 +6130,19 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D38" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G38" s="4">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="I38" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:14">
@@ -5916,19 +6150,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D39" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G39" s="4">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I39" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:14">
@@ -5936,10 +6170,10 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D40" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:14">
@@ -5947,10 +6181,10 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D41" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:14">
@@ -5958,10 +6192,10 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D42" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:14">
@@ -5969,10 +6203,10 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D43" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:14">
@@ -5980,10 +6214,10 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:14">
@@ -5991,10 +6225,10 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D45" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:14">
@@ -6002,329 +6236,1046 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D46" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:20">
       <c r="B51" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:9">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:20">
       <c r="C52" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:9">
+        <v>47</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L52" s="4"/>
+      <c r="M52" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:20">
       <c r="C53" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="2:9">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>385</v>
+      </c>
+      <c r="L53" s="4"/>
+      <c r="M53" t="s">
+        <v>386</v>
+      </c>
+      <c r="R53" s="4"/>
+      <c r="S53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="2:20">
       <c r="B54" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="4">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>253</v>
-      </c>
-      <c r="I54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="2:9">
+        <v>80</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T54" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="2:20">
       <c r="B55" s="4">
         <v>1</v>
       </c>
-      <c r="C55" t="s">
-        <v>253</v>
-      </c>
-      <c r="D55" t="s">
-        <v>97</v>
+      <c r="C55" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="G55" s="4">
-        <v>2</v>
-      </c>
-      <c r="H55" t="s">
-        <v>382</v>
-      </c>
-      <c r="I55" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="2:9">
+        <v>1</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="L55" s="4">
+        <v>1</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="R55" s="4">
+        <v>1</v>
+      </c>
+      <c r="S55" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="T55" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="2:20">
       <c r="B56" s="4">
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="D56" t="s">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="G56" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>255</v>
+        <v>392</v>
       </c>
       <c r="I56" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="2:9">
+        <v>393</v>
+      </c>
+      <c r="L56" s="4">
+        <v>2</v>
+      </c>
+      <c r="M56" t="s">
+        <v>394</v>
+      </c>
+      <c r="N56" t="s">
+        <v>395</v>
+      </c>
+      <c r="R56" s="4">
+        <v>2</v>
+      </c>
+      <c r="S56" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="T56" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:20">
       <c r="B57" s="4">
         <v>3</v>
       </c>
-      <c r="C57" t="s">
-        <v>255</v>
-      </c>
-      <c r="D57" t="s">
-        <v>384</v>
+      <c r="C57" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>398</v>
       </c>
       <c r="G57" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>258</v>
+        <v>394</v>
       </c>
       <c r="I57" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="2:9">
+        <v>395</v>
+      </c>
+      <c r="L57" s="4">
+        <v>3</v>
+      </c>
+      <c r="M57" t="s">
+        <v>396</v>
+      </c>
+      <c r="N57" t="s">
+        <v>399</v>
+      </c>
+      <c r="R57" s="4">
+        <v>3</v>
+      </c>
+      <c r="S57" t="s">
+        <v>400</v>
+      </c>
+      <c r="T57" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:20">
       <c r="B58" s="4">
         <v>4</v>
       </c>
       <c r="C58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" s="4">
+        <v>4</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="L58" s="4">
+        <v>4</v>
+      </c>
+      <c r="M58" t="s">
+        <v>323</v>
+      </c>
+      <c r="N58" t="s">
+        <v>0</v>
+      </c>
+      <c r="R58" s="4">
+        <v>4</v>
+      </c>
+      <c r="S58" t="s">
         <v>258</v>
       </c>
-      <c r="D58" t="s">
-        <v>385</v>
-      </c>
-      <c r="G58" s="4">
-        <v>5</v>
-      </c>
-      <c r="H58" t="s">
-        <v>386</v>
-      </c>
-      <c r="I58" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="2:9">
+      <c r="T58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:20">
       <c r="B59" s="4">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>388</v>
+        <v>258</v>
       </c>
       <c r="D59" t="s">
+        <v>161</v>
+      </c>
+      <c r="G59" s="4">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>258</v>
+      </c>
+      <c r="I59" t="s">
+        <v>404</v>
+      </c>
+      <c r="L59" s="4">
+        <v>5</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="R59" s="4">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s">
+        <v>405</v>
+      </c>
+      <c r="T59" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:20">
+      <c r="B60" s="4">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>261</v>
+      </c>
+      <c r="D60" t="s">
+        <v>407</v>
+      </c>
+      <c r="G60" s="4">
+        <v>6</v>
+      </c>
+      <c r="H60" t="s">
+        <v>408</v>
+      </c>
+      <c r="I60" t="s">
+        <v>409</v>
+      </c>
+      <c r="L60" s="4">
+        <v>6</v>
+      </c>
+      <c r="M60" t="s">
+        <v>260</v>
+      </c>
+      <c r="N60" t="s">
+        <v>402</v>
+      </c>
+      <c r="R60" s="4">
+        <v>6</v>
+      </c>
+      <c r="S60" t="s">
+        <v>410</v>
+      </c>
+      <c r="T60" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:20">
+      <c r="B61" s="4">
+        <v>7</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D61" t="s">
+        <v>409</v>
+      </c>
+      <c r="G61" s="4">
+        <v>7</v>
+      </c>
+      <c r="H61" t="s">
+        <v>261</v>
+      </c>
+      <c r="I61" t="s">
+        <v>407</v>
+      </c>
+      <c r="L61" s="4">
+        <v>7</v>
+      </c>
+      <c r="M61" t="s">
+        <v>258</v>
+      </c>
+      <c r="N61" t="s">
+        <v>404</v>
+      </c>
+      <c r="R61" s="4">
+        <v>7</v>
+      </c>
+      <c r="S61" t="s">
+        <v>261</v>
+      </c>
+      <c r="T61" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:20">
+      <c r="B62" s="4">
+        <v>8</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D62" t="s">
+        <v>413</v>
+      </c>
+      <c r="G62" s="4">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" t="s">
+        <v>305</v>
+      </c>
+      <c r="L62" s="4">
+        <v>8</v>
+      </c>
+      <c r="M62" t="s">
+        <v>261</v>
+      </c>
+      <c r="N62" t="s">
+        <v>407</v>
+      </c>
+      <c r="R62" s="4">
+        <v>8</v>
+      </c>
+      <c r="S62" t="s">
+        <v>408</v>
+      </c>
+      <c r="T62" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:20">
+      <c r="B63" s="4">
+        <v>9</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="D63" t="s">
+        <v>415</v>
+      </c>
+      <c r="G63" s="4">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>416</v>
+      </c>
+      <c r="I63" t="s">
+        <v>417</v>
+      </c>
+      <c r="L63" s="4">
+        <v>9</v>
+      </c>
+      <c r="M63" t="s">
+        <v>408</v>
+      </c>
+      <c r="N63" t="s">
+        <v>409</v>
+      </c>
+      <c r="R63" s="4">
+        <v>9</v>
+      </c>
+      <c r="S63" t="s">
+        <v>412</v>
+      </c>
+      <c r="T63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:20">
+      <c r="B64" s="4">
+        <v>10</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D64" t="s">
+        <v>419</v>
+      </c>
+      <c r="G64" s="4">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>420</v>
+      </c>
+      <c r="I64" t="s">
+        <v>421</v>
+      </c>
+      <c r="L64" s="4">
+        <v>10</v>
+      </c>
+      <c r="M64" t="s">
+        <v>412</v>
+      </c>
+      <c r="N64" t="s">
+        <v>413</v>
+      </c>
+      <c r="R64" s="4">
+        <v>10</v>
+      </c>
+      <c r="S64" t="s">
+        <v>414</v>
+      </c>
+      <c r="T64" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="2:20">
+      <c r="B65" s="4">
+        <v>11</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G65" s="4">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>423</v>
+      </c>
+      <c r="I65" t="s">
+        <v>424</v>
+      </c>
+      <c r="L65" s="4">
+        <v>11</v>
+      </c>
+      <c r="M65" t="s">
+        <v>414</v>
+      </c>
+      <c r="N65" t="s">
+        <v>422</v>
+      </c>
+      <c r="R65" s="4">
+        <v>11</v>
+      </c>
+      <c r="S65" t="s">
+        <v>418</v>
+      </c>
+      <c r="T65" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="2:20">
+      <c r="B66" s="4">
+        <v>12</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D66" t="s">
+        <v>411</v>
+      </c>
+      <c r="G66" s="4">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>425</v>
+      </c>
+      <c r="I66" t="s">
+        <v>426</v>
+      </c>
+      <c r="L66" s="4">
+        <v>12</v>
+      </c>
+      <c r="M66" t="s">
+        <v>418</v>
+      </c>
+      <c r="N66" t="s">
+        <v>419</v>
+      </c>
+      <c r="R66" s="4">
+        <v>12</v>
+      </c>
+      <c r="S66" t="s">
+        <v>416</v>
+      </c>
+      <c r="T66" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="2:20">
+      <c r="B67" s="4">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>400</v>
+      </c>
+      <c r="D67" t="s">
+        <v>427</v>
+      </c>
+      <c r="G67" s="4">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>428</v>
+      </c>
+      <c r="I67" t="s">
+        <v>429</v>
+      </c>
+      <c r="L67" s="4">
+        <v>13</v>
+      </c>
+      <c r="M67" t="s">
+        <v>405</v>
+      </c>
+      <c r="N67" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:20">
+      <c r="B68" s="4">
+        <v>14</v>
+      </c>
+      <c r="C68" t="s">
+        <v>430</v>
+      </c>
+      <c r="D68" t="s">
+        <v>431</v>
+      </c>
+      <c r="L68" s="4">
+        <v>14</v>
+      </c>
+      <c r="M68" t="s">
+        <v>410</v>
+      </c>
+      <c r="N68" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="2:20">
+      <c r="B69" s="4">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>432</v>
+      </c>
+      <c r="D69" t="s">
+        <v>433</v>
+      </c>
+      <c r="L69" s="4">
+        <v>15</v>
+      </c>
+      <c r="M69" t="s">
+        <v>400</v>
+      </c>
+      <c r="N69" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="2:20">
+      <c r="B70" s="4">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>416</v>
+      </c>
+      <c r="D70" t="s">
+        <v>417</v>
+      </c>
+      <c r="L70" s="4">
+        <v>16</v>
+      </c>
+      <c r="M70" t="s">
+        <v>430</v>
+      </c>
+      <c r="N70" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="2:20">
+      <c r="B71" s="4">
+        <v>17</v>
+      </c>
+      <c r="C71" t="s">
+        <v>434</v>
+      </c>
+      <c r="D71" t="s">
+        <v>435</v>
+      </c>
+      <c r="L71" s="4">
+        <v>17</v>
+      </c>
+      <c r="M71" t="s">
+        <v>416</v>
+      </c>
+      <c r="N71" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="2:20">
+      <c r="B72" s="4">
+        <v>18</v>
+      </c>
+      <c r="C72" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72" t="s">
+        <v>304</v>
+      </c>
+      <c r="L72" s="4">
+        <v>18</v>
+      </c>
+      <c r="M72" t="s">
+        <v>434</v>
+      </c>
+      <c r="N72" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="2:20">
+      <c r="B73" s="4">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" t="s">
+        <v>268</v>
+      </c>
+      <c r="L73" s="4">
+        <v>19</v>
+      </c>
+      <c r="M73" t="s">
+        <v>303</v>
+      </c>
+      <c r="N73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="2:20">
+      <c r="B74" s="4">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="2:20">
+      <c r="B75" s="4">
+        <v>21</v>
+      </c>
+      <c r="C75" t="s">
+        <v>436</v>
+      </c>
+      <c r="D75" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="2:20">
+      <c r="B76" s="4">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>438</v>
+      </c>
+      <c r="D76" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="2:20">
+      <c r="B77" s="4">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>440</v>
+      </c>
+      <c r="D77" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="2:20">
+      <c r="B78" s="4">
+        <v>24</v>
+      </c>
+      <c r="C78" t="s">
+        <v>442</v>
+      </c>
+      <c r="D78" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="2:9">
+      <c r="B82" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="2:9">
+      <c r="C83" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="2:9">
+      <c r="C84" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="H84" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="2:9">
+      <c r="B85" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="2:9">
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D86" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="2:9">
+      <c r="B87" s="4">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>394</v>
+      </c>
+      <c r="D87" t="s">
+        <v>395</v>
+      </c>
+      <c r="G87" s="4">
+        <v>2</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="2:9">
+      <c r="B88" s="4">
+        <v>3</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="G88" s="4">
+        <v>3</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="2:9">
+      <c r="G89" s="4">
+        <v>4</v>
+      </c>
+      <c r="H89" t="s">
+        <v>400</v>
+      </c>
+      <c r="I89" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="2:9">
+      <c r="G90" s="4">
+        <v>5</v>
+      </c>
+      <c r="H90" t="s">
+        <v>405</v>
+      </c>
+      <c r="I90" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="2:9">
+      <c r="G91" s="4">
         <v>6</v>
       </c>
-      <c r="H59" t="s">
-        <v>388</v>
-      </c>
-      <c r="I59" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="2:9">
-      <c r="C63" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="2:9">
-      <c r="C64" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="2:4">
-      <c r="B65" s="6" t="s">
+      <c r="H91" t="s">
+        <v>410</v>
+      </c>
+      <c r="I91" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="2:9">
+      <c r="G92" s="4">
+        <v>7</v>
+      </c>
+      <c r="H92" t="s">
+        <v>258</v>
+      </c>
+      <c r="I92" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="2:9">
+      <c r="G93" s="4">
+        <v>8</v>
+      </c>
+      <c r="H93" t="s">
+        <v>412</v>
+      </c>
+      <c r="I93" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="2:9">
+      <c r="G94" s="4">
+        <v>9</v>
+      </c>
+      <c r="H94" t="s">
+        <v>414</v>
+      </c>
+      <c r="I94" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="2:9">
+      <c r="B98" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="2:9">
+      <c r="C99" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="2:9">
+      <c r="C100" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="2:9">
+      <c r="B101" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="2:4">
-      <c r="B66" s="4">
+      <c r="C101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="2:9">
+      <c r="B102" s="4">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
-        <v>253</v>
-      </c>
-      <c r="D66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="2:4">
-      <c r="B67" s="4">
+      <c r="C102" t="s">
+        <v>255</v>
+      </c>
+      <c r="D102" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="2:9">
+      <c r="B103" s="4">
         <v>2</v>
       </c>
-      <c r="C67" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="2:4">
-      <c r="B68" s="4">
+      <c r="C103" t="s">
+        <v>450</v>
+      </c>
+      <c r="D103" t="s">
+        <v>395</v>
+      </c>
+      <c r="G103" s="4">
+        <v>2</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I103" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="2:9">
+      <c r="B104" s="4">
         <v>3</v>
       </c>
-      <c r="C68" t="s">
-        <v>258</v>
-      </c>
-      <c r="D68" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="2:4">
-      <c r="B69" s="4">
+      <c r="C104" t="s">
+        <v>257</v>
+      </c>
+      <c r="D104" t="s">
+        <v>451</v>
+      </c>
+      <c r="G104" s="4">
+        <v>3</v>
+      </c>
+      <c r="H104" t="s">
+        <v>260</v>
+      </c>
+      <c r="I104" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="2:9">
+      <c r="B105" s="4">
         <v>4</v>
       </c>
-      <c r="C69" t="s">
-        <v>391</v>
-      </c>
-      <c r="D69" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="2:4">
-      <c r="B70" s="4">
+      <c r="C105" t="s">
+        <v>260</v>
+      </c>
+      <c r="D105" t="s">
+        <v>452</v>
+      </c>
+      <c r="G105" s="4">
+        <v>4</v>
+      </c>
+      <c r="H105" t="s">
+        <v>324</v>
+      </c>
+      <c r="I105" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="2:9">
+      <c r="B106" s="4">
         <v>5</v>
       </c>
-      <c r="C70" t="s">
-        <v>393</v>
-      </c>
-      <c r="D70" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="2:4">
-      <c r="B71" s="4">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>395</v>
-      </c>
-      <c r="D71" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="2:4">
-      <c r="B72" s="4">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>397</v>
-      </c>
-      <c r="D72" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="2:4">
-      <c r="B73" s="4">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>399</v>
-      </c>
-      <c r="D73" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="2:4">
-      <c r="B74" s="4">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>401</v>
-      </c>
-      <c r="D74" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="2:4">
-      <c r="B75" s="4">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>301</v>
-      </c>
-      <c r="D75" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="2:4">
-      <c r="B76" s="4">
-        <v>11</v>
-      </c>
-      <c r="C76" t="s">
-        <v>403</v>
-      </c>
-      <c r="D76" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="2:4">
-      <c r="B77" s="4">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s">
-        <v>373</v>
-      </c>
-      <c r="D77" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="3:5">
-      <c r="C84" t="s">
-        <v>406</v>
-      </c>
-      <c r="D84" t="s">
-        <v>407</v>
-      </c>
-      <c r="E84" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="3:5">
-      <c r="C89" t="s">
-        <v>409</v>
+      <c r="C106" t="s">
+        <v>454</v>
+      </c>
+      <c r="D106" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -6337,6 +7288,202 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:M15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="8.88888888888889" style="4"/>
+    <col min="3" max="3" width="24.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="4"/>
+    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="34.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="32.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="14.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" customHeight="1" spans="1:13">
+      <c r="A3" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:13">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:13">
+      <c r="B7" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:13">
+      <c r="C8" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:13">
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:13">
+      <c r="B10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:13">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:13">
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:13">
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>260</v>
+      </c>
+      <c r="I13" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:13">
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" t="s">
+        <v>452</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:13">
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>454</v>
+      </c>
+      <c r="D15" t="s">
+        <v>455</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:M4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B4:I26"/>
@@ -6356,7 +7503,7 @@
   <sheetData>
     <row r="4" customHeight="1" spans="2:4">
       <c r="C4" s="1" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
@@ -6369,10 +7516,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -6380,10 +7527,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -6391,10 +7538,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -6402,10 +7549,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -6413,10 +7560,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -6424,10 +7571,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="D11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -6435,10 +7582,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -6446,10 +7593,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -6475,19 +7622,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -6495,19 +7642,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -6515,19 +7662,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G22" s="4">
         <v>2</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="I22" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -6535,10 +7682,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -6547,10 +7694,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -6559,10 +7706,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -6571,10 +7718,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -6585,13 +7732,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -6608,7 +7755,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -6640,26 +7787,26 @@
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
-        <v>425</v>
+        <v>469</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>426</v>
+        <v>470</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
-        <v>427</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -6667,28 +7814,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -6696,28 +7843,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="4">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>428</v>
+        <v>472</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L9" s="4">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -6725,28 +7872,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>473</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>431</v>
+        <v>475</v>
       </c>
       <c r="I10" t="s">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="L10" s="4">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N10" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -6754,28 +7901,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>434</v>
+        <v>478</v>
       </c>
       <c r="D11" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="G11" s="4">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>436</v>
+        <v>480</v>
       </c>
       <c r="I11" t="s">
-        <v>437</v>
+        <v>481</v>
       </c>
       <c r="L11" s="4">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N11" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -6783,28 +7930,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>483</v>
       </c>
       <c r="D12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="4">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>440</v>
+        <v>484</v>
       </c>
       <c r="I12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="4">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>441</v>
+        <v>485</v>
       </c>
       <c r="N12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -6812,44 +7959,44 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>443</v>
+        <v>487</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L13" s="4">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="N13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
       <c r="C16" s="1" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>446</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="C17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -6857,19 +8004,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -6877,19 +8024,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -6897,19 +8044,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="D20" t="s">
-        <v>430</v>
+        <v>474</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="I20" t="s">
-        <v>449</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -6917,19 +8064,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>494</v>
       </c>
       <c r="D21" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="I21" t="s">
-        <v>452</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -6937,19 +8084,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G22" s="4">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -6957,49 +8104,49 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G23" s="4">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="6" t="s">
-        <v>379</v>
+        <v>497</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>380</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
       <c r="C27" s="1" t="s">
-        <v>381</v>
+        <v>499</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:9">
       <c r="C28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -7007,19 +8154,19 @@
         <v>0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" s="4">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -7027,19 +8174,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="I30" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -7047,19 +8194,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="D31" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="G31" s="4">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I31" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -7067,19 +8214,19 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D32" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="G32" s="4">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I32" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -7087,19 +8234,19 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D33" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="G33" s="4">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>386</v>
+        <v>500</v>
       </c>
       <c r="I33" t="s">
-        <v>387</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -7107,24 +8254,24 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="D34" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="G34" s="4">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="I34" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:9">
       <c r="C38" s="1" t="s">
-        <v>390</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:9">
@@ -7137,10 +8284,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
@@ -7148,10 +8295,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
@@ -7159,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D42" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
@@ -7170,10 +8317,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D43" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
@@ -7181,10 +8328,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>503</v>
       </c>
       <c r="D44" t="s">
-        <v>392</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -7192,10 +8339,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>393</v>
+        <v>505</v>
       </c>
       <c r="D45" t="s">
-        <v>394</v>
+        <v>506</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -7203,10 +8350,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>507</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -7214,10 +8361,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>397</v>
+        <v>509</v>
       </c>
       <c r="D47" t="s">
-        <v>398</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -7225,10 +8372,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>399</v>
+        <v>511</v>
       </c>
       <c r="D48" t="s">
-        <v>400</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
@@ -7236,10 +8383,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>401</v>
+        <v>513</v>
       </c>
       <c r="D49" t="s">
-        <v>402</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
@@ -7247,10 +8394,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D50" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
@@ -7258,10 +8405,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>403</v>
+        <v>515</v>
       </c>
       <c r="D51" t="s">
-        <v>404</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
@@ -7269,26 +8416,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D52" t="s">
-        <v>405</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
-        <v>406</v>
+        <v>518</v>
       </c>
       <c r="D59" t="s">
-        <v>407</v>
+        <v>519</v>
       </c>
       <c r="E59" t="s">
-        <v>408</v>
+        <v>520</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
-        <v>409</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -7300,13 +8447,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84:D94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -7320,7 +8467,7 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -7344,7 +8491,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:9">
       <c r="C6" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:9">
@@ -7357,10 +8504,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
@@ -7368,10 +8515,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:9">
@@ -7379,10 +8526,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:9">
@@ -7390,10 +8537,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
@@ -7401,15 +8548,15 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="7" t="s">
-        <v>456</v>
+        <v>523</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -7436,12 +8583,12 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
-        <v>457</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
@@ -7449,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -7460,10 +8607,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -7471,10 +8618,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>458</v>
+        <v>525</v>
       </c>
       <c r="D22" t="s">
-        <v>459</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -7482,10 +8629,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>460</v>
+        <v>526</v>
       </c>
       <c r="D23" t="s">
-        <v>461</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -7493,10 +8640,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="D24" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -7504,10 +8651,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="D25" t="s">
-        <v>392</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -7515,10 +8662,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="D26" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -7526,10 +8673,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D27" t="s">
-        <v>394</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -7537,10 +8684,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -7548,10 +8695,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>469</v>
+        <v>534</v>
       </c>
       <c r="D29" t="s">
-        <v>398</v>
+        <v>510</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -7559,10 +8706,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>470</v>
+        <v>535</v>
       </c>
       <c r="D30" t="s">
-        <v>400</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -7570,10 +8717,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>401</v>
+        <v>513</v>
       </c>
       <c r="D31" t="s">
-        <v>402</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -7581,10 +8728,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>471</v>
+        <v>536</v>
       </c>
       <c r="D32" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -7592,10 +8739,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>472</v>
+        <v>537</v>
       </c>
       <c r="D33" t="s">
-        <v>404</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -7603,10 +8750,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="D34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -7614,20 +8761,20 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>474</v>
+        <v>539</v>
       </c>
       <c r="D35" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="C38" s="1" t="s">
-        <v>380</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
@@ -7635,10 +8782,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -7646,10 +8793,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -7657,10 +8804,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="D42" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -7668,10 +8815,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D43" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -7679,10 +8826,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D44" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -7690,10 +8837,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>386</v>
+        <v>500</v>
       </c>
       <c r="D45" t="s">
-        <v>387</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -7701,28 +8848,28 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="D46" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
-        <v>475</v>
+        <v>540</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="1" t="s">
-        <v>476</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
@@ -7730,19 +8877,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -7750,19 +8897,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G53" s="4">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -7770,19 +8917,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G54" s="4">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -7790,19 +8937,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G55" s="4">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I55" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -7810,19 +8957,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="D56" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
       <c r="G56" s="4">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>477</v>
+        <v>542</v>
       </c>
       <c r="I56" t="s">
-        <v>478</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -7830,19 +8977,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G57" s="4">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I57" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -7850,19 +8997,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="D58" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="G58" s="4">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>479</v>
+        <v>544</v>
       </c>
       <c r="I58" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -7870,19 +9017,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>391</v>
+        <v>503</v>
       </c>
       <c r="D59" t="s">
-        <v>392</v>
+        <v>504</v>
       </c>
       <c r="G59" s="4">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>391</v>
+        <v>503</v>
       </c>
       <c r="I59" t="s">
-        <v>392</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -7890,19 +9037,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="D60" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="G60" s="4">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="I60" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -7910,19 +9057,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>393</v>
+        <v>505</v>
       </c>
       <c r="D61" t="s">
-        <v>394</v>
+        <v>506</v>
       </c>
       <c r="G61" s="4">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>393</v>
+        <v>505</v>
       </c>
       <c r="I61" t="s">
-        <v>394</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -7930,19 +9077,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>395</v>
+        <v>507</v>
       </c>
       <c r="D62" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
       <c r="G62" s="4">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>395</v>
+        <v>507</v>
       </c>
       <c r="I62" t="s">
-        <v>396</v>
+        <v>508</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -7950,19 +9097,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>397</v>
+        <v>509</v>
       </c>
       <c r="D63" t="s">
-        <v>398</v>
+        <v>510</v>
       </c>
       <c r="G63" s="4">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>397</v>
+        <v>509</v>
       </c>
       <c r="I63" t="s">
-        <v>398</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -7970,19 +9117,19 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>399</v>
+        <v>511</v>
       </c>
       <c r="D64" t="s">
-        <v>400</v>
+        <v>512</v>
       </c>
       <c r="G64" s="4">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>399</v>
+        <v>511</v>
       </c>
       <c r="I64" t="s">
-        <v>400</v>
+        <v>512</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -7990,19 +9137,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>401</v>
+        <v>513</v>
       </c>
       <c r="D65" t="s">
-        <v>402</v>
+        <v>514</v>
       </c>
       <c r="G65" s="4">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>401</v>
+        <v>513</v>
       </c>
       <c r="I65" t="s">
-        <v>402</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -8010,19 +9157,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G66" s="4">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I66" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -8030,19 +9177,19 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>403</v>
+        <v>515</v>
       </c>
       <c r="D67" t="s">
-        <v>404</v>
+        <v>516</v>
       </c>
       <c r="G67" s="4">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>403</v>
+        <v>515</v>
       </c>
       <c r="I67" t="s">
-        <v>404</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
@@ -8050,19 +9197,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D68" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G68" s="4">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="I68" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
@@ -8070,40 +9217,40 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="D69" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="G69" s="4">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="I69" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="B73" s="4" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>484</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="C75" t="s">
-        <v>485</v>
+        <v>550</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
       <c r="A80" s="7" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -8127,20 +9274,20 @@
     </row>
     <row r="84" customHeight="1" spans="1:9">
       <c r="C84" s="1" t="s">
-        <v>487</v>
+        <v>552</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="1" t="s">
-        <v>487</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
       <c r="C85" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:9">
@@ -8148,19 +9295,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:9">
@@ -8168,19 +9315,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G87" s="4">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I87" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:9">
@@ -8188,19 +9335,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G88" s="4">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I88" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:9">
@@ -8208,19 +9355,19 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D89" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G89" s="4">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I89" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
@@ -8228,19 +9375,19 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="D90" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="G90" s="4">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="I90" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
@@ -8248,19 +9395,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="D91" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="G91" s="4">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>490</v>
+        <v>555</v>
       </c>
       <c r="I91" t="s">
-        <v>491</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
@@ -8268,19 +9415,19 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="D92" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="G92" s="4">
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="I92" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
@@ -8288,19 +9435,19 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="D93" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
       <c r="G93" s="4">
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="I93" t="s">
-        <v>495</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
@@ -8308,19 +9455,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="D94" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="G94" s="4">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>496</v>
+        <v>561</v>
       </c>
       <c r="I94" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -8334,7 +9481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C4:D13"/>
@@ -8355,7 +9502,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:4">
@@ -8363,7 +9510,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
@@ -8371,15 +9518,15 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="3:4">
       <c r="C7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="3:4">
@@ -8387,7 +9534,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="3:4">
@@ -8395,23 +9542,23 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="3:4">
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="3:4">
       <c r="C11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="3:4">
@@ -8419,7 +9566,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="3:4">
@@ -8427,7 +9574,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -8436,13 +9583,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C5:I158"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E105" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E93" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8457,29 +9604,29 @@
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
@@ -8487,89 +9634,89 @@
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>16</v>
@@ -8577,72 +9724,72 @@
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>533</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>36</v>
@@ -8650,17 +9797,17 @@
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>38</v>
@@ -8668,53 +9815,53 @@
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>540</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>541</v>
+        <v>606</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>542</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>543</v>
+        <v>608</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>18</v>
@@ -8722,17 +9869,17 @@
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>19</v>
@@ -8740,41 +9887,41 @@
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>557</v>
+        <v>622</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>20</v>
@@ -8782,111 +9929,111 @@
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>565</v>
+        <v>630</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>566</v>
+        <v>631</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>567</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>36</v>
@@ -8894,12 +10041,12 @@
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>38</v>
@@ -8907,25 +10054,25 @@
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>39</v>
@@ -8933,12 +10080,12 @@
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>18</v>
@@ -8951,7 +10098,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>588</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420" tabRatio="448"/>
+    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -187,82 +187,82 @@
     <t>股票基本面数据_估值数据</t>
   </si>
   <si>
+    <t>目前为空，IP 封堵</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_zh_a_gdhs_detail_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_股东数据</t>
+  </si>
+  <si>
+    <t>目前更新至20260202，可更新至T日</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_cyq_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_筹码数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_yjkb_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_业绩快报数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_yjyg_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_业绩预告数据</t>
+  </si>
+  <si>
+    <t>行情数据</t>
+  </si>
+  <si>
+    <t>ods_stock_kline_daily_insight</t>
+  </si>
+  <si>
+    <t>当日已上市股票的历史日K</t>
+  </si>
+  <si>
+    <t>ods_index_a_share_insight</t>
+  </si>
+  <si>
+    <t>大A的主要指数日K</t>
+  </si>
+  <si>
+    <t>ods_future_inside_insight</t>
+  </si>
+  <si>
+    <t>内盘主要期货数据日K</t>
+  </si>
+  <si>
+    <t>vantage</t>
+  </si>
+  <si>
+    <t>ods_us_stock_daily_vantage</t>
+  </si>
+  <si>
+    <t>美股_日K</t>
+  </si>
+  <si>
+    <t>更新至 20241004</t>
+  </si>
+  <si>
+    <t>ods_exchange_rate_vantage_detail</t>
+  </si>
+  <si>
+    <t>汇率&amp;美元指数 日K</t>
+  </si>
+  <si>
+    <t>ods_exchange_dxy_vantage</t>
+  </si>
+  <si>
+    <t>美元指数 日K</t>
+  </si>
+  <si>
     <t>目前为空</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_zh_a_gdhs_detail_em</t>
-  </si>
-  <si>
-    <t>股票基本面数据_股东数据</t>
-  </si>
-  <si>
-    <t>目前更新至20260131，更新至T-1，差异不大，因为不是每天都有股东数据上报</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_cyq_em</t>
-  </si>
-  <si>
-    <t>股票基本面数据_筹码数据</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_yjkb_em</t>
-  </si>
-  <si>
-    <t>股票基本面数据_业绩快报数据</t>
-  </si>
-  <si>
-    <t>目前更新至20260126，貌似到T -1</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_yjyg_em</t>
-  </si>
-  <si>
-    <t>股票基本面数据_业绩预告数据</t>
-  </si>
-  <si>
-    <t>行情数据</t>
-  </si>
-  <si>
-    <t>ods_stock_kline_daily_insight</t>
-  </si>
-  <si>
-    <t>当日已上市股票的历史日K</t>
-  </si>
-  <si>
-    <t>ods_index_a_share_insight</t>
-  </si>
-  <si>
-    <t>大A的主要指数日K</t>
-  </si>
-  <si>
-    <t>ods_future_inside_insight</t>
-  </si>
-  <si>
-    <t>内盘主要期货数据日K</t>
-  </si>
-  <si>
-    <t>vantage</t>
-  </si>
-  <si>
-    <t>ods_us_stock_daily_vantage</t>
-  </si>
-  <si>
-    <t>美股_日K</t>
-  </si>
-  <si>
-    <t>更新至 20241004</t>
-  </si>
-  <si>
-    <t>ods_exchange_rate_vantage_detail</t>
-  </si>
-  <si>
-    <t>汇率&amp;美元指数 日K</t>
-  </si>
-  <si>
-    <t>ods_exchange_dxy_vantage</t>
-  </si>
-  <si>
-    <t>美元指数 日K</t>
   </si>
   <si>
     <t>ods_akshare_stock_zh_a_spot_em</t>
@@ -3277,9 +3277,9 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3523,7 +3523,7 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3563,8 +3563,8 @@
       <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="G12" t="s">
-        <v>42</v>
+      <c r="G12" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:8">
@@ -3578,13 +3578,13 @@
         <v>31</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
+      <c r="G13" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="19.95" customHeight="1" spans="1:8">
@@ -3602,16 +3602,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
         <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>47</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>21</v>
@@ -3625,16 +3625,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" t="s">
-        <v>49</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>21</v>
@@ -3648,16 +3648,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
         <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>51</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>21</v>
@@ -3671,19 +3671,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="F20" t="s">
         <v>53</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1" spans="1:7">
@@ -3691,19 +3691,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="F21" t="s">
-        <v>57</v>
-      </c>
       <c r="G21" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="1:7">
@@ -3711,19 +3711,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
         <v>58</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" ht="19.95" customHeight="1" spans="1:7">
@@ -3731,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -3751,7 +3751,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -3771,7 +3771,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -3791,7 +3791,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -3811,7 +3811,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -3822,7 +3822,7 @@
       <c r="F27" t="s">
         <v>69</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -3842,7 +3842,7 @@
       <c r="F28" t="s">
         <v>72</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="18" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
         <v>100</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" ht="19.95" customHeight="1"/>
@@ -4137,7 +4137,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>106</v>
@@ -4160,7 +4160,7 @@
         <v>101</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>109</v>
@@ -4183,7 +4183,7 @@
         <v>111</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>112</v>
@@ -4422,10 +4422,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>75</v>
@@ -4433,10 +4433,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>74</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>18</v>
@@ -4710,7 +4710,7 @@
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>17</v>
@@ -5972,7 +5972,7 @@
         <v>41</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>77</v>
@@ -5983,7 +5983,7 @@
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M27" t="s">
         <v>76</v>
@@ -7523,12 +7523,12 @@
   <sheetData>
     <row r="4" customHeight="1" spans="2:4">
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -7621,20 +7621,20 @@
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -9607,7 +9607,7 @@
         <v>601</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="6:9">
@@ -9625,7 +9625,7 @@
         <v>603</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="8:9">
@@ -9851,7 +9851,7 @@
         <v>643</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="6:9">
@@ -9864,7 +9864,7 @@
         <v>645</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="6:9">
@@ -9890,7 +9890,7 @@
         <v>649</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="8:9">

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,32 +4,33 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="448"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
     <sheet name="Tinsight" sheetId="2" r:id="rId2"/>
     <sheet name="Takshare" sheetId="9" r:id="rId3"/>
-    <sheet name="Tcal" sheetId="11" r:id="rId4"/>
-    <sheet name="Tvantage" sheetId="3" r:id="rId5"/>
-    <sheet name="TDX" sheetId="4" r:id="rId6"/>
-    <sheet name="ODS_DWD_DMART" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId8"/>
+    <sheet name="Tushare" sheetId="12" r:id="rId4"/>
+    <sheet name="Tcal" sheetId="11" r:id="rId5"/>
+    <sheet name="Tvantage" sheetId="3" r:id="rId6"/>
+    <sheet name="TDX" sheetId="4" r:id="rId7"/>
+    <sheet name="ODS_DWD_DMART" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$1:$K$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$1:$K$43</definedName>
     <definedName name="ods_akshare_stock_value_em">Takshare!$C$7</definedName>
     <definedName name="ods_akshare_stock_zh_a_gdhs_detail_em">Takshare!$H$7</definedName>
     <definedName name="ods_akshare_stock_cyq_em">Takshare!$M$7</definedName>
     <definedName name="ods_akshare_stock_yjkb_em">Takshare!$C$27</definedName>
     <definedName name="ods_akshare_stock_yjyg_em">Takshare!$H$27</definedName>
     <definedName name="ods_akshare_stock_a_high_low_statistics">Takshare!$M$27</definedName>
-    <definedName name="ods_akshare_stock_value_em" localSheetId="3">Tcal!#REF!</definedName>
-    <definedName name="ods_akshare_stock_zh_a_gdhs_detail_em" localSheetId="3">Tcal!#REF!</definedName>
-    <definedName name="ods_akshare_stock_cyq_em" localSheetId="3">Tcal!#REF!</definedName>
-    <definedName name="ods_akshare_stock_yjkb_em" localSheetId="3">Tcal!#REF!</definedName>
-    <definedName name="ods_akshare_stock_yjyg_em" localSheetId="3">Tcal!#REF!</definedName>
-    <definedName name="ods_akshare_stock_a_high_low_statistics" localSheetId="3">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_value_em" localSheetId="4">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_zh_a_gdhs_detail_em" localSheetId="4">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_cyq_em" localSheetId="4">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_yjkb_em" localSheetId="4">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_yjyg_em" localSheetId="4">Tcal!#REF!</definedName>
+    <definedName name="ods_akshare_stock_a_high_low_statistics" localSheetId="4">Tcal!#REF!</definedName>
     <definedName name="ods_trading_days_insight">Tinsight!$G$5</definedName>
     <definedName name="ods_stock_code_daily_insight">Tinsight!$B$5</definedName>
     <definedName name="ods_stock_chouma_insight">Tinsight!$G$28</definedName>
@@ -64,6 +65,19 @@
     <definedName name="ods_akshare_stock_board_concept_hist_em">Takshare!$S$53</definedName>
     <definedName name="ods_akshare_board_concept_name_ths">Takshare!$C$84</definedName>
     <definedName name="ods_akshare_stock_board_concept_index_ths">Takshare!$H$84</definedName>
+    <definedName name="ods_akshare_stock_value_em" localSheetId="3">Tushare!$C$7</definedName>
+    <definedName name="ods_akshare_stock_zh_a_gdhs_detail_em" localSheetId="3">Tushare!$H$7</definedName>
+    <definedName name="ods_akshare_stock_cyq_em" localSheetId="3">Tushare!$M$7</definedName>
+    <definedName name="ods_akshare_stock_yjkb_em" localSheetId="3">Tushare!#REF!</definedName>
+    <definedName name="ods_akshare_stock_yjyg_em" localSheetId="3">Tushare!#REF!</definedName>
+    <definedName name="ods_akshare_stock_a_high_low_statistics" localSheetId="3">Tushare!#REF!</definedName>
+    <definedName name="ods_akshare_stock_zh_a_spot_em" localSheetId="3">Tushare!#REF!</definedName>
+    <definedName name="ods_akshare_stock_board_concept_name_em" localSheetId="3">Tushare!#REF!</definedName>
+    <definedName name="ods_akshare_stock_board_concept_cons_em" localSheetId="3">Tushare!#REF!</definedName>
+    <definedName name="ods_akshare_stock_board_concept_hist_em" localSheetId="3">Tushare!#REF!</definedName>
+    <definedName name="ods_akshare_board_concept_name_ths" localSheetId="3">Tushare!#REF!</definedName>
+    <definedName name="ods_akshare_stock_board_concept_index_ths" localSheetId="3">Tushare!#REF!</definedName>
+    <definedName name="ods_stock_kline_daily_ts">Tushare!$C$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -83,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="663">
   <si>
     <t>序号</t>
   </si>
@@ -148,7 +162,7 @@
     <t>个股的股东数</t>
   </si>
   <si>
-    <t>每日17点  T-1</t>
+    <t>每日17点  T-1  挪至零点</t>
   </si>
   <si>
     <t>ods_north_bound_daily</t>
@@ -196,21 +210,24 @@
     <t>股票基本面数据_股东数据</t>
   </si>
   <si>
+    <t>目前更新至20260202，更新更新单只股票全量，建议周末跑</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_cyq_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_筹码数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_yjkb_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_业绩快报数据</t>
+  </si>
+  <si>
     <t>目前更新至20260202，可更新至T日</t>
   </si>
   <si>
-    <t>ods_akshare_stock_cyq_em</t>
-  </si>
-  <si>
-    <t>股票基本面数据_筹码数据</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_yjkb_em</t>
-  </si>
-  <si>
-    <t>股票基本面数据_业绩快报数据</t>
-  </si>
-  <si>
     <t>ods_akshare_stock_yjyg_em</t>
   </si>
   <si>
@@ -226,6 +243,9 @@
     <t>当日已上市股票的历史日K</t>
   </si>
   <si>
+    <t>每日17点  T-1  取消</t>
+  </si>
+  <si>
     <t>ods_index_a_share_insight</t>
   </si>
   <si>
@@ -304,6 +324,18 @@
     <t>行情数据_同花顺板块行情数据</t>
   </si>
   <si>
+    <t>tushare</t>
+  </si>
+  <si>
+    <t>ods_stock_kline_daily_ts</t>
+  </si>
+  <si>
+    <t>行情数据_A股历史日K线的tushare数据</t>
+  </si>
+  <si>
+    <t>主行情数据来源，17点日跑</t>
+  </si>
+  <si>
     <t>大盘情绪</t>
   </si>
   <si>
@@ -319,7 +351,7 @@
     <t>大盘情绪数据_大盘区间内的新低新高股票数</t>
   </si>
   <si>
-    <t>目前更新至20260122</t>
+    <t>目前更新至20260122，可日跑</t>
   </si>
   <si>
     <t>行业标签</t>
@@ -405,6 +437,9 @@
     <t>股票基础信息大宽表</t>
   </si>
   <si>
+    <t>每日17点  T-1</t>
+  </si>
+  <si>
     <t>ods_stock_kline_daily_insight
 ods_tdx_stock_pepb_info
 ods_stock_exchange_market
@@ -1475,6 +1510,18 @@
     <t>年初至今涨跌幅(%)</t>
   </si>
   <si>
+    <t>T日</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
     <t>计算数据</t>
   </si>
   <si>
@@ -1515,9 +1562,6 @@
   </si>
   <si>
     <t xml:space="preserve">close </t>
-  </si>
-  <si>
-    <t>volume</t>
   </si>
   <si>
     <t>name</t>
@@ -2973,13 +3017,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>572135</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1691005</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2989,7 +3033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13907135" y="8660130"/>
+          <a:off x="15388590" y="8913495"/>
           <a:ext cx="1118870" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3274,26 +3318,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="12.1111111111111" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="12.1083333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.5583333333333" customWidth="1"/>
     <col min="5" max="5" width="44.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="35.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="31.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="33.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="26.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="31.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="35.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="31.8916666666667" customWidth="1"/>
+    <col min="8" max="8" width="33.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="26.5583333333333" customWidth="1"/>
+    <col min="11" max="11" width="31.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.95" customHeight="1" spans="1:8">
@@ -3564,7 +3608,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:8">
@@ -3578,13 +3622,13 @@
         <v>31</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" ht="19.95" customHeight="1" spans="1:8">
@@ -3602,19 +3646,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:7">
@@ -3625,16 +3669,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>21</v>
@@ -3648,16 +3692,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>21</v>
@@ -3671,19 +3715,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1" spans="1:7">
@@ -3691,19 +3735,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="1:7">
@@ -3711,19 +3755,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="19.95" customHeight="1" spans="1:7">
@@ -3731,16 +3775,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
@@ -3751,16 +3795,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -3771,16 +3815,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -3791,16 +3835,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
         <v>34</v>
@@ -3811,19 +3855,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" ht="19.95" customHeight="1" spans="1:7">
@@ -3831,391 +3875,410 @@
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" ht="19.95" customHeight="1"/>
+    </row>
+    <row r="29" ht="19.95" customHeight="1" spans="1:7">
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="30" ht="19.95" customHeight="1"/>
-    <row r="31" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A31" s="13">
+    <row r="31" ht="19.95" customHeight="1"/>
+    <row r="32" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A32" s="13">
         <v>11</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" ht="19.95" customHeight="1" spans="1:7">
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="19.95" customHeight="1" spans="1:12">
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="19.95" customHeight="1"/>
+      <c r="E33" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A35" s="13">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="35" ht="19.95" customHeight="1"/>
     <row r="36" ht="19.95" customHeight="1" spans="1:12">
       <c r="A36" s="13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="19.95" customHeight="1" spans="1:12">
       <c r="A37" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" ht="19.95" customHeight="1" spans="1:12">
       <c r="A38" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="L38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" ht="19.95" customHeight="1" spans="1:12">
       <c r="A39" s="13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" t="s">
         <v>93</v>
       </c>
-      <c r="G39" t="s">
-        <v>87</v>
+      <c r="K39" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L39" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="40" ht="19.95" customHeight="1" spans="1:12">
       <c r="A40" s="13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" ht="19.95" customHeight="1" spans="1:12">
       <c r="A41" s="13">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G41" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A42" s="13">
+        <v>19</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" ht="19.95" customHeight="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" ht="19.95" customHeight="1" spans="1:12">
+      <c r="B43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="44" ht="19.95" customHeight="1"/>
     <row r="45" ht="19.95" customHeight="1"/>
-    <row r="46" ht="105" customHeight="1" spans="1:12">
-      <c r="A46" s="13">
+    <row r="46" ht="19.95" customHeight="1"/>
+    <row r="47" ht="105" customHeight="1" spans="1:12">
+      <c r="A47" s="13">
         <v>26</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" t="s">
-        <v>91</v>
-      </c>
-      <c r="G46" t="s">
-        <v>87</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" ht="67" customHeight="1" spans="1:12">
-      <c r="A47" s="13">
+      <c r="B47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" ht="67" customHeight="1" spans="1:12">
+      <c r="A48" s="13">
         <v>27</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" t="s">
-        <v>104</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" ht="40" customHeight="1" spans="1:12">
-      <c r="A48" s="13">
+      <c r="E48" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" t="s">
+        <v>110</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" ht="40" customHeight="1" spans="1:8">
+      <c r="A49" s="13">
         <v>28</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="B49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" ht="42" customHeight="1" spans="1:8">
-      <c r="A49" s="13">
+      <c r="C49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" ht="42" customHeight="1" spans="1:8">
+      <c r="A50" s="13">
         <v>29</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F49" t="s">
-        <v>110</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" ht="19.95" customHeight="1"/>
+      <c r="B50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="51" ht="19.95" customHeight="1"/>
     <row r="52" ht="19.95" customHeight="1"/>
-    <row r="53" ht="39" customHeight="1" spans="1:8">
-      <c r="B53" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" t="s">
-        <v>113</v>
-      </c>
-      <c r="G53" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" ht="30" customHeight="1" spans="1:8">
+    <row r="53" ht="19.95" customHeight="1"/>
+    <row r="54" ht="39" customHeight="1" spans="1:8">
       <c r="B54" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F54" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" ht="30" customHeight="1" spans="1:8">
+      <c r="B55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H54" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" ht="19.95" customHeight="1"/>
+      <c r="E55" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" t="s">
+        <v>119</v>
+      </c>
+    </row>
     <row r="56" ht="19.95" customHeight="1"/>
     <row r="57" ht="19.95" customHeight="1"/>
     <row r="58" ht="19.95" customHeight="1"/>
@@ -4241,8 +4304,9 @@
     <row r="78" ht="19.95" customHeight="1"/>
     <row r="79" ht="19.95" customHeight="1"/>
     <row r="80" ht="19.95" customHeight="1"/>
+    <row r="81" ht="19.95" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K42" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K43" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -4251,7 +4315,7 @@
     <hyperlink ref="E11" location="ods_akshare_stock_cyq_em" display="ods_akshare_stock_cyq_em"/>
     <hyperlink ref="E12" location="ods_akshare_stock_yjkb_em" display="ods_akshare_stock_yjkb_em"/>
     <hyperlink ref="E13" location="ods_akshare_stock_yjyg_em" display="ods_akshare_stock_yjyg_em"/>
-    <hyperlink ref="E32" location="ods_akshare_stock_a_high_low_statistics" display="ods_akshare_stock_a_high_low_statistics"/>
+    <hyperlink ref="E33" location="ods_akshare_stock_a_high_low_statistics" display="ods_akshare_stock_a_high_low_statistics"/>
     <hyperlink ref="E2" location="ods_trading_days_insight" display="ods_trading_days_insight"/>
     <hyperlink ref="E3" location="ods_stock_code_daily_insight" display="ods_stock_code_daily_insight"/>
     <hyperlink ref="E4" location="ods_stock_chouma_insight" display="ods_stock_chouma_insight"/>
@@ -4266,28 +4330,29 @@
     <hyperlink ref="E21" location="ods_exchange_rate_vantage_detail" display="ods_exchange_rate_vantage_detail"/>
     <hyperlink ref="E22" location="ods_exchange_dxy_vantage" display="ods_exchange_dxy_vantage"/>
     <hyperlink ref="E23" location="ods_akshare_stock_zh_a_spot_em" display="ods_akshare_stock_zh_a_spot_em"/>
-    <hyperlink ref="E31" location="ods_stock_limit_summary_insight" display="ods_stock_limit_summary_insight"/>
-    <hyperlink ref="E35" location="ods_astock_industry_overview" display="ods_astock_industry_overview"/>
-    <hyperlink ref="E36" location="ods_astock_industry_detail" display="ods_astock_industry_detail"/>
-    <hyperlink ref="E37" location="ods_tdx_stock_concept_plate" display="ods_tdx_stock_concept_plate"/>
-    <hyperlink ref="E38" location="ods_tdx_stock_region_plate" display="ods_tdx_stock_region_plate"/>
-    <hyperlink ref="E39" location="ods_tdx_stock_industry_plate" display="ods_tdx_stock_industry_plate"/>
-    <hyperlink ref="E40" location="ods_tdx_stock_style_plate" display="ods_tdx_stock_style_plate"/>
-    <hyperlink ref="E41" location="ods_tdx_stock_index_plate" display="ods_tdx_stock_index_plate"/>
-    <hyperlink ref="E42" location="ods_stock_plate_redbook" display="ods_stock_plate_redbook"/>
-    <hyperlink ref="E46" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
-    <hyperlink ref="E47" location="dwd_ashare_stock_base_info" display="dwd_ashare_stock_base_info"/>
-    <hyperlink ref="E48" location="dwd_stock_ZT_list" display="dwd_stock_ZT_list"/>
-    <hyperlink ref="E49" location="dwd_stock_DT_list" display="dwd_stock_DT_list"/>
-    <hyperlink ref="E53" location="dmart_stock_zt_details" display="dmart_stock_zt_details"/>
-    <hyperlink ref="E54" location="dmart_stock_zt_details_expanded" display="dmart_stock_zt_details_expanded"/>
+    <hyperlink ref="E32" location="ods_stock_limit_summary_insight" display="ods_stock_limit_summary_insight"/>
+    <hyperlink ref="E36" location="ods_astock_industry_overview" display="ods_astock_industry_overview"/>
+    <hyperlink ref="E37" location="ods_astock_industry_detail" display="ods_astock_industry_detail"/>
+    <hyperlink ref="E38" location="ods_tdx_stock_concept_plate" display="ods_tdx_stock_concept_plate"/>
+    <hyperlink ref="E39" location="ods_tdx_stock_region_plate" display="ods_tdx_stock_region_plate"/>
+    <hyperlink ref="E40" location="ods_tdx_stock_industry_plate" display="ods_tdx_stock_industry_plate"/>
+    <hyperlink ref="E41" location="ods_tdx_stock_style_plate" display="ods_tdx_stock_style_plate"/>
+    <hyperlink ref="E42" location="ods_tdx_stock_index_plate" display="ods_tdx_stock_index_plate"/>
+    <hyperlink ref="E43" location="ods_stock_plate_redbook" display="ods_stock_plate_redbook"/>
+    <hyperlink ref="E47" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
+    <hyperlink ref="E48" location="dwd_ashare_stock_base_info" display="dwd_ashare_stock_base_info"/>
+    <hyperlink ref="E49" location="dwd_stock_ZT_list" display="dwd_stock_ZT_list"/>
+    <hyperlink ref="E50" location="dwd_stock_DT_list" display="dwd_stock_DT_list"/>
+    <hyperlink ref="E54" location="dmart_stock_zt_details" display="dmart_stock_zt_details"/>
+    <hyperlink ref="E55" location="dmart_stock_zt_details_expanded" display="dmart_stock_zt_details_expanded"/>
     <hyperlink ref="H7" location="ods_stock_code_daily_insight" display="ods_stock_code_daily_insight"/>
-    <hyperlink ref="K38" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
+    <hyperlink ref="K39" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
     <hyperlink ref="E24" location="ods_akshare_stock_board_concept_name_em" display="ods_akshare_stock_board_concept_name_em"/>
     <hyperlink ref="E25" location="ods_akshare_stock_board_concept_cons_em" display="ods_akshare_stock_board_concept_cons_em"/>
     <hyperlink ref="E26" location="ods_akshare_stock_board_concept_hist_em" display="ods_akshare_stock_board_concept_hist_em"/>
     <hyperlink ref="E27" location="ods_akshare_board_concept_name_ths" display="ods_akshare_board_concept_name_ths"/>
     <hyperlink ref="E28" location="ods_akshare_stock_board_concept_index_ths" display="ods_akshare_stock_board_concept_index_ths"/>
+    <hyperlink ref="E29" location="ods_stock_kline_daily_ts" display="ods_stock_kline_daily_ts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4301,21 +4366,21 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.22222222222222" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.225" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="35.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="19.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="11.775" customWidth="1"/>
+    <col min="7" max="7" width="28.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="35.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="19.775" customWidth="1"/>
     <col min="13" max="13" width="28.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="17.5555555555556" customWidth="1"/>
-    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
+    <col min="17" max="17" width="17.5583333333333" customWidth="1"/>
+    <col min="18" max="18" width="14.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="1:13">
@@ -4341,19 +4406,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
@@ -4361,19 +4426,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -4381,19 +4446,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -4401,10 +4466,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -4413,33 +4478,33 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -4447,28 +4512,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -4476,28 +4541,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
@@ -4505,28 +4570,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K17" s="3">
         <v>2</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="M17" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -4534,28 +4599,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K18" s="3">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="M18" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -4563,28 +4628,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="K19" s="3">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M19" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -4592,28 +4657,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K20" s="3">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M20" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -4621,28 +4686,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F21" s="3">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="K21" s="3">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="M21" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -4650,28 +4715,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F22" s="3">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K22" s="3">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M22" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -4679,47 +4744,47 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F23" s="3">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -4727,37 +4792,37 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
@@ -4765,37 +4830,37 @@
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H30" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="P30" s="3">
         <v>1</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="R30" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
@@ -4803,37 +4868,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="H31" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K31" s="3">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M31" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P31" s="3">
         <v>2</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="R31" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -4841,37 +4906,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C32" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H32" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K32" s="3">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M32" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P32" s="3">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="R32" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -4879,37 +4944,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H33" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="K33" s="3">
         <v>4</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M33" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P33" s="3">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="R33" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -4917,37 +4982,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H34" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K34" s="3">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="M34" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P34" s="3">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
+        <v>203</v>
+      </c>
+      <c r="R34" t="s">
         <v>196</v>
-      </c>
-      <c r="R34" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -4955,37 +5020,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F35" s="3">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="H35" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="K35" s="3">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M35" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P35" s="3">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
+        <v>209</v>
+      </c>
+      <c r="R35" t="s">
         <v>202</v>
-      </c>
-      <c r="R35" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -4993,37 +5058,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="F36" s="3">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="H36" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="K36" s="3">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="M36" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P36" s="3">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
+        <v>215</v>
+      </c>
+      <c r="R36" t="s">
         <v>208</v>
-      </c>
-      <c r="R36" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -5031,34 +5096,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F37" s="3">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K37" s="3">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M37" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P37" s="3">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
+        <v>221</v>
+      </c>
+      <c r="R37" t="s">
         <v>214</v>
-      </c>
-      <c r="R37" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -5066,34 +5131,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="F38" s="3">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H38" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="K38" s="3">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M38" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P38" s="3">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
+        <v>227</v>
+      </c>
+      <c r="R38" t="s">
         <v>220</v>
-      </c>
-      <c r="R38" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -5101,28 +5166,28 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H39" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K39" s="3">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="M39" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="P39" s="3">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="R39" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
@@ -5133,19 +5198,19 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P40" s="3">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="R40" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
@@ -5156,10 +5221,10 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H41" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
@@ -5167,19 +5232,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F42" s="3">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H42" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
@@ -5187,19 +5252,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F43" s="3">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="H43" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -5207,19 +5272,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F44" s="3">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="H44" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
@@ -5227,19 +5292,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H45" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -5247,19 +5312,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F46" s="3">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="H46" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -5267,19 +5332,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F47" s="3">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H47" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -5287,19 +5352,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="F48" s="3">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H48" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -5307,19 +5372,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="F49" s="3">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -5327,10 +5392,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H50" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -5338,10 +5403,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -5349,10 +5414,10 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H52" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
@@ -5363,10 +5428,10 @@
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
@@ -5377,10 +5442,10 @@
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -5388,19 +5453,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F55" s="3">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="H55" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
@@ -5408,19 +5473,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F56" s="3">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="H56" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
@@ -5428,10 +5493,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F57" s="3"/>
     </row>
@@ -5440,10 +5505,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F58" s="3"/>
     </row>
@@ -5452,10 +5517,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C59" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F59" s="3"/>
     </row>
@@ -5474,27 +5539,27 @@
   <sheetPr/>
   <dimension ref="A3:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="I50" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="3"/>
-    <col min="3" max="3" width="24.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="3"/>
-    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="34.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="32.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="8.89166666666667" style="3"/>
+    <col min="3" max="3" width="24.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.89166666666667" style="3"/>
+    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.1083333333333" customWidth="1"/>
+    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
+    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="32.775" customWidth="1"/>
+    <col min="20" max="20" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5553,28 +5618,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -5582,28 +5647,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -5611,28 +5676,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -5640,28 +5705,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="N11" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -5669,28 +5734,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D12" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="I12" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="N12" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -5698,28 +5763,28 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D13" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="I13" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="N13" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:14">
@@ -5727,28 +5792,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="I14" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="L14" s="3">
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="N14" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:14">
@@ -5756,28 +5821,28 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I15" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="L15" s="3">
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="N15" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
@@ -5785,28 +5850,28 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="I16" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="L16" s="3">
         <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="N16" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:14">
@@ -5814,28 +5879,28 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="I17" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L17" s="3">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="N17" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:14">
@@ -5843,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D18" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G18" s="3">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="I18" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L18" s="3">
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="N18" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:14">
@@ -5872,28 +5937,28 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D19" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G19" s="3">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="I19" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L19" s="3">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="N19" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:14">
@@ -5901,19 +5966,19 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D20" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="G20" s="3">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="I20" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:14">
@@ -5921,19 +5986,19 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D21" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="G21" s="3">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="I21" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:14">
@@ -5941,19 +6006,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D22" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="G22" s="3">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="I22" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:14">
@@ -5961,10 +6026,10 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="I23" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:14">
@@ -5972,10 +6037,10 @@
         <v>41</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:14">
@@ -5983,10 +6048,10 @@
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M27" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:14">
@@ -5994,28 +6059,28 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:14">
@@ -6023,28 +6088,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L29" s="3">
         <v>1</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:14">
@@ -6052,7 +6117,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -6061,7 +6126,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -6070,10 +6135,10 @@
         <v>2</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:14">
@@ -6081,28 +6146,28 @@
         <v>3</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L31" s="3">
         <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:14">
@@ -6110,28 +6175,28 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D32" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I32" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L32" s="3">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="N32" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:14">
@@ -6139,28 +6204,28 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D33" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G33" s="3">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="I33" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L33" s="3">
         <v>5</v>
       </c>
       <c r="M33" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="N33" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:14">
@@ -6168,28 +6233,28 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="D34" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="G34" s="3">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="I34" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="L34" s="3">
         <v>6</v>
       </c>
       <c r="M34" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="N34" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:14">
@@ -6197,28 +6262,28 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D35" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="G35" s="3">
         <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="I35" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L35" s="3">
         <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="N35" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:14">
@@ -6226,28 +6291,28 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D36" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="G36" s="3">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="I36" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="L36" s="3">
         <v>8</v>
       </c>
       <c r="M36" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="N36" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:14">
@@ -6255,28 +6320,28 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="D37" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="G37" s="3">
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="I37" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="L37" s="3">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="N37" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:14">
@@ -6284,19 +6349,19 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D38" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="G38" s="3">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="I38" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:14">
@@ -6304,19 +6369,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D39" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G39" s="3">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="I39" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:14">
@@ -6324,10 +6389,10 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D40" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:14">
@@ -6335,10 +6400,10 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D41" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:14">
@@ -6346,10 +6411,10 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D42" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:14">
@@ -6357,10 +6422,10 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D43" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:14">
@@ -6368,10 +6433,10 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D44" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:14">
@@ -6379,10 +6444,10 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D45" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:14">
@@ -6390,47 +6455,47 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D46" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:20">
       <c r="B51" s="5" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:20">
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:20">
       <c r="C53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:20">
@@ -6438,37 +6503,37 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:20">
@@ -6476,37 +6541,37 @@
         <v>1</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L55" s="3">
         <v>1</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="R55" s="3">
         <v>1</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:20">
@@ -6514,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -6523,28 +6588,28 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="I56" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L56" s="3">
         <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="N56" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="R56" s="3">
         <v>2</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:20">
@@ -6552,37 +6617,37 @@
         <v>3</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G57" s="3">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="I57" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L57" s="3">
         <v>3</v>
       </c>
       <c r="M57" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="N57" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
       </c>
       <c r="S57" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="T57" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:20">
@@ -6590,25 +6655,25 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D58" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="G58" s="3">
         <v>4</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L58" s="3">
         <v>4</v>
       </c>
       <c r="M58" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="N58" t="s">
         <v>0</v>
@@ -6617,10 +6682,10 @@
         <v>4</v>
       </c>
       <c r="S58" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="T58" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:20">
@@ -6628,37 +6693,37 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G59" s="3">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I59" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L59" s="3">
         <v>5</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="R59" s="3">
         <v>5</v>
       </c>
       <c r="S59" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="T59" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:20">
@@ -6666,37 +6731,37 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="G60" s="3">
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="I60" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="L60" s="3">
         <v>6</v>
       </c>
       <c r="M60" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="N60" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="R60" s="3">
         <v>6</v>
       </c>
       <c r="S60" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="T60" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:20">
@@ -6704,37 +6769,37 @@
         <v>7</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D61" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="G61" s="3">
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="I61" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L61" s="3">
         <v>7</v>
       </c>
       <c r="M61" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="N61" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="R61" s="3">
         <v>7</v>
       </c>
       <c r="S61" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="T61" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:20">
@@ -6742,37 +6807,37 @@
         <v>8</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D62" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="G62" s="3">
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="I62" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="L62" s="3">
         <v>8</v>
       </c>
       <c r="M62" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="N62" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="R62" s="3">
         <v>8</v>
       </c>
       <c r="S62" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="T62" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:20">
@@ -6780,37 +6845,37 @@
         <v>9</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D63" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G63" s="3">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="I63" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L63" s="3">
         <v>9</v>
       </c>
       <c r="M63" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="N63" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="R63" s="3">
         <v>9</v>
       </c>
       <c r="S63" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="T63" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:20">
@@ -6818,37 +6883,37 @@
         <v>10</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D64" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="G64" s="3">
         <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="I64" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="L64" s="3">
         <v>10</v>
       </c>
       <c r="M64" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="N64" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="R64" s="3">
         <v>10</v>
       </c>
       <c r="S64" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="T64" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:20">
@@ -6856,37 +6921,37 @@
         <v>11</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="G65" s="3">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="I65" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="L65" s="3">
         <v>11</v>
       </c>
       <c r="M65" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="N65" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="R65" s="3">
         <v>11</v>
       </c>
       <c r="S65" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="T65" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:20">
@@ -6894,37 +6959,37 @@
         <v>12</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D66" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G66" s="3">
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="I66" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="L66" s="3">
         <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="N66" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="R66" s="3">
         <v>12</v>
       </c>
       <c r="S66" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="T66" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:20">
@@ -6932,28 +6997,28 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D67" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="G67" s="3">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="I67" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="L67" s="3">
         <v>13</v>
       </c>
       <c r="M67" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="N67" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:20">
@@ -6961,19 +7026,19 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D68" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L68" s="3">
         <v>14</v>
       </c>
       <c r="M68" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="N68" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:20">
@@ -6981,19 +7046,19 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D69" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="L69" s="3">
         <v>15</v>
       </c>
       <c r="M69" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="N69" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:20">
@@ -7001,19 +7066,19 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D70" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="L70" s="3">
         <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="N70" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:20">
@@ -7021,19 +7086,19 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D71" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="L71" s="3">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="N71" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:20">
@@ -7041,19 +7106,19 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D72" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L72" s="3">
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="N72" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:20">
@@ -7061,19 +7126,19 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D73" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L73" s="3">
         <v>19</v>
       </c>
       <c r="M73" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="N73" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:20">
@@ -7081,10 +7146,10 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D74" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:20">
@@ -7092,10 +7157,10 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D75" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:20">
@@ -7103,10 +7168,10 @@
         <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D76" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:20">
@@ -7114,10 +7179,10 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D77" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:20">
@@ -7125,31 +7190,31 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D78" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:9">
       <c r="B82" s="5" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:9">
       <c r="C83" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:9">
       <c r="C84" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H84" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:9">
@@ -7157,19 +7222,19 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:9">
@@ -7177,19 +7242,19 @@
         <v>1</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:9">
@@ -7197,19 +7262,19 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="D87" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G87" s="3">
         <v>2</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:9">
@@ -7217,19 +7282,19 @@
         <v>3</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="G88" s="3">
         <v>3</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:9">
@@ -7237,10 +7302,10 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="I89" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:9">
@@ -7248,10 +7313,10 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="I90" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="2:9">
@@ -7259,10 +7324,10 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="I91" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:9">
@@ -7270,10 +7335,10 @@
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I92" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:9">
@@ -7281,10 +7346,10 @@
         <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="I93" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:9">
@@ -7292,10 +7357,10 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="I94" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -7310,29 +7375,361 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A3:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="8.89166666666667" style="3"/>
+    <col min="3" max="3" width="24.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.89166666666667" style="3"/>
+    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.1083333333333" customWidth="1"/>
+    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
+    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="32.775" customWidth="1"/>
+    <col min="20" max="20" width="14.775" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" customHeight="1" spans="1:14">
+      <c r="A3" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:14">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:14">
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:14">
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:14">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:14">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:14">
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="L10" s="3">
+        <v>2</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:14">
+      <c r="B11" s="3">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:14">
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="L12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:14">
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="L13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:14">
+      <c r="B14" s="3">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>433</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" s="3">
+        <v>6</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="L14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:14">
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" t="s">
+        <v>291</v>
+      </c>
+      <c r="G15" s="3">
+        <v>7</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="L15" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="B16" s="3">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="L16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:12">
+      <c r="B17" s="3">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>437</v>
+      </c>
+      <c r="D17" t="s">
+        <v>445</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="L17" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:12">
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="L18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:12">
+      <c r="G19" s="3">
+        <v>11</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="L19" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:12">
+      <c r="G20" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:12">
+      <c r="G21" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:12">
+      <c r="G22" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:12">
+      <c r="G23" s="3">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:M4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A3:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="3"/>
-    <col min="3" max="3" width="24.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="3"/>
-    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="34.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="32.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="8.89166666666667" style="3"/>
+    <col min="3" max="3" width="24.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.5583333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.89166666666667" style="3"/>
+    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="34.1083333333333" customWidth="1"/>
+    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
+    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
+    <col min="19" max="19" width="32.775" customWidth="1"/>
+    <col min="20" max="20" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -7364,12 +7761,12 @@
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="B7" s="5" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="C8" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>26</v>
@@ -7377,7 +7774,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:13">
       <c r="C9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -7388,19 +7785,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:13">
@@ -7408,19 +7805,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:13">
@@ -7428,19 +7825,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D12" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:13">
@@ -7448,19 +7845,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I13" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
@@ -7468,19 +7865,19 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D14" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="I14" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -7488,10 +7885,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="D15" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -7503,7 +7900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B4:I26"/>
@@ -7516,19 +7913,19 @@
   <cols>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="8" max="8" width="21.8916666666667" customWidth="1"/>
     <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="2:4">
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -7536,10 +7933,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -7547,10 +7944,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="D7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -7558,10 +7955,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -7569,10 +7966,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -7580,10 +7977,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -7591,10 +7988,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -7602,10 +7999,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -7613,28 +8010,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="C18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -7642,19 +8039,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -7662,19 +8059,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I21" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -7682,19 +8079,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="I22" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -7702,10 +8099,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D23" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -7714,10 +8111,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -7726,10 +8123,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="D25" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -7738,10 +8135,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -7752,7 +8149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A3:N64"/>
@@ -7761,21 +8158,21 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="3"/>
+    <col min="2" max="2" width="8.89166666666667" style="3"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="3"/>
-    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="8.89166666666667" style="3"/>
+    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.225" customWidth="1"/>
+    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
+    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -7807,26 +8204,26 @@
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -7834,28 +8231,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -7863,28 +8260,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -7892,28 +8289,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D10" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="I10" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="N10" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -7921,28 +8318,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D11" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="I11" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N11" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -7950,28 +8347,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -7979,44 +8376,44 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="I13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="N13" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="C17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -8024,19 +8421,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -8044,19 +8441,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -8064,19 +8461,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D20" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="I20" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -8084,19 +8481,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="D21" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="I21" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -8104,19 +8501,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -8124,34 +8521,34 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="H27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:9">
@@ -8160,10 +8557,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -8174,10 +8571,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I29" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -8186,10 +8583,10 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="I30" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -8198,10 +8595,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I31" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -8210,10 +8607,10 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I32" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -8222,10 +8619,10 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="I33" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -8234,10 +8631,10 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="I34" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:9">
@@ -8255,10 +8652,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
@@ -8266,10 +8663,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
@@ -8277,10 +8674,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D42" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
@@ -8288,10 +8685,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D43" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
@@ -8299,10 +8696,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D44" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -8310,10 +8707,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D45" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -8321,10 +8718,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D46" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -8332,10 +8729,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D47" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -8343,10 +8740,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="D48" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
@@ -8354,10 +8751,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D49" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
@@ -8365,10 +8762,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D50" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
@@ -8376,10 +8773,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D51" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
@@ -8387,26 +8784,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D52" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D59" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="E59" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -8418,7 +8815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:I94"/>
@@ -8427,18 +8824,18 @@
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.88888888888889" style="3"/>
+    <col min="2" max="2" width="8.89166666666667" style="3"/>
     <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="26.5583333333333" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="24.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -8473,7 +8870,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8500,12 +8897,12 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
@@ -8513,10 +8910,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -8524,10 +8921,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -8535,10 +8932,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -8546,10 +8943,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="D23" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -8557,10 +8954,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="D24" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -8568,10 +8965,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="D25" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -8579,10 +8976,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D26" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -8590,10 +8987,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D27" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -8601,10 +8998,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="D28" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -8612,10 +9009,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D29" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -8623,10 +9020,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D30" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -8634,10 +9031,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D31" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -8645,10 +9042,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="D32" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -8656,10 +9053,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="D33" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -8667,10 +9064,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="D34" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -8678,20 +9075,20 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D35" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="C39" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
@@ -8699,10 +9096,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -8710,10 +9107,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -8721,10 +9118,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D42" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -8732,10 +9129,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D43" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -8743,10 +9140,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D44" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -8754,10 +9151,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="D45" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -8765,28 +9162,28 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="D46" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
@@ -8794,19 +9191,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -8814,19 +9211,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I53" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -8834,19 +9231,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G54" s="3">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I54" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -8854,19 +9251,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G55" s="3">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -8874,19 +9271,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="D56" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G56" s="3">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="I56" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -8894,19 +9291,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G57" s="3">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -8914,19 +9311,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="D58" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="G58" s="3">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="I58" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -8934,19 +9331,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D59" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="G59" s="3">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="I59" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -8954,19 +9351,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="D60" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="G60" s="3">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="I60" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -8974,19 +9371,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D61" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="G61" s="3">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="I61" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -8994,19 +9391,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D62" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G62" s="3">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="I62" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -9014,19 +9411,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="D63" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="G63" s="3">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="I63" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -9034,19 +9431,19 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="D64" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="G64" s="3">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="I64" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -9054,19 +9451,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="D65" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G65" s="3">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="I65" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -9074,19 +9471,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D66" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G66" s="3">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="I66" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -9094,19 +9491,19 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D67" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="G67" s="3">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="I67" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
@@ -9114,19 +9511,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D68" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="G68" s="3">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="I68" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
@@ -9134,40 +9531,40 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="D69" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="G69" s="3">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="I69" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="B73" s="3" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="C75" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
       <c r="A80" s="6" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -9191,20 +9588,20 @@
     </row>
     <row r="84" customHeight="1" spans="1:9">
       <c r="C84" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
       <c r="C85" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:9">
@@ -9212,19 +9609,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:9">
@@ -9232,19 +9629,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="I87" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:9">
@@ -9252,19 +9649,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G88" s="3">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="I88" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:9">
@@ -9272,19 +9669,19 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G89" s="3">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I89" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
@@ -9292,19 +9689,19 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="D90" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="G90" s="3">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="I90" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
@@ -9312,19 +9709,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="D91" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="G91" s="3">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="I91" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
@@ -9332,19 +9729,19 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D92" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="G92" s="3">
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="I92" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
@@ -9352,19 +9749,19 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="D93" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="G93" s="3">
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="I93" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
@@ -9372,19 +9769,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="D94" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="G94" s="3">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="I94" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -9398,7 +9795,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C5:I158"/>
@@ -9407,41 +9804,41 @@
       <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="8.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="32.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="8.55833333333333" customWidth="1"/>
+    <col min="6" max="6" width="32.5583333333333" customWidth="1"/>
     <col min="8" max="8" width="51" customWidth="1"/>
-    <col min="9" max="9" width="47.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="47.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
@@ -9449,89 +9846,89 @@
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -9539,144 +9936,144 @@
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>19</v>
@@ -9684,17 +10081,17 @@
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>22</v>
@@ -9702,41 +10099,41 @@
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>25</v>
@@ -9744,163 +10141,163 @@
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>19</v>
@@ -9913,7 +10310,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="448"/>
+    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -3033,7 +3033,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15388590" y="8913495"/>
+          <a:off x="13933170" y="8913495"/>
           <a:ext cx="1118870" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3321,23 +3321,23 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="12.1083333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.5583333333333" customWidth="1"/>
-    <col min="5" max="5" width="44.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="35.4416666666667" customWidth="1"/>
-    <col min="7" max="7" width="31.8916666666667" customWidth="1"/>
-    <col min="8" max="8" width="33.1083333333333" customWidth="1"/>
-    <col min="10" max="10" width="26.5583333333333" customWidth="1"/>
-    <col min="11" max="11" width="31.225" customWidth="1"/>
+    <col min="3" max="3" width="12.1111111111111" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.1759259259259" customWidth="1"/>
+    <col min="5" max="5" width="43.0925925925926" customWidth="1"/>
+    <col min="6" max="6" width="35.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="31.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="33.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="26.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="31.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.95" customHeight="1" spans="1:8">
@@ -4372,15 +4372,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.225" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.22222222222222" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.775" customWidth="1"/>
-    <col min="7" max="7" width="28.1083333333333" customWidth="1"/>
-    <col min="8" max="8" width="35.1083333333333" customWidth="1"/>
-    <col min="12" max="12" width="19.775" customWidth="1"/>
+    <col min="3" max="3" width="11.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="28.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="35.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="19.7777777777778" customWidth="1"/>
     <col min="13" max="13" width="28.6666666666667" customWidth="1"/>
-    <col min="17" max="17" width="17.5583333333333" customWidth="1"/>
-    <col min="18" max="18" width="14.1083333333333" customWidth="1"/>
+    <col min="17" max="17" width="17.5555555555556" customWidth="1"/>
+    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" customHeight="1" spans="1:13">
@@ -5539,22 +5539,22 @@
   <sheetPr/>
   <dimension ref="A3:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="I50" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView topLeftCell="I23" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.89166666666667" style="3"/>
-    <col min="3" max="3" width="24.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.89166666666667" style="3"/>
-    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
-    <col min="9" max="9" width="34.1083333333333" customWidth="1"/>
-    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
-    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
-    <col min="19" max="19" width="32.775" customWidth="1"/>
-    <col min="20" max="20" width="14.775" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="3"/>
+    <col min="3" max="3" width="24.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="3"/>
+    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="34.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="32.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
@@ -7381,18 +7381,18 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.89166666666667" style="3"/>
-    <col min="3" max="3" width="24.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.89166666666667" style="3"/>
-    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
-    <col min="9" max="9" width="34.1083333333333" customWidth="1"/>
-    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
-    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
-    <col min="19" max="19" width="32.775" customWidth="1"/>
-    <col min="20" max="20" width="14.775" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="3"/>
+    <col min="3" max="3" width="24.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="3"/>
+    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="34.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="32.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
@@ -7535,8 +7535,6 @@
       <c r="G11" s="3">
         <v>3</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
       <c r="L11" s="3">
         <v>3</v>
       </c>
@@ -7554,8 +7552,6 @@
       <c r="G12" s="3">
         <v>4</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
       <c r="L12" s="3">
         <v>4</v>
       </c>
@@ -7573,8 +7569,6 @@
       <c r="G13" s="3">
         <v>5</v>
       </c>
-      <c r="H13"/>
-      <c r="I13"/>
       <c r="L13" s="3">
         <v>5</v>
       </c>
@@ -7592,8 +7586,6 @@
       <c r="G14" s="3">
         <v>6</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
       <c r="L14" s="3">
         <v>6</v>
       </c>
@@ -7611,8 +7603,6 @@
       <c r="G15" s="3">
         <v>7</v>
       </c>
-      <c r="H15"/>
-      <c r="I15"/>
       <c r="L15" s="3">
         <v>7</v>
       </c>
@@ -7630,8 +7620,6 @@
       <c r="G16" s="3">
         <v>8</v>
       </c>
-      <c r="H16"/>
-      <c r="I16"/>
       <c r="L16" s="3">
         <v>8</v>
       </c>
@@ -7649,8 +7637,6 @@
       <c r="G17" s="3">
         <v>9</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
       <c r="L17" s="3">
         <v>9</v>
       </c>
@@ -7659,8 +7645,6 @@
       <c r="G18" s="3">
         <v>10</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
       <c r="L18" s="3">
         <v>10</v>
       </c>
@@ -7669,8 +7653,6 @@
       <c r="G19" s="3">
         <v>11</v>
       </c>
-      <c r="H19"/>
-      <c r="I19"/>
       <c r="L19" s="3">
         <v>11</v>
       </c>
@@ -7713,18 +7695,18 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.89166666666667" style="3"/>
-    <col min="3" max="3" width="24.8916666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.5583333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.89166666666667" style="3"/>
-    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
-    <col min="9" max="9" width="34.1083333333333" customWidth="1"/>
-    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
-    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
-    <col min="19" max="19" width="32.775" customWidth="1"/>
-    <col min="20" max="20" width="14.775" customWidth="1"/>
+    <col min="2" max="2" width="8.88888888888889" style="3"/>
+    <col min="3" max="3" width="24.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="3"/>
+    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="34.1111111111111" customWidth="1"/>
+    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
+    <col min="19" max="19" width="32.7777777777778" customWidth="1"/>
+    <col min="20" max="20" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:13">
@@ -7913,8 +7895,8 @@
   <cols>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="17.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.775" customWidth="1"/>
-    <col min="8" max="8" width="21.8916666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="21.8888888888889" customWidth="1"/>
     <col min="9" max="9" width="15.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8158,16 +8140,16 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.89166666666667" style="3"/>
+    <col min="2" max="2" width="8.88888888888889" style="3"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="8.89166666666667" style="3"/>
-    <col min="8" max="8" width="29.8916666666667" customWidth="1"/>
-    <col min="9" max="9" width="14.225" customWidth="1"/>
-    <col min="13" max="13" width="32.1083333333333" customWidth="1"/>
-    <col min="14" max="14" width="14.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="8.88888888888889" style="3"/>
+    <col min="8" max="8" width="29.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="14.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="32.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
@@ -8824,13 +8806,13 @@
       <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="8.89166666666667" style="3"/>
+    <col min="2" max="2" width="8.88888888888889" style="3"/>
     <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="26.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="24.8916666666667" customWidth="1"/>
+    <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
@@ -9804,14 +9786,14 @@
       <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="14.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
     <col min="4" max="4" width="23.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="8.55833333333333" customWidth="1"/>
-    <col min="6" max="6" width="32.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.55555555555556" customWidth="1"/>
+    <col min="6" max="6" width="32.5555555555556" customWidth="1"/>
     <col min="8" max="8" width="51" customWidth="1"/>
-    <col min="9" max="9" width="47.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="47.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:9">

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448"/>
+    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="664">
   <si>
     <t>序号</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>DWD</t>
+  </si>
+  <si>
+    <t>周末手动更新，目前跟新至 20250130</t>
   </si>
   <si>
     <t>ods_tdx_stock_concept_plate
@@ -2883,7 +2886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2946,6 +2949,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3320,8 +3326,8 @@
   <sheetPr/>
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
@@ -4022,7 +4028,7 @@
       <c r="F38" t="s">
         <v>92</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4045,7 +4051,7 @@
       <c r="F39" t="s">
         <v>95</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="19" t="s">
         <v>93</v>
       </c>
       <c r="K39" s="16" t="s">
@@ -4074,7 +4080,7 @@
       <c r="F40" t="s">
         <v>99</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4097,7 +4103,7 @@
       <c r="F41" t="s">
         <v>101</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4120,7 +4126,7 @@
       <c r="F42" t="s">
         <v>103</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4163,11 +4169,11 @@
       <c r="F47" t="s">
         <v>97</v>
       </c>
-      <c r="G47" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="21" t="s">
+      <c r="G47" s="21" t="s">
         <v>108</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" ht="67" customHeight="1" spans="1:12">
@@ -4181,16 +4187,16 @@
         <v>9</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H48" s="21" t="s">
         <v>112</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="49" ht="40" customHeight="1" spans="1:8">
@@ -4204,16 +4210,16 @@
         <v>45</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:8">
@@ -4227,16 +4233,16 @@
         <v>45</v>
       </c>
       <c r="E50" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="F50" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="51" ht="19.95" customHeight="1"/>
@@ -4244,39 +4250,39 @@
     <row r="53" ht="19.95" customHeight="1"/>
     <row r="54" ht="39" customHeight="1" spans="1:8">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G54" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" s="21" t="s">
         <v>122</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:8">
       <c r="B55" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" ht="19.95" customHeight="1"/>
@@ -4406,19 +4412,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
@@ -4426,19 +4432,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -4446,19 +4452,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -4466,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -4478,10 +4484,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -4512,28 +4518,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -4541,28 +4547,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
@@ -4570,28 +4576,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17" s="3">
         <v>2</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -4599,28 +4605,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K18" s="3">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -4628,28 +4634,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K19" s="3">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -4657,28 +4663,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K20" s="3">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -4686,28 +4692,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F21" s="3">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K21" s="3">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -4715,28 +4721,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F22" s="3">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K22" s="3">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -4744,19 +4750,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F23" s="3">
         <v>8</v>
       </c>
       <c r="G23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" t="s">
         <v>172</v>
-      </c>
-      <c r="H23" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
@@ -4792,37 +4798,37 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
@@ -4830,37 +4836,37 @@
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P30" s="3">
         <v>1</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
@@ -4868,37 +4874,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K31" s="3">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P31" s="3">
         <v>2</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -4906,37 +4912,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K32" s="3">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P32" s="3">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -4944,37 +4950,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K33" s="3">
         <v>4</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P33" s="3">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -4982,37 +4988,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K34" s="3">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P34" s="3">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -5020,37 +5026,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F35" s="3">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K35" s="3">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P35" s="3">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -5058,37 +5064,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F36" s="3">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K36" s="3">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P36" s="3">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -5096,34 +5102,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F37" s="3">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K37" s="3">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P37" s="3">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -5131,34 +5137,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F38" s="3">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K38" s="3">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P38" s="3">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -5166,28 +5172,28 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K39" s="3">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P39" s="3">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
@@ -5198,19 +5204,19 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P40" s="3">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R40" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
@@ -5221,10 +5227,10 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
@@ -5232,19 +5238,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F42" s="3">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
@@ -5252,19 +5258,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F43" s="3">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -5272,19 +5278,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F44" s="3">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
@@ -5292,19 +5298,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -5312,19 +5318,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F46" s="3">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -5332,19 +5338,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F47" s="3">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -5352,19 +5358,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F48" s="3">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H48" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -5372,19 +5378,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F49" s="3">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -5392,10 +5398,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -5403,10 +5409,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -5414,10 +5420,10 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
@@ -5428,10 +5434,10 @@
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
@@ -5442,10 +5448,10 @@
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -5453,19 +5459,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F55" s="3">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
@@ -5473,19 +5479,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F56" s="3">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
@@ -5493,10 +5499,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F57" s="3"/>
     </row>
@@ -5505,10 +5511,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F58" s="3"/>
     </row>
@@ -5517,10 +5523,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F59" s="3"/>
     </row>
@@ -5539,8 +5545,8 @@
   <sheetPr/>
   <dimension ref="A3:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="I23" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView topLeftCell="C24" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -5559,7 +5565,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5618,28 +5624,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -5647,28 +5653,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -5676,28 +5682,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -5705,28 +5711,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -5734,28 +5740,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -5763,28 +5769,28 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:14">
@@ -5792,28 +5798,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L14" s="3">
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:14">
@@ -5821,28 +5827,28 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L15" s="3">
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
@@ -5850,28 +5856,28 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L16" s="3">
         <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:14">
@@ -5879,28 +5885,28 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="I17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L17" s="3">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:14">
@@ -5908,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G18" s="3">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L18" s="3">
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:14">
@@ -5937,28 +5943,28 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G19" s="3">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L19" s="3">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:14">
@@ -5966,19 +5972,19 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G20" s="3">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:14">
@@ -5986,19 +5992,19 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G21" s="3">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:14">
@@ -6006,19 +6012,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G22" s="3">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:14">
@@ -6026,10 +6032,10 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:14">
@@ -6059,28 +6065,28 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:14">
@@ -6088,28 +6094,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L29" s="3">
         <v>1</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:14">
@@ -6117,7 +6123,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -6126,7 +6132,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -6135,10 +6141,10 @@
         <v>2</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:14">
@@ -6146,28 +6152,28 @@
         <v>3</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L31" s="3">
         <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N31" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:14">
@@ -6175,28 +6181,28 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L32" s="3">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:14">
@@ -6204,28 +6210,28 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G33" s="3">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L33" s="3">
         <v>5</v>
       </c>
       <c r="M33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:14">
@@ -6233,28 +6239,28 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G34" s="3">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L34" s="3">
         <v>6</v>
       </c>
       <c r="M34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:14">
@@ -6262,28 +6268,28 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D35" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G35" s="3">
         <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L35" s="3">
         <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:14">
@@ -6291,28 +6297,28 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D36" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G36" s="3">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L36" s="3">
         <v>8</v>
       </c>
       <c r="M36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:14">
@@ -6320,28 +6326,28 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D37" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G37" s="3">
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L37" s="3">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N37" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:14">
@@ -6349,19 +6355,19 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G38" s="3">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:14">
@@ -6369,19 +6375,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G39" s="3">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:14">
@@ -6389,10 +6395,10 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D40" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:14">
@@ -6400,10 +6406,10 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:14">
@@ -6411,10 +6417,10 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:14">
@@ -6422,10 +6428,10 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D43" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:14">
@@ -6433,10 +6439,10 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:14">
@@ -6444,10 +6450,10 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D45" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:14">
@@ -6455,15 +6461,15 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:20">
       <c r="B51" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:20">
@@ -6503,37 +6509,37 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:20">
@@ -6541,37 +6547,37 @@
         <v>1</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L55" s="3">
         <v>1</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="R55" s="3">
         <v>1</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:20">
@@ -6579,7 +6585,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -6588,28 +6594,28 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I56" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L56" s="3">
         <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N56" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R56" s="3">
         <v>2</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:20">
@@ -6617,37 +6623,37 @@
         <v>3</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G57" s="3">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L57" s="3">
         <v>3</v>
       </c>
       <c r="M57" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N57" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
       </c>
       <c r="S57" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="T57" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:20">
@@ -6655,25 +6661,25 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D58" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G58" s="3">
         <v>4</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L58" s="3">
         <v>4</v>
       </c>
       <c r="M58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N58" t="s">
         <v>0</v>
@@ -6682,10 +6688,10 @@
         <v>4</v>
       </c>
       <c r="S58" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="T58" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:20">
@@ -6693,37 +6699,37 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G59" s="3">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I59" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L59" s="3">
         <v>5</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R59" s="3">
         <v>5</v>
       </c>
       <c r="S59" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="T59" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:20">
@@ -6731,37 +6737,37 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D60" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G60" s="3">
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L60" s="3">
         <v>6</v>
       </c>
       <c r="M60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R60" s="3">
         <v>6</v>
       </c>
       <c r="S60" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T60" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:20">
@@ -6769,37 +6775,37 @@
         <v>7</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D61" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G61" s="3">
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I61" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L61" s="3">
         <v>7</v>
       </c>
       <c r="M61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N61" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R61" s="3">
         <v>7</v>
       </c>
       <c r="S61" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="T61" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:20">
@@ -6807,37 +6813,37 @@
         <v>8</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D62" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G62" s="3">
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I62" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L62" s="3">
         <v>8</v>
       </c>
       <c r="M62" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N62" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R62" s="3">
         <v>8</v>
       </c>
       <c r="S62" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="T62" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:20">
@@ -6845,37 +6851,37 @@
         <v>9</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D63" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G63" s="3">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L63" s="3">
         <v>9</v>
       </c>
       <c r="M63" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N63" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R63" s="3">
         <v>9</v>
       </c>
       <c r="S63" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="T63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:20">
@@ -6883,37 +6889,37 @@
         <v>10</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D64" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G64" s="3">
         <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L64" s="3">
         <v>10</v>
       </c>
       <c r="M64" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N64" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R64" s="3">
         <v>10</v>
       </c>
       <c r="S64" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="T64" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:20">
@@ -6921,37 +6927,37 @@
         <v>11</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G65" s="3">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I65" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L65" s="3">
         <v>11</v>
       </c>
       <c r="M65" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N65" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="R65" s="3">
         <v>11</v>
       </c>
       <c r="S65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="T65" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:20">
@@ -6959,37 +6965,37 @@
         <v>12</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D66" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G66" s="3">
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I66" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L66" s="3">
         <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="R66" s="3">
         <v>12</v>
       </c>
       <c r="S66" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="T66" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:20">
@@ -6997,28 +7003,28 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D67" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G67" s="3">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I67" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L67" s="3">
         <v>13</v>
       </c>
       <c r="M67" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:20">
@@ -7026,19 +7032,19 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L68" s="3">
         <v>14</v>
       </c>
       <c r="M68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N68" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:20">
@@ -7046,19 +7052,19 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D69" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L69" s="3">
         <v>15</v>
       </c>
       <c r="M69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N69" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:20">
@@ -7066,19 +7072,19 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D70" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L70" s="3">
         <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N70" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:20">
@@ -7086,19 +7092,19 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D71" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L71" s="3">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N71" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:20">
@@ -7106,19 +7112,19 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D72" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L72" s="3">
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N72" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:20">
@@ -7126,19 +7132,19 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D73" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L73" s="3">
         <v>19</v>
       </c>
       <c r="M73" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:20">
@@ -7146,10 +7152,10 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:20">
@@ -7157,10 +7163,10 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D75" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:20">
@@ -7168,10 +7174,10 @@
         <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D76" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:20">
@@ -7179,10 +7185,10 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D77" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:20">
@@ -7190,15 +7196,15 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D78" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:9">
       <c r="B82" s="5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:9">
@@ -7222,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:9">
@@ -7242,19 +7248,19 @@
         <v>1</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:9">
@@ -7262,19 +7268,19 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D87" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G87" s="3">
         <v>2</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:9">
@@ -7282,19 +7288,19 @@
         <v>3</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G88" s="3">
         <v>3</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:9">
@@ -7302,10 +7308,10 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I89" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:9">
@@ -7313,10 +7319,10 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I90" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="2:9">
@@ -7324,10 +7330,10 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I91" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:9">
@@ -7335,10 +7341,10 @@
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I92" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:9">
@@ -7346,10 +7352,10 @@
         <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I93" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:9">
@@ -7357,10 +7363,10 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I94" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -7378,7 +7384,7 @@
   <dimension ref="A3:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -7397,7 +7403,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -7432,11 +7438,11 @@
         <v>77</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
@@ -7444,11 +7450,11 @@
         <v>76</v>
       </c>
       <c r="H7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -7456,28 +7462,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -7485,10 +7491,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -7506,10 +7512,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -7527,10 +7533,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
@@ -7544,10 +7550,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -7561,10 +7567,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
@@ -7578,10 +7584,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
@@ -7595,10 +7601,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
@@ -7612,10 +7618,10 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
@@ -7629,10 +7635,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
@@ -7711,7 +7717,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -7743,7 +7749,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="B7" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -7767,19 +7773,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:13">
@@ -7787,19 +7793,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:13">
@@ -7807,19 +7813,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:13">
@@ -7827,19 +7833,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
@@ -7847,19 +7853,19 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -7867,10 +7873,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -7915,10 +7921,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -7926,10 +7932,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -7937,10 +7943,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -7948,10 +7954,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -7959,10 +7965,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -7970,10 +7976,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -7981,10 +7987,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -7992,10 +7998,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -8021,19 +8027,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -8041,19 +8047,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D21" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -8061,19 +8067,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -8081,10 +8087,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -8093,10 +8099,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -8105,10 +8111,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -8117,10 +8123,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -8154,7 +8160,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8213,28 +8219,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -8242,28 +8248,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -8271,28 +8277,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -8300,28 +8306,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -8329,28 +8335,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -8358,28 +8364,28 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
@@ -8403,19 +8409,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -8423,19 +8429,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -8443,19 +8449,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -8463,19 +8469,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -8483,19 +8489,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -8503,24 +8509,24 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>97</v>
@@ -8539,10 +8545,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -8553,10 +8559,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -8565,10 +8571,10 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I30" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -8577,10 +8583,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -8589,10 +8595,10 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I32" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -8601,10 +8607,10 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -8613,10 +8619,10 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:9">
@@ -8634,10 +8640,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
@@ -8645,10 +8651,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
@@ -8656,10 +8662,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
@@ -8667,10 +8673,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
@@ -8678,10 +8684,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D44" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -8689,10 +8695,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -8700,10 +8706,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D46" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -8711,10 +8717,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D47" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -8722,10 +8728,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D48" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
@@ -8733,10 +8739,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D49" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
@@ -8744,10 +8750,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
@@ -8755,10 +8761,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D51" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
@@ -8766,26 +8772,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D52" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D59" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E59" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -8802,8 +8808,8 @@
   <sheetPr/>
   <dimension ref="A2:I94"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -8817,7 +8823,7 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -8852,7 +8858,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8879,12 +8885,12 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
@@ -8892,10 +8898,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -8903,10 +8909,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -8914,10 +8920,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -8925,10 +8931,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D23" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -8936,10 +8942,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -8947,10 +8953,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D25" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -8958,10 +8964,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D26" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -8969,10 +8975,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D27" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -8980,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D28" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -8991,10 +8997,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D29" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -9002,10 +9008,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D30" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -9013,10 +9019,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -9024,10 +9030,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D32" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -9035,10 +9041,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D33" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -9046,10 +9052,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D34" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -9057,10 +9063,10 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
@@ -9078,10 +9084,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -9089,10 +9095,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -9100,10 +9106,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D42" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -9111,10 +9117,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D43" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -9122,10 +9128,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D44" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -9133,10 +9139,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D45" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -9144,28 +9150,28 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D46" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
       <c r="C51" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
@@ -9173,19 +9179,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -9193,19 +9199,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -9213,19 +9219,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G54" s="3">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -9233,19 +9239,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G55" s="3">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -9253,19 +9259,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D56" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G56" s="3">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I56" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -9273,19 +9279,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G57" s="3">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -9293,19 +9299,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D58" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G58" s="3">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I58" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -9313,19 +9319,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D59" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G59" s="3">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I59" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -9333,19 +9339,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D60" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G60" s="3">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="I60" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -9353,19 +9359,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D61" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G61" s="3">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I61" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -9373,19 +9379,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D62" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G62" s="3">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I62" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -9393,19 +9399,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D63" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G63" s="3">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I63" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -9413,19 +9419,19 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D64" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="G64" s="3">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I64" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -9433,19 +9439,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G65" s="3">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -9453,19 +9459,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G66" s="3">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -9473,19 +9479,19 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D67" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G67" s="3">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I67" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
@@ -9493,19 +9499,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D68" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G68" s="3">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I68" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
@@ -9513,40 +9519,40 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D69" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G69" s="3">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I69" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="B73" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="C75" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
       <c r="A80" s="6" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -9570,20 +9576,20 @@
     </row>
     <row r="84" customHeight="1" spans="1:9">
       <c r="C84" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
       <c r="C85" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:9">
@@ -9591,19 +9597,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:9">
@@ -9611,19 +9617,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D87" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I87" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:9">
@@ -9631,19 +9637,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D88" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G88" s="3">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I88" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:9">
@@ -9651,19 +9657,19 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G89" s="3">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I89" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
@@ -9671,19 +9677,19 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D90" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G90" s="3">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="I90" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
@@ -9691,19 +9697,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D91" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G91" s="3">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="I91" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
@@ -9711,19 +9717,19 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D92" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G92" s="3">
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I92" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
@@ -9731,19 +9737,19 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D93" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G93" s="3">
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I93" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
@@ -9751,19 +9757,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D94" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G94" s="3">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I94" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -9798,29 +9804,29 @@
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
@@ -9828,89 +9834,89 @@
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -9918,12 +9924,12 @@
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>86</v>
@@ -9931,17 +9937,17 @@
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>88</v>
@@ -9949,41 +9955,41 @@
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>46</v>
@@ -9991,17 +9997,17 @@
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>49</v>
@@ -10009,17 +10015,17 @@
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>80</v>
@@ -10027,35 +10033,35 @@
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>19</v>
@@ -10063,17 +10069,17 @@
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>22</v>
@@ -10081,41 +10087,41 @@
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>25</v>
@@ -10123,111 +10129,111 @@
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>46</v>
@@ -10235,12 +10241,12 @@
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>49</v>
@@ -10248,12 +10254,12 @@
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>80</v>
@@ -10261,12 +10267,12 @@
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>51</v>
@@ -10274,12 +10280,12 @@
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>19</v>
@@ -10292,7 +10298,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="665">
   <si>
     <t>序号</t>
   </si>
@@ -201,22 +201,25 @@
     <t>股票基本面数据_估值数据</t>
   </si>
   <si>
+    <t>数据量大换IP可解，周末跑</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_zh_a_gdhs_detail_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_股东数据</t>
+  </si>
+  <si>
+    <t>目前更新至20260202，更新更新单只股票全量，建议周末跑</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_cyq_em</t>
+  </si>
+  <si>
+    <t>股票基本面数据_筹码数据</t>
+  </si>
+  <si>
     <t>目前为空，IP 封堵</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_zh_a_gdhs_detail_em</t>
-  </si>
-  <si>
-    <t>股票基本面数据_股东数据</t>
-  </si>
-  <si>
-    <t>目前更新至20260202，更新更新单只股票全量，建议周末跑</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_cyq_em</t>
-  </si>
-  <si>
-    <t>股票基本面数据_筹码数据</t>
   </si>
   <si>
     <t>ods_akshare_stock_yjkb_em</t>
@@ -2886,7 +2889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2949,6 +2952,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3039,7 +3045,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13933170" y="8913495"/>
+          <a:off x="13933170" y="8901430"/>
           <a:ext cx="1118870" cy="1765935"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3327,9 +3333,9 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3553,7 +3559,7 @@
       <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3594,7 +3600,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" ht="19.95" customHeight="1" spans="1:8">
@@ -3608,13 +3614,13 @@
         <v>31</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:8">
@@ -3628,16 +3634,16 @@
         <v>31</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" ht="19.95" customHeight="1" spans="1:8">
+    </row>
+    <row r="14" ht="19" customHeight="1" spans="1:8">
       <c r="F14" s="16"/>
     </row>
     <row r="15" ht="19.95" customHeight="1" spans="1:8">
@@ -3652,19 +3658,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:7">
@@ -3675,16 +3681,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>21</v>
@@ -3698,16 +3704,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>21</v>
@@ -3721,19 +3727,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1" spans="1:7">
@@ -3741,19 +3747,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="1:7">
@@ -3761,19 +3767,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="19.95" customHeight="1" spans="1:7">
@@ -3781,19 +3787,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" ht="19.95" customHeight="1" spans="1:7">
@@ -3801,19 +3807,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:7">
@@ -3821,19 +3827,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="19.95" customHeight="1" spans="1:7">
@@ -3841,19 +3847,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" ht="19.95" customHeight="1" spans="1:7">
@@ -3861,19 +3867,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" ht="19.95" customHeight="1" spans="1:7">
@@ -3881,19 +3887,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="F28" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="29" ht="19.95" customHeight="1" spans="1:7">
@@ -3901,19 +3907,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" ht="19.95" customHeight="1"/>
@@ -3926,16 +3932,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>16</v>
@@ -3946,19 +3952,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" ht="19.95" customHeight="1"/>
@@ -3971,16 +3977,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>16</v>
@@ -3994,19 +4000,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" ht="19.95" customHeight="1" spans="1:12">
@@ -4017,19 +4023,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" ht="19.95" customHeight="1" spans="1:12">
@@ -4040,25 +4046,25 @@
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
         <v>27</v>
       </c>
       <c r="E39" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="F39" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="K39" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" ht="19.95" customHeight="1" spans="1:12">
@@ -4069,19 +4075,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" ht="19.95" customHeight="1" spans="1:12">
@@ -4092,19 +4098,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
         <v>27</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" ht="19.95" customHeight="1" spans="1:12">
@@ -4115,19 +4121,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
         <v>27</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" ht="19.95" customHeight="1" spans="1:12">
@@ -4135,19 +4141,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" ht="19.95" customHeight="1"/>
@@ -4158,22 +4164,22 @@
         <v>26</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H47" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>109</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="48" ht="67" customHeight="1" spans="1:12">
@@ -4181,22 +4187,22 @@
         <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H48" s="22" t="s">
         <v>113</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="49" ht="40" customHeight="1" spans="1:8">
@@ -4204,22 +4210,22 @@
         <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H49" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" ht="42" customHeight="1" spans="1:8">
@@ -4227,22 +4233,22 @@
         <v>29</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E50" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="F50" t="s">
-        <v>118</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" ht="19.95" customHeight="1"/>
@@ -4250,39 +4256,39 @@
     <row r="53" ht="19.95" customHeight="1"/>
     <row r="54" ht="39" customHeight="1" spans="1:8">
       <c r="B54" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G54" t="s">
-        <v>122</v>
-      </c>
-      <c r="H54" s="22" t="s">
         <v>123</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:8">
       <c r="B55" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G55" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" ht="19.95" customHeight="1"/>
@@ -4412,19 +4418,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
@@ -4432,19 +4438,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -4452,19 +4458,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -4472,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -4484,33 +4490,33 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:13">
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -4518,28 +4524,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -4547,28 +4553,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
@@ -4576,28 +4582,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K17" s="3">
         <v>2</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -4605,28 +4611,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K18" s="3">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -4634,28 +4640,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K19" s="3">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -4663,28 +4669,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K20" s="3">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -4692,28 +4698,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F21" s="3">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K21" s="3">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -4721,28 +4727,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F22" s="3">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K22" s="3">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -4750,47 +4756,47 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F23" s="3">
         <v>8</v>
       </c>
       <c r="G23" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" t="s">
         <v>173</v>
-      </c>
-      <c r="H23" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:18">
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -4798,37 +4804,37 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
@@ -4836,37 +4842,37 @@
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P30" s="3">
         <v>1</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
@@ -4874,37 +4880,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H31" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K31" s="3">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P31" s="3">
         <v>2</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -4912,37 +4918,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K32" s="3">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P32" s="3">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="R32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -4950,37 +4956,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K33" s="3">
         <v>4</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P33" s="3">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -4988,37 +4994,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K34" s="3">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M34" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P34" s="3">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -5026,37 +5032,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F35" s="3">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K35" s="3">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P35" s="3">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -5064,37 +5070,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F36" s="3">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K36" s="3">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P36" s="3">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R36" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -5102,34 +5108,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F37" s="3">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K37" s="3">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P37" s="3">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="R37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -5137,34 +5143,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F38" s="3">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K38" s="3">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P38" s="3">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -5172,28 +5178,28 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H39" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K39" s="3">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M39" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P39" s="3">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
@@ -5204,19 +5210,19 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H40" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P40" s="3">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R40" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
@@ -5227,10 +5233,10 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
@@ -5238,19 +5244,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F42" s="3">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H42" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
@@ -5258,19 +5264,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F43" s="3">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -5278,19 +5284,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F44" s="3">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
@@ -5298,19 +5304,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -5318,19 +5324,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F46" s="3">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -5338,19 +5344,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C47" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F47" s="3">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H47" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -5358,19 +5364,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F48" s="3">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -5378,19 +5384,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F49" s="3">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -5398,10 +5404,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -5409,10 +5415,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -5420,10 +5426,10 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H52" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
@@ -5434,10 +5440,10 @@
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
@@ -5448,10 +5454,10 @@
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H54" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -5459,19 +5465,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F55" s="3">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
@@ -5479,19 +5485,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F56" s="3">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
@@ -5499,10 +5505,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F57" s="3"/>
     </row>
@@ -5511,10 +5517,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C58" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F58" s="3"/>
     </row>
@@ -5523,10 +5529,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F59" s="3"/>
     </row>
@@ -5545,8 +5551,8 @@
   <sheetPr/>
   <dimension ref="A3:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="C24" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -5565,7 +5571,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5624,28 +5630,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -5653,28 +5659,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -5682,28 +5688,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -5711,28 +5717,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -5740,28 +5746,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N12" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -5769,28 +5775,28 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:14">
@@ -5798,28 +5804,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L14" s="3">
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N14" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:14">
@@ -5827,28 +5833,28 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L15" s="3">
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
@@ -5856,28 +5862,28 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L16" s="3">
         <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:14">
@@ -5885,28 +5891,28 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D17" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L17" s="3">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:14">
@@ -5914,28 +5920,28 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G18" s="3">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L18" s="3">
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:14">
@@ -5943,28 +5949,28 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G19" s="3">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L19" s="3">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:14">
@@ -5972,19 +5978,19 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G20" s="3">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:14">
@@ -5992,19 +5998,19 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G21" s="3">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I21" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:14">
@@ -6012,19 +6018,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G22" s="3">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:14">
@@ -6032,32 +6038,32 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I23" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:14">
       <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:14">
       <c r="C27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:14">
@@ -6065,28 +6071,28 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:14">
@@ -6094,28 +6100,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L29" s="3">
         <v>1</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:14">
@@ -6123,7 +6129,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -6132,7 +6138,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -6141,10 +6147,10 @@
         <v>2</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:14">
@@ -6152,28 +6158,28 @@
         <v>3</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L31" s="3">
         <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:14">
@@ -6181,28 +6187,28 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I32" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L32" s="3">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:14">
@@ -6210,28 +6216,28 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D33" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G33" s="3">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I33" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L33" s="3">
         <v>5</v>
       </c>
       <c r="M33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:14">
@@ -6239,28 +6245,28 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G34" s="3">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I34" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L34" s="3">
         <v>6</v>
       </c>
       <c r="M34" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N34" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:14">
@@ -6268,28 +6274,28 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G35" s="3">
         <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L35" s="3">
         <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N35" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:14">
@@ -6297,28 +6303,28 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D36" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G36" s="3">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I36" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L36" s="3">
         <v>8</v>
       </c>
       <c r="M36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N36" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:14">
@@ -6326,28 +6332,28 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D37" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G37" s="3">
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I37" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L37" s="3">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N37" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:14">
@@ -6355,19 +6361,19 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G38" s="3">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:14">
@@ -6375,19 +6381,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D39" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G39" s="3">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:14">
@@ -6395,10 +6401,10 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D40" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:14">
@@ -6406,10 +6412,10 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D41" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:14">
@@ -6417,10 +6423,10 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D42" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:14">
@@ -6428,10 +6434,10 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D43" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:14">
@@ -6439,10 +6445,10 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D44" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:14">
@@ -6450,10 +6456,10 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D45" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:14">
@@ -6461,47 +6467,47 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D46" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:20">
       <c r="B51" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:20">
       <c r="C52" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:20">
       <c r="C53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:20">
@@ -6509,37 +6515,37 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:20">
@@ -6547,37 +6553,37 @@
         <v>1</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L55" s="3">
         <v>1</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R55" s="3">
         <v>1</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:20">
@@ -6585,7 +6591,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -6594,28 +6600,28 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L56" s="3">
         <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N56" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="R56" s="3">
         <v>2</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:20">
@@ -6623,37 +6629,37 @@
         <v>3</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G57" s="3">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I57" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L57" s="3">
         <v>3</v>
       </c>
       <c r="M57" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N57" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
       </c>
       <c r="S57" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="T57" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:20">
@@ -6661,25 +6667,25 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D58" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G58" s="3">
         <v>4</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L58" s="3">
         <v>4</v>
       </c>
       <c r="M58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N58" t="s">
         <v>0</v>
@@ -6688,10 +6694,10 @@
         <v>4</v>
       </c>
       <c r="S58" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="T58" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:20">
@@ -6699,37 +6705,37 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G59" s="3">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I59" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L59" s="3">
         <v>5</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R59" s="3">
         <v>5</v>
       </c>
       <c r="S59" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="T59" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:20">
@@ -6737,37 +6743,37 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D60" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G60" s="3">
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I60" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L60" s="3">
         <v>6</v>
       </c>
       <c r="M60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R60" s="3">
         <v>6</v>
       </c>
       <c r="S60" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T60" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:20">
@@ -6775,37 +6781,37 @@
         <v>7</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D61" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G61" s="3">
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I61" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L61" s="3">
         <v>7</v>
       </c>
       <c r="M61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N61" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="R61" s="3">
         <v>7</v>
       </c>
       <c r="S61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T61" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:20">
@@ -6813,37 +6819,37 @@
         <v>8</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D62" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G62" s="3">
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I62" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L62" s="3">
         <v>8</v>
       </c>
       <c r="M62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N62" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R62" s="3">
         <v>8</v>
       </c>
       <c r="S62" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="T62" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:20">
@@ -6851,37 +6857,37 @@
         <v>9</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D63" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G63" s="3">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I63" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L63" s="3">
         <v>9</v>
       </c>
       <c r="M63" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N63" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="R63" s="3">
         <v>9</v>
       </c>
       <c r="S63" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="T63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:20">
@@ -6889,37 +6895,37 @@
         <v>10</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D64" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G64" s="3">
         <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I64" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L64" s="3">
         <v>10</v>
       </c>
       <c r="M64" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N64" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="R64" s="3">
         <v>10</v>
       </c>
       <c r="S64" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="T64" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:20">
@@ -6927,37 +6933,37 @@
         <v>11</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G65" s="3">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L65" s="3">
         <v>11</v>
       </c>
       <c r="M65" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N65" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="R65" s="3">
         <v>11</v>
       </c>
       <c r="S65" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="T65" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:20">
@@ -6965,37 +6971,37 @@
         <v>12</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D66" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G66" s="3">
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I66" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L66" s="3">
         <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N66" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R66" s="3">
         <v>12</v>
       </c>
       <c r="S66" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="T66" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:20">
@@ -7003,28 +7009,28 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G67" s="3">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I67" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L67" s="3">
         <v>13</v>
       </c>
       <c r="M67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N67" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:20">
@@ -7032,19 +7038,19 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L68" s="3">
         <v>14</v>
       </c>
       <c r="M68" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:20">
@@ -7052,19 +7058,19 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D69" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L69" s="3">
         <v>15</v>
       </c>
       <c r="M69" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N69" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:20">
@@ -7072,19 +7078,19 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D70" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L70" s="3">
         <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N70" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:20">
@@ -7092,19 +7098,19 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D71" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L71" s="3">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N71" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:20">
@@ -7112,19 +7118,19 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D72" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L72" s="3">
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N72" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:20">
@@ -7132,19 +7138,19 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L73" s="3">
         <v>19</v>
       </c>
       <c r="M73" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N73" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:20">
@@ -7152,10 +7158,10 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D74" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:20">
@@ -7163,10 +7169,10 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D75" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:20">
@@ -7174,10 +7180,10 @@
         <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D76" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:20">
@@ -7185,10 +7191,10 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D77" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:20">
@@ -7196,31 +7202,31 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D78" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:9">
       <c r="B82" s="5" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:9">
       <c r="C83" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:9">
       <c r="C84" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H84" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:9">
@@ -7228,19 +7234,19 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:9">
@@ -7248,19 +7254,19 @@
         <v>1</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:9">
@@ -7268,19 +7274,19 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D87" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G87" s="3">
         <v>2</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:9">
@@ -7288,19 +7294,19 @@
         <v>3</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G88" s="3">
         <v>3</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:9">
@@ -7308,10 +7314,10 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I89" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:9">
@@ -7319,10 +7325,10 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I90" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="2:9">
@@ -7330,10 +7336,10 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I91" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:9">
@@ -7341,10 +7347,10 @@
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I92" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:9">
@@ -7352,10 +7358,10 @@
         <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I93" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:9">
@@ -7363,10 +7369,10 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I94" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -7403,7 +7409,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -7435,26 +7441,26 @@
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -7462,28 +7468,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -7491,10 +7497,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -7512,10 +7518,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -7533,10 +7539,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
@@ -7550,10 +7556,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -7567,10 +7573,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
@@ -7584,10 +7590,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
@@ -7601,10 +7607,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
@@ -7618,10 +7624,10 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
@@ -7635,10 +7641,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
@@ -7717,7 +7723,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -7749,12 +7755,12 @@
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="B7" s="5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>26</v>
@@ -7762,7 +7768,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:13">
       <c r="C9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -7773,19 +7779,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:13">
@@ -7793,19 +7799,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:13">
@@ -7813,19 +7819,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:13">
@@ -7833,19 +7839,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
@@ -7853,19 +7859,19 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -7873,10 +7879,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -7908,12 +7914,12 @@
   <sheetData>
     <row r="4" customHeight="1" spans="2:4">
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="2:4">
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
@@ -7921,10 +7927,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -7932,10 +7938,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -7943,10 +7949,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -7954,10 +7960,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -7965,10 +7971,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -7976,10 +7982,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -7987,10 +7993,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -7998,28 +8004,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -8027,19 +8033,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -8047,19 +8053,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D21" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -8067,19 +8073,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -8087,10 +8093,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -8099,10 +8105,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -8111,10 +8117,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -8123,10 +8129,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -8160,7 +8166,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8192,26 +8198,26 @@
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -8219,28 +8225,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -8248,28 +8254,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -8277,28 +8283,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -8306,28 +8312,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -8335,28 +8341,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -8364,44 +8370,44 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
       <c r="C16" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="C17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -8409,19 +8415,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -8429,19 +8435,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -8449,19 +8455,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I20" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -8469,19 +8475,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I21" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -8489,19 +8495,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -8509,34 +8515,34 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:9">
@@ -8545,10 +8551,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -8559,10 +8565,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -8571,10 +8577,10 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -8583,10 +8589,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -8595,10 +8601,10 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I32" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -8607,10 +8613,10 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I33" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -8619,10 +8625,10 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I34" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:9">
@@ -8640,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
@@ -8651,10 +8657,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
@@ -8662,10 +8668,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
@@ -8673,10 +8679,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D43" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
@@ -8684,10 +8690,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D44" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -8695,10 +8701,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D45" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -8706,10 +8712,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D46" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -8717,10 +8723,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D47" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -8728,10 +8734,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D48" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
@@ -8739,10 +8745,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D49" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
@@ -8750,10 +8756,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
@@ -8761,10 +8767,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D51" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
@@ -8772,26 +8778,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D52" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D59" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E59" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -8823,7 +8829,7 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -8858,7 +8864,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8885,12 +8891,12 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
@@ -8898,10 +8904,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -8909,10 +8915,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -8920,10 +8926,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -8931,10 +8937,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -8942,10 +8948,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D24" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -8953,10 +8959,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D25" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -8964,10 +8970,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D26" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -8975,10 +8981,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D27" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -8986,10 +8992,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D28" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -8997,10 +9003,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D29" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -9008,10 +9014,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D30" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -9019,10 +9025,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D31" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -9030,10 +9036,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D32" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -9041,10 +9047,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D33" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -9052,10 +9058,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D34" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -9063,20 +9069,20 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D35" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="C39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
@@ -9084,10 +9090,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -9095,10 +9101,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D41" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -9106,10 +9112,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D42" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -9117,10 +9123,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -9128,10 +9134,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D44" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -9139,10 +9145,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D45" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -9150,28 +9156,28 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D46" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
       <c r="C51" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
@@ -9179,19 +9185,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -9199,19 +9205,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -9219,19 +9225,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G54" s="3">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -9239,19 +9245,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G55" s="3">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -9259,19 +9265,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D56" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G56" s="3">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="I56" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -9279,19 +9285,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G57" s="3">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -9299,19 +9305,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D58" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G58" s="3">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I58" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -9319,19 +9325,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D59" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G59" s="3">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I59" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -9339,19 +9345,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G60" s="3">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -9359,19 +9365,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D61" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G61" s="3">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I61" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -9379,19 +9385,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D62" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G62" s="3">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I62" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -9399,19 +9405,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D63" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G63" s="3">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I63" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -9419,19 +9425,19 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D64" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G64" s="3">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I64" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -9439,19 +9445,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D65" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="G65" s="3">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I65" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -9459,19 +9465,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G66" s="3">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I66" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -9479,19 +9485,19 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D67" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G67" s="3">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I67" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
@@ -9499,19 +9505,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D68" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G68" s="3">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I68" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
@@ -9519,40 +9525,40 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D69" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G69" s="3">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="I69" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="B73" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="C75" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
       <c r="A80" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -9576,20 +9582,20 @@
     </row>
     <row r="84" customHeight="1" spans="1:9">
       <c r="C84" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
       <c r="C85" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:9">
@@ -9597,19 +9603,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:9">
@@ -9617,19 +9623,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:9">
@@ -9637,19 +9643,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G88" s="3">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:9">
@@ -9657,19 +9663,19 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G89" s="3">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
@@ -9677,19 +9683,19 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D90" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G90" s="3">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I90" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
@@ -9697,19 +9703,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D91" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G91" s="3">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I91" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
@@ -9717,19 +9723,19 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D92" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G92" s="3">
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I92" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
@@ -9737,19 +9743,19 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D93" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G93" s="3">
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I93" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
@@ -9757,19 +9763,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D94" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G94" s="3">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I94" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -9804,29 +9810,29 @@
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
@@ -9834,89 +9840,89 @@
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -9924,144 +9930,144 @@
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>19</v>
@@ -10069,17 +10075,17 @@
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>22</v>
@@ -10087,41 +10093,41 @@
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>25</v>
@@ -10129,163 +10135,163 @@
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>19</v>
@@ -10298,7 +10304,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448"/>
+    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$1:$K$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$1:$K$62</definedName>
     <definedName name="ods_akshare_stock_value_em">Takshare!$C$7</definedName>
     <definedName name="ods_akshare_stock_zh_a_gdhs_detail_em">Takshare!$H$7</definedName>
     <definedName name="ods_akshare_stock_cyq_em">Takshare!$M$7</definedName>
@@ -78,6 +78,13 @@
     <definedName name="ods_akshare_board_concept_name_ths" localSheetId="3">Tushare!#REF!</definedName>
     <definedName name="ods_akshare_stock_board_concept_index_ths" localSheetId="3">Tushare!#REF!</definedName>
     <definedName name="ods_stock_kline_daily_ts">Tushare!$C$7</definedName>
+    <definedName name="ods_akshare_stock_board_concept_maps_ths">Tcal!$C$27</definedName>
+    <definedName name="ods_tushare_board_concept_name_ths">Tushare!$C$31</definedName>
+    <definedName name="ods_tushare_stock_board_concept_hist_ths">Tushare!$H$31</definedName>
+    <definedName name="ods_tushare_stock_board_concept_maps_ths">Tushare!$M$31</definedName>
+    <definedName name="ods_tushare_stock_board_concept_name_em">Tushare!$C$51</definedName>
+    <definedName name="ods_tushare_stock_board_concept_hist_em">Tushare!$H$51</definedName>
+    <definedName name="ods_tushare_stock_board_concept_maps_em">Tushare!$M$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="724">
   <si>
     <t>序号</t>
   </si>
@@ -117,7 +124,7 @@
     <t>表中文名</t>
   </si>
   <si>
-    <t>更新频率</t>
+    <t>更新频率（灰：一次性；绿色：日跑17点；黄：日跑0点；蓝：周六0点；红：废弃）</t>
   </si>
   <si>
     <t>数据源表</t>
@@ -171,7 +178,7 @@
     <t>北向持仓数据</t>
   </si>
   <si>
-    <t>每日17点  更新至20251113</t>
+    <t>更新至20251113，接口暂废弃</t>
   </si>
   <si>
     <t>ods_stock_exchange_market</t>
@@ -189,7 +196,7 @@
     <t>股票基本面数据_资产数据</t>
   </si>
   <si>
-    <t>这个表需要从通达信手动下载更新，目前数据已清空</t>
+    <t>通达信手工下载，接口暂废弃</t>
   </si>
   <si>
     <t>akshare</t>
@@ -246,7 +253,7 @@
     <t>当日已上市股票的历史日K</t>
   </si>
   <si>
-    <t>每日17点  T-1  取消</t>
+    <t>每日17点  T-1  接口暂废弃</t>
   </si>
   <si>
     <t>ods_index_a_share_insight</t>
@@ -270,7 +277,7 @@
     <t>美股_日K</t>
   </si>
   <si>
-    <t>更新至 20241004</t>
+    <t>更新至 20241004，不执行</t>
   </si>
   <si>
     <t>ods_exchange_rate_vantage_detail</t>
@@ -285,142 +292,199 @@
     <t>美元指数 日K</t>
   </si>
   <si>
+    <t>目前为空，不执行</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_zh_a_spot_em</t>
+  </si>
+  <si>
+    <t>行情数据_个股行情数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_board_concept_name_em</t>
+  </si>
+  <si>
+    <t>行情数据_东财板块行情数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_board_concept_cons_em</t>
+  </si>
+  <si>
+    <t>行情数据_板块内个股的行情数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_board_concept_hist_em</t>
+  </si>
+  <si>
+    <t>行情数据_板块历史行情数据</t>
+  </si>
+  <si>
+    <t>ods_akshare_board_concept_name_ths</t>
+  </si>
+  <si>
+    <t>行情数据_同花顺板块码值</t>
+  </si>
+  <si>
+    <t>目前更新至20260127  可到T日</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_board_concept_index_ths</t>
+  </si>
+  <si>
+    <t>行情数据_同花顺板块行情数据</t>
+  </si>
+  <si>
+    <t>tushare</t>
+  </si>
+  <si>
+    <t>ods_stock_kline_daily_ts</t>
+  </si>
+  <si>
+    <t>行情数据_A股历史日K线的tushare数据</t>
+  </si>
+  <si>
+    <t>主行情数据来源，17点日跑</t>
+  </si>
+  <si>
+    <t>ods_tushare_board_concept_name_ths</t>
+  </si>
+  <si>
+    <t>同花顺板块码值</t>
+  </si>
+  <si>
+    <t>买token 临时跑一次</t>
+  </si>
+  <si>
+    <t>ods_tushare_stock_board_concept_hist_ths</t>
+  </si>
+  <si>
+    <t>同花顺板块历史行情数据</t>
+  </si>
+  <si>
+    <t>ods_tushare_stock_board_concept_maps_ths</t>
+  </si>
+  <si>
+    <t>同花顺板块内含股票（核心）</t>
+  </si>
+  <si>
+    <t>ods_tushare_stock_board_concept_name_em</t>
+  </si>
+  <si>
+    <t>东方财富概念板块行情数据</t>
+  </si>
+  <si>
+    <t>ods_tushare_stock_board_concept_hist_em</t>
+  </si>
+  <si>
+    <t>东方财富板块历史行情数据</t>
+  </si>
+  <si>
+    <t>ods_tushare_stock_board_concept_maps_em</t>
+  </si>
+  <si>
+    <t>东方财富板块内含股票</t>
+  </si>
+  <si>
+    <t>大盘情绪</t>
+  </si>
+  <si>
+    <t>ods_stock_limit_summary_insight</t>
+  </si>
+  <si>
+    <t>当日大A行情温度</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_a_high_low_statistics</t>
+  </si>
+  <si>
+    <t>大盘情绪数据_大盘区间内的新低新高股票数</t>
+  </si>
+  <si>
+    <t>目前更新至20260122，可日跑</t>
+  </si>
+  <si>
+    <t>行业标签</t>
+  </si>
+  <si>
+    <t>ods_astock_industry_overview</t>
+  </si>
+  <si>
+    <t>行业分类_申万三级分类</t>
+  </si>
+  <si>
+    <t>ods_astock_industry_detail</t>
+  </si>
+  <si>
+    <t>华泰股票行业明细</t>
+  </si>
+  <si>
+    <t>每周日  目前更新至T周，没问题</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_concept_plate</t>
+  </si>
+  <si>
+    <t>通达信概念板块数据</t>
+  </si>
+  <si>
+    <t>手动更新，目前跟新至 20250130</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_region_plate</t>
+  </si>
+  <si>
+    <t>通达信地区板块数据</t>
+  </si>
+  <si>
+    <t>dwd_stock_a_total_plate</t>
+  </si>
+  <si>
+    <t>汇总板块码表</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_industry_plate</t>
+  </si>
+  <si>
+    <t>通达信行业板块数据</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_style_plate</t>
+  </si>
+  <si>
+    <t>通达信风格板块数据</t>
+  </si>
+  <si>
+    <t>ods_tdx_stock_index_plate</t>
+  </si>
+  <si>
+    <t>通达信指数板块数据</t>
+  </si>
+  <si>
+    <t>THS</t>
+  </si>
+  <si>
+    <t>ods_akshare_stock_board_concept_maps_ths</t>
+  </si>
+  <si>
+    <t>行情数据_同花顺板块内含股票</t>
+  </si>
+  <si>
+    <t>周末手动更新 爬虫</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>ods_stock_plate_redbook</t>
+  </si>
+  <si>
+    <t>板块数据_小红书板块数据</t>
+  </si>
+  <si>
     <t>目前为空</t>
   </si>
   <si>
-    <t>ods_akshare_stock_zh_a_spot_em</t>
-  </si>
-  <si>
-    <t>行情数据_个股行情数据</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_board_concept_name_em</t>
-  </si>
-  <si>
-    <t>行情数据_东财板块行情数据</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_board_concept_cons_em</t>
-  </si>
-  <si>
-    <t>行情数据_板块内个股的行情数据</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_board_concept_hist_em</t>
-  </si>
-  <si>
-    <t>行情数据_板块历史行情数据</t>
-  </si>
-  <si>
-    <t>ods_akshare_board_concept_name_ths</t>
-  </si>
-  <si>
-    <t>行情数据_同花顺板块码值</t>
-  </si>
-  <si>
-    <t>目前更新至20260127  可到T日</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_board_concept_index_ths</t>
-  </si>
-  <si>
-    <t>行情数据_同花顺板块行情数据</t>
-  </si>
-  <si>
-    <t>tushare</t>
-  </si>
-  <si>
-    <t>ods_stock_kline_daily_ts</t>
-  </si>
-  <si>
-    <t>行情数据_A股历史日K线的tushare数据</t>
-  </si>
-  <si>
-    <t>主行情数据来源，17点日跑</t>
-  </si>
-  <si>
-    <t>大盘情绪</t>
-  </si>
-  <si>
-    <t>ods_stock_limit_summary_insight</t>
-  </si>
-  <si>
-    <t>当日大A行情温度</t>
-  </si>
-  <si>
-    <t>ods_akshare_stock_a_high_low_statistics</t>
-  </si>
-  <si>
-    <t>大盘情绪数据_大盘区间内的新低新高股票数</t>
-  </si>
-  <si>
-    <t>目前更新至20260122，可日跑</t>
-  </si>
-  <si>
-    <t>行业标签</t>
-  </si>
-  <si>
-    <t>ods_astock_industry_overview</t>
-  </si>
-  <si>
-    <t>行业分类_申万三级分类</t>
-  </si>
-  <si>
-    <t>ods_astock_industry_detail</t>
-  </si>
-  <si>
-    <t>华泰股票行业明细</t>
-  </si>
-  <si>
-    <t>每周日  目前更新至T周，没问题</t>
-  </si>
-  <si>
-    <t>ods_tdx_stock_concept_plate</t>
-  </si>
-  <si>
-    <t>通达信概念板块数据</t>
-  </si>
-  <si>
-    <t>手动更新，目前跟新至 20250130</t>
-  </si>
-  <si>
-    <t>ods_tdx_stock_region_plate</t>
-  </si>
-  <si>
-    <t>通达信地区板块数据</t>
-  </si>
-  <si>
-    <t>dwd_stock_a_total_plate</t>
-  </si>
-  <si>
-    <t>汇总板块码表</t>
-  </si>
-  <si>
-    <t>ods_tdx_stock_industry_plate</t>
-  </si>
-  <si>
-    <t>通达信行业板块数据</t>
-  </si>
-  <si>
-    <t>ods_tdx_stock_style_plate</t>
-  </si>
-  <si>
-    <t>通达信风格板块数据</t>
-  </si>
-  <si>
-    <t>ods_tdx_stock_index_plate</t>
-  </si>
-  <si>
-    <t>通达信指数板块数据</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>ods_stock_plate_redbook</t>
-  </si>
-  <si>
-    <t>板块数据_小红书板块数据</t>
+    <t>DWD 层</t>
   </si>
   <si>
     <t>DWD</t>
@@ -468,6 +532,9 @@
     <t>跌停股票清单</t>
   </si>
   <si>
+    <t>DMART 层</t>
+  </si>
+  <si>
     <t>DMART</t>
   </si>
   <si>
@@ -1528,6 +1595,117 @@
     <t>volume</t>
   </si>
   <si>
+    <t>买token 偶尔跑一次</t>
+  </si>
+  <si>
+    <t>component_count</t>
+  </si>
+  <si>
+    <t>成分个数</t>
+  </si>
+  <si>
+    <t>开盘点位</t>
+  </si>
+  <si>
+    <t>最高点位</t>
+  </si>
+  <si>
+    <t>list_date</t>
+  </si>
+  <si>
+    <t>上市日期</t>
+  </si>
+  <si>
+    <t>最低点位</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>index_type</t>
+  </si>
+  <si>
+    <t>指数类型</t>
+  </si>
+  <si>
+    <t>收盘点位</t>
+  </si>
+  <si>
+    <t>in_date</t>
+  </si>
+  <si>
+    <t>纳入日期</t>
+  </si>
+  <si>
+    <t>昨日收盘点</t>
+  </si>
+  <si>
+    <t>out_date</t>
+  </si>
+  <si>
+    <t>剔除日期</t>
+  </si>
+  <si>
+    <t>avg_price</t>
+  </si>
+  <si>
+    <t>平均价</t>
+  </si>
+  <si>
+    <t>is_new</t>
+  </si>
+  <si>
+    <t>是否最新(Y/N)</t>
+  </si>
+  <si>
+    <t>涨跌点位</t>
+  </si>
+  <si>
+    <t>total_market_value</t>
+  </si>
+  <si>
+    <t>float_market_value</t>
+  </si>
+  <si>
+    <t>流通市值</t>
+  </si>
+  <si>
+    <t>领涨股票名称</t>
+  </si>
+  <si>
+    <t>成分股票代码</t>
+  </si>
+  <si>
+    <t>leading_stock_code</t>
+  </si>
+  <si>
+    <t>领涨股票代码</t>
+  </si>
+  <si>
+    <t>成分股名称</t>
+  </si>
+  <si>
+    <t>领涨股票涨跌幅(%)</t>
+  </si>
+  <si>
+    <t>总市值（万元）</t>
+  </si>
+  <si>
+    <t>成交量(股)</t>
+  </si>
+  <si>
+    <t>下降家数</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>板块类型</t>
+  </si>
+  <si>
     <t>计算数据</t>
   </si>
   <si>
@@ -1550,6 +1728,12 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>爬虫数据</t>
+  </si>
+  <si>
+    <t>手动爬虫有望升级为周跑</t>
   </si>
   <si>
     <t xml:space="preserve">name  </t>
@@ -2246,6 +2430,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2394,16 +2586,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2442,6 +2626,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2449,6 +2639,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,16 +2955,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2777,58 +2970,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2837,22 +3027,22 @@
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2861,10 +3051,10 @@
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2873,10 +3063,10 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2885,11 +3075,17 @@
     <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2944,10 +3140,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2956,11 +3152,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3029,13 +3237,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>572135</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1691005</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -3045,8 +3253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13933170" y="8901430"/>
-          <a:ext cx="1118870" cy="1765935"/>
+          <a:off x="14270990" y="10421620"/>
+          <a:ext cx="1118870" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -3330,12 +3538,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3344,7 +3552,7 @@
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="12.1111111111111" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.1759259259259" customWidth="1"/>
-    <col min="5" max="5" width="43.0925925925926" customWidth="1"/>
+    <col min="5" max="5" width="48.0185185185185" customWidth="1"/>
     <col min="6" max="6" width="35.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="31.8888888888889" customWidth="1"/>
     <col min="8" max="8" width="33.1111111111111" customWidth="1"/>
@@ -3544,6 +3752,9 @@
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3564,6 +3775,9 @@
       </c>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3579,11 +3793,14 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3599,11 +3816,14 @@
       <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
@@ -3624,6 +3844,9 @@
       </c>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3652,7 +3875,7 @@
     <row r="16" ht="19.95" customHeight="1"/>
     <row r="17" ht="19.95" customHeight="1" spans="1:7">
       <c r="A17" s="13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>8</v>
@@ -3675,7 +3898,7 @@
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:7">
       <c r="A18" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
@@ -3698,7 +3921,7 @@
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="1:7">
       <c r="A19" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>8</v>
@@ -3721,7 +3944,7 @@
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:7">
       <c r="A20" s="13">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>8</v>
@@ -3743,6 +3966,9 @@
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A21" s="13">
+        <v>5</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
@@ -3763,6 +3989,9 @@
       </c>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A22" s="13">
+        <v>6</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
@@ -3783,6 +4012,9 @@
       </c>
     </row>
     <row r="23" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A23" s="13">
+        <v>7</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
@@ -3798,11 +4030,14 @@
       <c r="F23" t="s">
         <v>64</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A24" s="13">
+        <v>8</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
@@ -3818,11 +4053,14 @@
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A25" s="13">
+        <v>9</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
@@ -3838,11 +4076,14 @@
       <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A26" s="13">
+        <v>10</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
@@ -3858,11 +4099,14 @@
       <c r="F26" t="s">
         <v>70</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A27" s="13">
+        <v>11</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
@@ -3883,6 +4127,9 @@
       </c>
     </row>
     <row r="28" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A28" s="13">
+        <v>12</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
@@ -3903,6 +4150,9 @@
       </c>
     </row>
     <row r="29" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A29" s="13">
+        <v>13</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>8</v>
       </c>
@@ -3922,382 +4172,564 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" ht="19.95" customHeight="1"/>
-    <row r="31" ht="19.95" customHeight="1"/>
+    <row r="30" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A30" s="13">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" ht="19.95" customHeight="1" spans="1:7">
+      <c r="A31" s="13">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="32" ht="19.95" customHeight="1" spans="1:7">
       <c r="A32" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="18" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="33" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A33" s="13">
+        <v>17</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" ht="19.95" customHeight="1"/>
-    <row r="35" ht="19.95" customHeight="1"/>
-    <row r="36" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A36" s="13">
-        <v>13</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A34" s="13">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A37" s="13">
-        <v>14</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="C34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A35" s="13">
+        <v>19</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="18" t="s">
+      <c r="C35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>91</v>
       </c>
-    </row>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" ht="19.95" customHeight="1"/>
+    <row r="37" ht="19.95" customHeight="1"/>
     <row r="38" ht="19.95" customHeight="1" spans="1:12">
       <c r="A38" s="13">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="G38" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="19.95" customHeight="1" spans="1:12">
       <c r="A39" s="13">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="K39" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="L39" t="s">
+      <c r="G39" s="18" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A40" s="13">
-        <v>17</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A41" s="13">
-        <v>18</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
+    <row r="40" ht="19.95" customHeight="1"/>
+    <row r="41" ht="19.95" customHeight="1"/>
     <row r="42" ht="19.95" customHeight="1" spans="1:12">
       <c r="A42" s="13">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A43" s="13">
+        <v>2</v>
+      </c>
       <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A44" s="13">
+        <v>3</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="F44" t="s">
         <v>106</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G44" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" ht="19.95" customHeight="1"/>
-    <row r="45" ht="19.95" customHeight="1"/>
-    <row r="46" ht="19.95" customHeight="1"/>
-    <row r="47" ht="105" customHeight="1" spans="1:12">
+    </row>
+    <row r="45" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A45" s="13">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" ht="19.95" customHeight="1" spans="1:12">
+      <c r="A46" s="13">
+        <v>5</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" ht="19.95" customHeight="1" spans="1:12">
       <c r="A47" s="13">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" ht="67" customHeight="1" spans="1:12">
+        <v>115</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" ht="19.95" customHeight="1" spans="1:12">
       <c r="A48" s="13">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="E48" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A49" s="13">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A50" s="13">
         <v>9</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" s="23" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" ht="40" customHeight="1" spans="1:8">
-      <c r="A49" s="13">
-        <v>28</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H49" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" ht="42" customHeight="1" spans="1:8">
-      <c r="A50" s="13">
-        <v>29</v>
-      </c>
       <c r="B50" s="3" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>46</v>
+        <v>99</v>
+      </c>
+      <c r="D50" t="s">
+        <v>122</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F50" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H50" s="23" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51" ht="19.95" customHeight="1"/>
     <row r="52" ht="19.95" customHeight="1"/>
-    <row r="53" ht="19.95" customHeight="1"/>
-    <row r="54" ht="39" customHeight="1" spans="1:8">
+    <row r="53" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A53" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+    </row>
+    <row r="54" ht="105" customHeight="1" spans="1:8">
+      <c r="A54" s="13">
+        <v>26</v>
+      </c>
       <c r="B54" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H54" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" ht="67" customHeight="1" spans="1:8">
+      <c r="A55" s="13">
+        <v>27</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" ht="40" customHeight="1" spans="1:8">
+      <c r="A56" s="13">
+        <v>28</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F54" t="s">
-        <v>122</v>
-      </c>
-      <c r="G54" t="s">
-        <v>123</v>
-      </c>
-      <c r="H54" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" ht="30" customHeight="1" spans="1:8">
-      <c r="B55" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="E56" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" ht="42" customHeight="1" spans="1:8">
+      <c r="A57" s="13">
+        <v>29</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H55" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" ht="19.95" customHeight="1"/>
-    <row r="57" ht="19.95" customHeight="1"/>
+      <c r="C57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
     <row r="58" ht="19.95" customHeight="1"/>
     <row r="59" ht="19.95" customHeight="1"/>
-    <row r="60" ht="19.95" customHeight="1"/>
-    <row r="61" ht="19.95" customHeight="1"/>
-    <row r="62" ht="19.95" customHeight="1"/>
+    <row r="60" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A60" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" ht="39" customHeight="1" spans="1:8">
+      <c r="B61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" ht="30" customHeight="1" spans="1:8">
+      <c r="B62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F62" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" t="s">
+        <v>147</v>
+      </c>
+      <c r="H62" t="s">
+        <v>141</v>
+      </c>
+    </row>
     <row r="63" ht="19.95" customHeight="1"/>
     <row r="64" ht="19.95" customHeight="1"/>
     <row r="65" ht="19.95" customHeight="1"/>
@@ -4317,17 +4749,28 @@
     <row r="79" ht="19.95" customHeight="1"/>
     <row r="80" ht="19.95" customHeight="1"/>
     <row r="81" ht="19.95" customHeight="1"/>
+    <row r="82" ht="19.95" customHeight="1"/>
+    <row r="83" ht="19.95" customHeight="1"/>
+    <row r="84" ht="19.95" customHeight="1"/>
+    <row r="85" ht="19.95" customHeight="1"/>
+    <row r="86" ht="19.95" customHeight="1"/>
+    <row r="87" ht="19.95" customHeight="1"/>
+    <row r="88" ht="19.95" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K43" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K62" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A60:H60"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" location="ods_akshare_stock_value_em" display="ods_akshare_stock_value_em"/>
     <hyperlink ref="E10" location="ods_akshare_stock_zh_a_gdhs_detail_em" display="ods_akshare_stock_zh_a_gdhs_detail_em"/>
     <hyperlink ref="E11" location="ods_akshare_stock_cyq_em" display="ods_akshare_stock_cyq_em"/>
     <hyperlink ref="E12" location="ods_akshare_stock_yjkb_em" display="ods_akshare_stock_yjkb_em"/>
     <hyperlink ref="E13" location="ods_akshare_stock_yjyg_em" display="ods_akshare_stock_yjyg_em"/>
-    <hyperlink ref="E33" location="ods_akshare_stock_a_high_low_statistics" display="ods_akshare_stock_a_high_low_statistics"/>
+    <hyperlink ref="E39" location="ods_akshare_stock_a_high_low_statistics" display="ods_akshare_stock_a_high_low_statistics"/>
     <hyperlink ref="E2" location="ods_trading_days_insight" display="ods_trading_days_insight"/>
     <hyperlink ref="E3" location="ods_stock_code_daily_insight" display="ods_stock_code_daily_insight"/>
     <hyperlink ref="E4" location="ods_stock_chouma_insight" display="ods_stock_chouma_insight"/>
@@ -4342,29 +4785,36 @@
     <hyperlink ref="E21" location="ods_exchange_rate_vantage_detail" display="ods_exchange_rate_vantage_detail"/>
     <hyperlink ref="E22" location="ods_exchange_dxy_vantage" display="ods_exchange_dxy_vantage"/>
     <hyperlink ref="E23" location="ods_akshare_stock_zh_a_spot_em" display="ods_akshare_stock_zh_a_spot_em"/>
-    <hyperlink ref="E32" location="ods_stock_limit_summary_insight" display="ods_stock_limit_summary_insight"/>
-    <hyperlink ref="E36" location="ods_astock_industry_overview" display="ods_astock_industry_overview"/>
-    <hyperlink ref="E37" location="ods_astock_industry_detail" display="ods_astock_industry_detail"/>
-    <hyperlink ref="E38" location="ods_tdx_stock_concept_plate" display="ods_tdx_stock_concept_plate"/>
-    <hyperlink ref="E39" location="ods_tdx_stock_region_plate" display="ods_tdx_stock_region_plate"/>
-    <hyperlink ref="E40" location="ods_tdx_stock_industry_plate" display="ods_tdx_stock_industry_plate"/>
-    <hyperlink ref="E41" location="ods_tdx_stock_style_plate" display="ods_tdx_stock_style_plate"/>
-    <hyperlink ref="E42" location="ods_tdx_stock_index_plate" display="ods_tdx_stock_index_plate"/>
-    <hyperlink ref="E43" location="ods_stock_plate_redbook" display="ods_stock_plate_redbook"/>
-    <hyperlink ref="E47" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
-    <hyperlink ref="E48" location="dwd_ashare_stock_base_info" display="dwd_ashare_stock_base_info"/>
-    <hyperlink ref="E49" location="dwd_stock_ZT_list" display="dwd_stock_ZT_list"/>
-    <hyperlink ref="E50" location="dwd_stock_DT_list" display="dwd_stock_DT_list"/>
-    <hyperlink ref="E54" location="dmart_stock_zt_details" display="dmart_stock_zt_details"/>
-    <hyperlink ref="E55" location="dmart_stock_zt_details_expanded" display="dmart_stock_zt_details_expanded"/>
+    <hyperlink ref="E38" location="ods_stock_limit_summary_insight" display="ods_stock_limit_summary_insight"/>
+    <hyperlink ref="E42" location="ods_astock_industry_overview" display="ods_astock_industry_overview"/>
+    <hyperlink ref="E43" location="ods_astock_industry_detail" display="ods_astock_industry_detail"/>
+    <hyperlink ref="E44" location="ods_tdx_stock_concept_plate" display="ods_tdx_stock_concept_plate"/>
+    <hyperlink ref="E45" location="ods_tdx_stock_region_plate" display="ods_tdx_stock_region_plate"/>
+    <hyperlink ref="E46" location="ods_tdx_stock_industry_plate" display="ods_tdx_stock_industry_plate"/>
+    <hyperlink ref="E47" location="ods_tdx_stock_style_plate" display="ods_tdx_stock_style_plate"/>
+    <hyperlink ref="E48" location="ods_tdx_stock_index_plate" display="ods_tdx_stock_index_plate"/>
+    <hyperlink ref="E50" location="ods_stock_plate_redbook" display="ods_stock_plate_redbook"/>
+    <hyperlink ref="E54" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
+    <hyperlink ref="E55" location="dwd_ashare_stock_base_info" display="dwd_ashare_stock_base_info"/>
+    <hyperlink ref="E56" location="dwd_stock_ZT_list" display="dwd_stock_ZT_list"/>
+    <hyperlink ref="E57" location="dwd_stock_DT_list" display="dwd_stock_DT_list"/>
+    <hyperlink ref="E61" location="dmart_stock_zt_details" display="dmart_stock_zt_details"/>
+    <hyperlink ref="E62" location="dmart_stock_zt_details_expanded" display="dmart_stock_zt_details_expanded"/>
     <hyperlink ref="H7" location="ods_stock_code_daily_insight" display="ods_stock_code_daily_insight"/>
-    <hyperlink ref="K39" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
+    <hyperlink ref="K45" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
     <hyperlink ref="E24" location="ods_akshare_stock_board_concept_name_em" display="ods_akshare_stock_board_concept_name_em"/>
     <hyperlink ref="E25" location="ods_akshare_stock_board_concept_cons_em" display="ods_akshare_stock_board_concept_cons_em"/>
     <hyperlink ref="E26" location="ods_akshare_stock_board_concept_hist_em" display="ods_akshare_stock_board_concept_hist_em"/>
     <hyperlink ref="E27" location="ods_akshare_board_concept_name_ths" display="ods_akshare_board_concept_name_ths"/>
     <hyperlink ref="E28" location="ods_akshare_stock_board_concept_index_ths" display="ods_akshare_stock_board_concept_index_ths"/>
     <hyperlink ref="E29" location="ods_stock_kline_daily_ts" display="ods_stock_kline_daily_ts"/>
+    <hyperlink ref="E49" location="ods_akshare_stock_board_concept_maps_ths" display="ods_akshare_stock_board_concept_maps_ths"/>
+    <hyperlink ref="E30" location="ods_tushare_board_concept_name_ths" display="ods_tushare_board_concept_name_ths"/>
+    <hyperlink ref="E31" location="ods_tushare_stock_board_concept_hist_ths" display="ods_tushare_stock_board_concept_hist_ths"/>
+    <hyperlink ref="E32" location="ods_tushare_stock_board_concept_maps_ths" display="ods_tushare_stock_board_concept_maps_ths"/>
+    <hyperlink ref="E33" location="ods_tushare_stock_board_concept_name_em" display="ods_tushare_stock_board_concept_name_em"/>
+    <hyperlink ref="E34" location="ods_tushare_stock_board_concept_hist_em" display="ods_tushare_stock_board_concept_hist_em"/>
+    <hyperlink ref="E35" location="ods_tushare_stock_board_concept_maps_em" display="ods_tushare_stock_board_concept_maps_em"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4418,19 +4868,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
@@ -4438,19 +4888,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -4458,19 +4908,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -4478,10 +4928,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -4490,10 +4940,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -4505,7 +4955,7 @@
         <v>51</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
@@ -4516,7 +4966,7 @@
         <v>50</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -4524,28 +4974,28 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
@@ -4553,28 +5003,28 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
@@ -4582,28 +5032,28 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="K17" s="3">
         <v>2</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -4611,28 +5061,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="K18" s="3">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -4640,28 +5090,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="K19" s="3">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="M19" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -4669,28 +5119,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="K20" s="3">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -4698,28 +5148,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F21" s="3">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="H21" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K21" s="3">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -4727,28 +5177,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="F22" s="3">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K22" s="3">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -4756,19 +5206,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="F23" s="3">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
@@ -4779,10 +5229,10 @@
         <v>18</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:18">
@@ -4793,10 +5243,10 @@
         <v>17</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
@@ -4804,37 +5254,37 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
@@ -4842,37 +5292,37 @@
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="H30" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M30" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="P30" s="3">
         <v>1</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="R30" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
@@ -4880,37 +5330,37 @@
         <v>2</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H31" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="K31" s="3">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M31" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="P31" s="3">
         <v>2</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="R31" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -4918,37 +5368,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H32" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="K32" s="3">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M32" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="P32" s="3">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="R32" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -4956,37 +5406,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="H33" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="K33" s="3">
         <v>4</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="M33" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="P33" s="3">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="R33" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -4994,37 +5444,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="H34" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="K34" s="3">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="M34" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="P34" s="3">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="R34" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -5032,37 +5482,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C35" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F35" s="3">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="H35" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="K35" s="3">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M35" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="P35" s="3">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="R35" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -5070,37 +5520,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="F36" s="3">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="H36" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="K36" s="3">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M36" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="P36" s="3">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="R36" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -5108,34 +5558,34 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="F37" s="3">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="H37" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="K37" s="3">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="P37" s="3">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="R37" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -5143,34 +5593,34 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F38" s="3">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="H38" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="K38" s="3">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="M38" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="P38" s="3">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="R38" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -5178,28 +5628,28 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="H39" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="K39" s="3">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="M39" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="P39" s="3">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="R39" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
@@ -5210,19 +5660,19 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="H40" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="P40" s="3">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="R40" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
@@ -5233,10 +5683,10 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="H41" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
@@ -5244,19 +5694,19 @@
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F42" s="3">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="H42" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
@@ -5264,19 +5714,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F43" s="3">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -5284,19 +5734,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F44" s="3">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="H44" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
@@ -5304,19 +5754,19 @@
         <v>3</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="H45" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -5324,19 +5774,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C46" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="F46" s="3">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -5344,19 +5794,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="F47" s="3">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="H47" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -5364,19 +5814,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C48" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="F48" s="3">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="H48" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -5384,19 +5834,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="F49" s="3">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="H49" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -5404,10 +5854,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="H50" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -5415,10 +5865,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="H51" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -5426,10 +5876,10 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="H52" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
@@ -5440,10 +5890,10 @@
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="H53" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
@@ -5454,10 +5904,10 @@
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H54" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
@@ -5465,19 +5915,19 @@
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="F55" s="3">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="H55" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
@@ -5485,19 +5935,19 @@
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F56" s="3">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="H56" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
@@ -5505,10 +5955,10 @@
         <v>2</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="F57" s="3"/>
     </row>
@@ -5517,10 +5967,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C58" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3"/>
     </row>
@@ -5529,10 +5979,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C59" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="F59" s="3"/>
     </row>
@@ -5571,7 +6021,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -5630,28 +6080,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -5659,28 +6109,28 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -5688,28 +6138,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -5717,28 +6167,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D11" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="I11" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="N11" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -5746,28 +6196,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="I12" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="N12" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -5775,28 +6225,28 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="I13" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="N13" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:14">
@@ -5804,28 +6254,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="L14" s="3">
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="N14" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:14">
@@ -5833,28 +6283,28 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="I15" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="L15" s="3">
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="N15" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
@@ -5862,28 +6312,28 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="I16" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="L16" s="3">
         <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="N16" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:14">
@@ -5891,28 +6341,28 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D17" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="I17" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="L17" s="3">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="N17" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:14">
@@ -5920,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D18" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="G18" s="3">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="I18" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="L18" s="3">
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="N18" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:14">
@@ -5949,28 +6399,28 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D19" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G19" s="3">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="I19" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="L19" s="3">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="N19" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:14">
@@ -5978,19 +6428,19 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="D20" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="G20" s="3">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="I20" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:14">
@@ -5998,19 +6448,19 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="G21" s="3">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="I21" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:14">
@@ -6018,19 +6468,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="G22" s="3">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="I22" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:14">
@@ -6038,10 +6488,10 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I23" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:14">
@@ -6052,7 +6502,7 @@
         <v>45</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:14">
@@ -6063,7 +6513,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:14">
@@ -6071,28 +6521,28 @@
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:14">
@@ -6100,28 +6550,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="L29" s="3">
         <v>1</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:14">
@@ -6129,7 +6579,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -6138,7 +6588,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -6147,10 +6597,10 @@
         <v>2</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:14">
@@ -6158,28 +6608,28 @@
         <v>3</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L31" s="3">
         <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="N31" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:14">
@@ -6187,28 +6637,28 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D32" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="I32" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="L32" s="3">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="N32" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:14">
@@ -6216,28 +6666,28 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="D33" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G33" s="3">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="I33" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="L33" s="3">
         <v>5</v>
       </c>
       <c r="M33" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="N33" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:14">
@@ -6245,28 +6695,28 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="D34" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="G34" s="3">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I34" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="L34" s="3">
         <v>6</v>
       </c>
       <c r="M34" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="N34" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:14">
@@ -6274,28 +6724,28 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D35" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="G35" s="3">
         <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="I35" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="L35" s="3">
         <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="N35" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:14">
@@ -6303,28 +6753,28 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="D36" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="G36" s="3">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="I36" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="L36" s="3">
         <v>8</v>
       </c>
       <c r="M36" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="N36" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:14">
@@ -6332,28 +6782,28 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="D37" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="G37" s="3">
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="I37" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="L37" s="3">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="N37" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:14">
@@ -6361,19 +6811,19 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="D38" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="G38" s="3">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="I38" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:14">
@@ -6381,19 +6831,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="D39" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G39" s="3">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="I39" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:14">
@@ -6401,10 +6851,10 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="D40" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:14">
@@ -6412,10 +6862,10 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="D41" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:14">
@@ -6423,10 +6873,10 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="D42" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:14">
@@ -6434,10 +6884,10 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D43" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:14">
@@ -6445,10 +6895,10 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="D44" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:14">
@@ -6456,10 +6906,10 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="D45" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:14">
@@ -6467,15 +6917,15 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="D46" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:20">
       <c r="B51" s="5" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:20">
@@ -6515,37 +6965,37 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:20">
@@ -6553,37 +7003,37 @@
         <v>1</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="L55" s="3">
         <v>1</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="R55" s="3">
         <v>1</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:20">
@@ -6591,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -6600,28 +7050,28 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="I56" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="L56" s="3">
         <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="N56" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="R56" s="3">
         <v>2</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:20">
@@ -6629,37 +7079,37 @@
         <v>3</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="G57" s="3">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="I57" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="L57" s="3">
         <v>3</v>
       </c>
       <c r="M57" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="N57" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
       </c>
       <c r="S57" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="T57" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:20">
@@ -6667,25 +7117,25 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D58" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="G58" s="3">
         <v>4</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="L58" s="3">
         <v>4</v>
       </c>
       <c r="M58" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="N58" t="s">
         <v>0</v>
@@ -6694,10 +7144,10 @@
         <v>4</v>
       </c>
       <c r="S58" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="T58" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:20">
@@ -6705,37 +7155,37 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D59" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="G59" s="3">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I59" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="L59" s="3">
         <v>5</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="R59" s="3">
         <v>5</v>
       </c>
       <c r="S59" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="T59" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:20">
@@ -6743,37 +7193,37 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D60" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="G60" s="3">
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="I60" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="L60" s="3">
         <v>6</v>
       </c>
       <c r="M60" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="N60" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="R60" s="3">
         <v>6</v>
       </c>
       <c r="S60" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="T60" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:20">
@@ -6781,37 +7231,37 @@
         <v>7</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="D61" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="G61" s="3">
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="I61" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="L61" s="3">
         <v>7</v>
       </c>
       <c r="M61" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="N61" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="R61" s="3">
         <v>7</v>
       </c>
       <c r="S61" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="T61" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:20">
@@ -6819,37 +7269,37 @@
         <v>8</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="D62" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="G62" s="3">
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="I62" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="L62" s="3">
         <v>8</v>
       </c>
       <c r="M62" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="N62" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="R62" s="3">
         <v>8</v>
       </c>
       <c r="S62" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="T62" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:20">
@@ -6857,37 +7307,37 @@
         <v>9</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="D63" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="G63" s="3">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="I63" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="L63" s="3">
         <v>9</v>
       </c>
       <c r="M63" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="N63" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="R63" s="3">
         <v>9</v>
       </c>
       <c r="S63" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="T63" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:20">
@@ -6895,37 +7345,37 @@
         <v>10</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="D64" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="G64" s="3">
         <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="I64" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="L64" s="3">
         <v>10</v>
       </c>
       <c r="M64" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="N64" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="R64" s="3">
         <v>10</v>
       </c>
       <c r="S64" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="T64" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:20">
@@ -6933,37 +7383,37 @@
         <v>11</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="G65" s="3">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="I65" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="L65" s="3">
         <v>11</v>
       </c>
       <c r="M65" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="N65" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="R65" s="3">
         <v>11</v>
       </c>
       <c r="S65" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="T65" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:20">
@@ -6971,37 +7421,37 @@
         <v>12</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="D66" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="G66" s="3">
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="I66" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="L66" s="3">
         <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="N66" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="R66" s="3">
         <v>12</v>
       </c>
       <c r="S66" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="T66" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:20">
@@ -7009,28 +7459,28 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D67" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="G67" s="3">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="I67" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="L67" s="3">
         <v>13</v>
       </c>
       <c r="M67" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="N67" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:20">
@@ -7038,19 +7488,19 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="D68" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="L68" s="3">
         <v>14</v>
       </c>
       <c r="M68" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="N68" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:20">
@@ -7058,19 +7508,19 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="D69" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="L69" s="3">
         <v>15</v>
       </c>
       <c r="M69" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="N69" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:20">
@@ -7078,19 +7528,19 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="D70" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="L70" s="3">
         <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="N70" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:20">
@@ -7098,19 +7548,19 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="D71" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="L71" s="3">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="N71" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:20">
@@ -7118,19 +7568,19 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D72" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="L72" s="3">
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="N72" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:20">
@@ -7138,19 +7588,19 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="D73" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="L73" s="3">
         <v>19</v>
       </c>
       <c r="M73" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="N73" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:20">
@@ -7158,10 +7608,10 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="D74" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:20">
@@ -7169,10 +7619,10 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="D75" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:20">
@@ -7180,10 +7630,10 @@
         <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="D76" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:20">
@@ -7191,10 +7641,10 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="D77" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:20">
@@ -7202,15 +7652,15 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="D78" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:9">
       <c r="B82" s="5" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:9">
@@ -7234,19 +7684,19 @@
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:9">
@@ -7254,19 +7704,19 @@
         <v>1</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:9">
@@ -7274,19 +7724,19 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="D87" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G87" s="3">
         <v>2</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:9">
@@ -7294,19 +7744,19 @@
         <v>3</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="G88" s="3">
         <v>3</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:9">
@@ -7314,10 +7764,10 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I89" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:9">
@@ -7325,10 +7775,10 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="I90" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="2:9">
@@ -7336,10 +7786,10 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="I91" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:9">
@@ -7347,10 +7797,10 @@
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I92" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:9">
@@ -7358,10 +7808,10 @@
         <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="I93" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:9">
@@ -7369,10 +7819,10 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="I94" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -7387,10 +7837,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N23"/>
+  <dimension ref="A3:O66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -7409,7 +7859,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -7444,11 +7894,11 @@
         <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="1" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
@@ -7456,11 +7906,11 @@
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -7468,28 +7918,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -7497,10 +7947,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -7518,10 +7968,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
@@ -7539,10 +7989,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D11" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
@@ -7556,10 +8006,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -7573,10 +8023,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
@@ -7590,10 +8040,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
@@ -7607,10 +8057,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
@@ -7624,10 +8074,10 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D16" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
@@ -7636,15 +8086,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="2:12">
+    <row r="17" customHeight="1" spans="1:14">
       <c r="B17" s="3">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="D17" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
@@ -7653,7 +8103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:12">
+    <row r="18" customHeight="1" spans="1:14">
       <c r="G18" s="3">
         <v>10</v>
       </c>
@@ -7661,7 +8111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="2:12">
+    <row r="19" customHeight="1" spans="1:14">
       <c r="G19" s="3">
         <v>11</v>
       </c>
@@ -7669,29 +8119,779 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="2:12">
+    <row r="20" customHeight="1" spans="1:14">
       <c r="G20" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="2:12">
+    <row r="21" customHeight="1" spans="1:14">
       <c r="G21" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="2:12">
+    <row r="22" customHeight="1" spans="1:14">
       <c r="G22" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="2:12">
+    <row r="23" customHeight="1" spans="1:14">
       <c r="G23" s="3">
         <v>15</v>
       </c>
     </row>
+    <row r="26" customHeight="1" spans="1:14">
+      <c r="A26" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:14">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:14">
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:14">
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:14">
+      <c r="B32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:14">
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:14">
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>439</v>
+      </c>
+      <c r="D34" t="s">
+        <v>440</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>439</v>
+      </c>
+      <c r="I34" t="s">
+        <v>440</v>
+      </c>
+      <c r="L34" s="3">
+        <v>2</v>
+      </c>
+      <c r="M34" t="s">
+        <v>439</v>
+      </c>
+      <c r="N34" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:14">
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="L35" s="3">
+        <v>3</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:14">
+      <c r="B36" s="3">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" t="s">
+        <v>495</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>445</v>
+      </c>
+      <c r="I36" t="s">
+        <v>496</v>
+      </c>
+      <c r="L36" s="3">
+        <v>4</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="2:14">
+      <c r="B37" s="3">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>450</v>
+      </c>
+      <c r="I37" t="s">
+        <v>497</v>
+      </c>
+      <c r="L37" s="3">
+        <v>5</v>
+      </c>
+      <c r="M37" t="s">
+        <v>311</v>
+      </c>
+      <c r="N37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="2:14">
+      <c r="B38" s="3">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>498</v>
+      </c>
+      <c r="D38" t="s">
+        <v>499</v>
+      </c>
+      <c r="G38" s="3">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>455</v>
+      </c>
+      <c r="I38" t="s">
+        <v>500</v>
+      </c>
+      <c r="L38" s="3">
+        <v>6</v>
+      </c>
+      <c r="M38" t="s">
+        <v>501</v>
+      </c>
+      <c r="N38" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="2:14">
+      <c r="B39" s="3">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>503</v>
+      </c>
+      <c r="D39" t="s">
+        <v>504</v>
+      </c>
+      <c r="G39" s="3">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
+        <v>309</v>
+      </c>
+      <c r="I39" t="s">
+        <v>505</v>
+      </c>
+      <c r="L39" s="3">
+        <v>7</v>
+      </c>
+      <c r="M39" t="s">
+        <v>506</v>
+      </c>
+      <c r="N39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:14">
+      <c r="G40" s="3">
+        <v>8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>475</v>
+      </c>
+      <c r="I40" t="s">
+        <v>508</v>
+      </c>
+      <c r="L40" s="3">
+        <v>8</v>
+      </c>
+      <c r="M40" t="s">
+        <v>509</v>
+      </c>
+      <c r="N40" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="2:14">
+      <c r="G41" s="3">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>511</v>
+      </c>
+      <c r="I41" t="s">
+        <v>512</v>
+      </c>
+      <c r="L41" s="3">
+        <v>9</v>
+      </c>
+      <c r="M41" t="s">
+        <v>513</v>
+      </c>
+      <c r="N41" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="2:14">
+      <c r="G42" s="3">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>453</v>
+      </c>
+      <c r="I42" t="s">
+        <v>515</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" customHeight="1" spans="2:14">
+      <c r="G43" s="3">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>312</v>
+      </c>
+      <c r="I43" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:14">
+      <c r="G44" s="3">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>457</v>
+      </c>
+      <c r="I44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="2:14">
+      <c r="G45" s="3">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>461</v>
+      </c>
+      <c r="I45" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="2:14">
+      <c r="G46" s="3">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>516</v>
+      </c>
+      <c r="I46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="2:14">
+      <c r="G47" s="3">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>517</v>
+      </c>
+      <c r="I47" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="2:15">
+      <c r="C50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="2:15">
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="H51" t="s">
+        <v>89</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:15">
+      <c r="B52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:15">
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="O53" s="11"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:15">
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>439</v>
+      </c>
+      <c r="D54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>439</v>
+      </c>
+      <c r="I54" t="s">
+        <v>440</v>
+      </c>
+      <c r="L54" s="3">
+        <v>2</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="O54" s="11"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:15">
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G55" s="3">
+        <v>3</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="L55" s="3">
+        <v>3</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="O55" s="11"/>
+    </row>
+    <row r="56" customHeight="1" spans="2:15">
+      <c r="B56" s="3">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>470</v>
+      </c>
+      <c r="D56" t="s">
+        <v>519</v>
+      </c>
+      <c r="G56" s="3">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>445</v>
+      </c>
+      <c r="I56" t="s">
+        <v>496</v>
+      </c>
+      <c r="L56" s="3">
+        <v>4</v>
+      </c>
+      <c r="M56" t="s">
+        <v>308</v>
+      </c>
+      <c r="N56" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="2:15">
+      <c r="B57" s="3">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>521</v>
+      </c>
+      <c r="D57" t="s">
+        <v>522</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5</v>
+      </c>
+      <c r="H57" t="s">
+        <v>450</v>
+      </c>
+      <c r="I57" t="s">
+        <v>497</v>
+      </c>
+      <c r="L57" s="3">
+        <v>5</v>
+      </c>
+      <c r="M57" t="s">
+        <v>311</v>
+      </c>
+      <c r="N57" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:15">
+      <c r="B58" s="3">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>312</v>
+      </c>
+      <c r="D58" t="s">
+        <v>452</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>455</v>
+      </c>
+      <c r="I58" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:15">
+      <c r="B59" s="3">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>473</v>
+      </c>
+      <c r="D59" t="s">
+        <v>524</v>
+      </c>
+      <c r="G59" s="3">
+        <v>7</v>
+      </c>
+      <c r="H59" t="s">
+        <v>309</v>
+      </c>
+      <c r="I59" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:15">
+      <c r="B60" s="3">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>516</v>
+      </c>
+      <c r="D60" t="s">
+        <v>525</v>
+      </c>
+      <c r="G60" s="3">
+        <v>8</v>
+      </c>
+      <c r="H60" t="s">
+        <v>453</v>
+      </c>
+      <c r="I60" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:15">
+      <c r="B61" s="3">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>461</v>
+      </c>
+      <c r="D61" t="s">
+        <v>462</v>
+      </c>
+      <c r="G61" s="3">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>312</v>
+      </c>
+      <c r="I61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:15">
+      <c r="B62" s="3">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>465</v>
+      </c>
+      <c r="D62" t="s">
+        <v>466</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>457</v>
+      </c>
+      <c r="I62" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:15">
+      <c r="B63" s="3">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>468</v>
+      </c>
+      <c r="D63" t="s">
+        <v>527</v>
+      </c>
+      <c r="G63" s="3">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>459</v>
+      </c>
+      <c r="I63" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="2:15">
+      <c r="G64" s="3">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>463</v>
+      </c>
+      <c r="I64" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="7:9">
+      <c r="G65" s="3">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>461</v>
+      </c>
+      <c r="I65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="7:9">
+      <c r="G66" s="3">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>528</v>
+      </c>
+      <c r="I66" t="s">
+        <v>529</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:M4"/>
+    <mergeCell ref="A26:M27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7701,10 +8901,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:M15"/>
+  <dimension ref="A3:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -7723,7 +8923,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -7755,12 +8955,12 @@
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="B7" s="5" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>26</v>
@@ -7768,7 +8968,7 @@
     </row>
     <row r="9" customHeight="1" spans="1:13">
       <c r="C9" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
         <v>25</v>
@@ -7779,19 +8979,19 @@
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:13">
@@ -7799,19 +8999,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:13">
@@ -7819,19 +9019,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:13">
@@ -7839,19 +9039,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D13" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="I13" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
@@ -7859,19 +9059,19 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D14" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="I14" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -7879,15 +9079,129 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="D15" t="s">
-        <v>480</v>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:13">
+      <c r="A22" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:13">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:13">
+      <c r="B25" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:13">
+      <c r="C26" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:13">
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:13">
+      <c r="B28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:13">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:13">
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>439</v>
+      </c>
+      <c r="D30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:13">
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:13">
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:4">
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A3:M4"/>
+    <mergeCell ref="A22:M23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7927,10 +9241,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
@@ -7938,10 +9252,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="D7" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
@@ -7949,10 +9263,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -7960,10 +9274,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -7971,10 +9285,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -7982,10 +9296,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -7993,10 +9307,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -8004,10 +9318,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -8033,19 +9347,19 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -8053,19 +9367,19 @@
         <v>1</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="D21" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -8073,19 +9387,19 @@
         <v>2</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="I22" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -8093,10 +9407,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -8105,10 +9419,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -8117,10 +9431,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -8129,10 +9443,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -8148,8 +9462,8 @@
   <sheetPr/>
   <dimension ref="A3:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -8166,7 +9480,7 @@
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
       <c r="A3" s="7" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8198,26 +9512,26 @@
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
       <c r="C7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
@@ -8225,28 +9539,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -8254,28 +9568,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="I9" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="N9" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -8283,28 +9597,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="D10" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="I10" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="N10" t="s">
-        <v>496</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -8312,28 +9626,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>556</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>499</v>
+        <v>558</v>
       </c>
       <c r="I11" t="s">
-        <v>500</v>
+        <v>559</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N11" t="s">
-        <v>501</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -8341,28 +9655,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -8370,44 +9684,44 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="I13" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="N13" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:9">
       <c r="C17" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -8415,19 +9729,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -8435,19 +9749,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -8455,19 +9769,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="I20" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -8475,19 +9789,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="D21" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
       <c r="I21" t="s">
-        <v>513</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -8495,19 +9809,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -8515,34 +9829,34 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:9">
       <c r="B26" s="5" t="s">
-        <v>514</v>
+        <v>573</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
       <c r="C27" s="3"/>
       <c r="D27" s="1"/>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:9">
@@ -8551,10 +9865,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:9">
@@ -8565,10 +9879,10 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
@@ -8577,10 +9891,10 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="I30" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -8589,10 +9903,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="I31" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -8601,10 +9915,10 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="I32" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -8613,10 +9927,10 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="I33" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -8625,10 +9939,10 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="I34" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:9">
@@ -8646,10 +9960,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:9">
@@ -8657,10 +9971,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
@@ -8668,10 +9982,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D42" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
@@ -8679,10 +9993,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D43" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
@@ -8690,10 +10004,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="D44" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -8701,10 +10015,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="D45" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -8712,10 +10026,10 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="D46" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -8723,10 +10037,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="D47" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -8734,10 +10048,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="D48" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
@@ -8745,10 +10059,10 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="D49" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
@@ -8756,10 +10070,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D50" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
@@ -8767,10 +10081,10 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="D51" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
@@ -8778,26 +10092,26 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="D52" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:5">
       <c r="C59" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="D59" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="E59" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:5">
       <c r="C64" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -8829,7 +10143,7 @@
   <sheetData>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -8864,7 +10178,7 @@
     </row>
     <row r="15" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8891,12 +10205,12 @@
     </row>
     <row r="18" customHeight="1" spans="2:4">
       <c r="C18" s="1" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:4">
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:4">
@@ -8904,10 +10218,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:4">
@@ -8915,10 +10229,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:4">
@@ -8926,10 +10240,10 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="D22" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:4">
@@ -8937,10 +10251,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="D23" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:4">
@@ -8948,10 +10262,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="D24" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:4">
@@ -8959,10 +10273,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="D25" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:4">
@@ -8970,10 +10284,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
       <c r="D26" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:4">
@@ -8981,10 +10295,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="D27" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:4">
@@ -8992,10 +10306,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
       <c r="D28" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:4">
@@ -9003,10 +10317,10 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="D29" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:4">
@@ -9014,10 +10328,10 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>548</v>
+        <v>607</v>
       </c>
       <c r="D30" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:4">
@@ -9025,10 +10339,10 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="D31" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:4">
@@ -9036,10 +10350,10 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>549</v>
+        <v>608</v>
       </c>
       <c r="D32" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -9047,10 +10361,10 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>550</v>
+        <v>609</v>
       </c>
       <c r="D33" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:4">
@@ -9058,10 +10372,10 @@
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>551</v>
+        <v>610</v>
       </c>
       <c r="D34" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:4">
@@ -9069,20 +10383,20 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>552</v>
+        <v>611</v>
       </c>
       <c r="D35" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:4">
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:4">
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:4">
@@ -9090,10 +10404,10 @@
         <v>0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:4">
@@ -9101,10 +10415,10 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:4">
@@ -9112,10 +10426,10 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="D42" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:4">
@@ -9123,10 +10437,10 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D43" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:4">
@@ -9134,10 +10448,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D44" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:4">
@@ -9145,10 +10459,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>515</v>
+        <v>574</v>
       </c>
       <c r="D45" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:4">
@@ -9156,28 +10470,28 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="D46" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
       <c r="C50" s="1" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="1" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
@@ -9185,19 +10499,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -9205,19 +10519,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I53" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -9225,19 +10539,19 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G54" s="3">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="I54" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -9245,19 +10559,19 @@
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G55" s="3">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="I55" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -9265,19 +10579,19 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>553</v>
+        <v>612</v>
       </c>
       <c r="D56" t="s">
-        <v>554</v>
+        <v>613</v>
       </c>
       <c r="G56" s="3">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>553</v>
+        <v>612</v>
       </c>
       <c r="I56" t="s">
-        <v>554</v>
+        <v>613</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -9285,19 +10599,19 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D57" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="G57" s="3">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="I57" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -9305,19 +10619,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="D58" t="s">
-        <v>556</v>
+        <v>615</v>
       </c>
       <c r="G58" s="3">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>555</v>
+        <v>614</v>
       </c>
       <c r="I58" t="s">
-        <v>556</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -9325,19 +10639,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="D59" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="G59" s="3">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
       <c r="I59" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -9345,19 +10659,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>557</v>
+        <v>616</v>
       </c>
       <c r="D60" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="G60" s="3">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>557</v>
+        <v>616</v>
       </c>
       <c r="I60" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -9365,19 +10679,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="D61" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="G61" s="3">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="I61" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:9">
@@ -9385,19 +10699,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="D62" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="G62" s="3">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="I62" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:9">
@@ -9405,19 +10719,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="D63" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="G63" s="3">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="I63" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:9">
@@ -9425,19 +10739,19 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="D64" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="G64" s="3">
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="I64" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
@@ -9445,19 +10759,19 @@
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="D65" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="G65" s="3">
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="I65" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
@@ -9465,19 +10779,19 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G66" s="3">
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="I66" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
@@ -9485,19 +10799,19 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="D67" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="G67" s="3">
         <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
       <c r="I67" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
@@ -9505,19 +10819,19 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="D68" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="G68" s="3">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="I68" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
@@ -9525,40 +10839,40 @@
         <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="D69" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G69" s="3">
         <v>17</v>
       </c>
       <c r="H69" t="s">
-        <v>558</v>
+        <v>617</v>
       </c>
       <c r="I69" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="B73" s="3" t="s">
-        <v>559</v>
+        <v>618</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>560</v>
+        <v>619</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="C75" t="s">
-        <v>561</v>
+        <v>620</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
       <c r="A80" s="6" t="s">
-        <v>562</v>
+        <v>621</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -9582,20 +10896,20 @@
     </row>
     <row r="84" customHeight="1" spans="1:9">
       <c r="C84" s="1" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="1" t="s">
-        <v>563</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:9">
       <c r="C85" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:9">
@@ -9603,19 +10917,19 @@
         <v>0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:9">
@@ -9623,19 +10937,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="I87" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:9">
@@ -9643,19 +10957,19 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D88" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="G88" s="3">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="I88" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="1:9">
@@ -9663,19 +10977,19 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G89" s="3">
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="I89" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:9">
@@ -9683,19 +10997,19 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>564</v>
+        <v>623</v>
       </c>
       <c r="D90" t="s">
-        <v>565</v>
+        <v>624</v>
       </c>
       <c r="G90" s="3">
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>564</v>
+        <v>623</v>
       </c>
       <c r="I90" t="s">
-        <v>565</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:9">
@@ -9703,19 +11017,19 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>566</v>
+        <v>625</v>
       </c>
       <c r="D91" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
       <c r="G91" s="3">
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>566</v>
+        <v>625</v>
       </c>
       <c r="I91" t="s">
-        <v>567</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:9">
@@ -9723,19 +11037,19 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
       <c r="D92" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
       <c r="G92" s="3">
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>568</v>
+        <v>627</v>
       </c>
       <c r="I92" t="s">
-        <v>569</v>
+        <v>628</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:9">
@@ -9743,19 +11057,19 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>570</v>
+        <v>629</v>
       </c>
       <c r="D93" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
       <c r="G93" s="3">
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>570</v>
+        <v>629</v>
       </c>
       <c r="I93" t="s">
-        <v>571</v>
+        <v>630</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:9">
@@ -9763,19 +11077,19 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>572</v>
+        <v>631</v>
       </c>
       <c r="D94" t="s">
-        <v>573</v>
+        <v>632</v>
       </c>
       <c r="G94" s="3">
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>572</v>
+        <v>631</v>
       </c>
       <c r="I94" t="s">
-        <v>573</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -9810,29 +11124,29 @@
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>574</v>
+        <v>633</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>575</v>
+        <v>634</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>576</v>
+        <v>635</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>577</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>578</v>
+        <v>637</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>579</v>
+        <v>638</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>580</v>
+        <v>639</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
@@ -9840,89 +11154,89 @@
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>581</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>582</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>583</v>
+        <v>642</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>584</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>585</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>586</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>587</v>
+        <v>646</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>588</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>589</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>590</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>591</v>
+        <v>650</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>592</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>593</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>594</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>595</v>
+        <v>654</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>596</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>597</v>
+        <v>656</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>598</v>
+        <v>657</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>599</v>
+        <v>658</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -9930,72 +11244,72 @@
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>600</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>601</v>
+        <v>660</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>602</v>
+        <v>661</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>603</v>
+        <v>662</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>604</v>
+        <v>663</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>605</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>606</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>607</v>
+        <v>666</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>608</v>
+        <v>667</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>609</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>610</v>
+        <v>669</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>611</v>
+        <v>670</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>612</v>
+        <v>671</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>613</v>
+        <v>672</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>47</v>
@@ -10003,17 +11317,17 @@
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>585</v>
+        <v>644</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>614</v>
+        <v>673</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>615</v>
+        <v>674</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>50</v>
@@ -10021,53 +11335,53 @@
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>589</v>
+        <v>648</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>616</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>617</v>
+        <v>676</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>593</v>
+        <v>652</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>618</v>
+        <v>677</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>619</v>
+        <v>678</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>620</v>
+        <v>679</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>621</v>
+        <v>680</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>622</v>
+        <v>681</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>623</v>
+        <v>682</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>19</v>
@@ -10075,17 +11389,17 @@
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>624</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>625</v>
+        <v>684</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>626</v>
+        <v>685</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>22</v>
@@ -10093,41 +11407,41 @@
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>627</v>
+        <v>686</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>628</v>
+        <v>687</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>629</v>
+        <v>688</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>630</v>
+        <v>689</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>631</v>
+        <v>690</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>632</v>
+        <v>691</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>633</v>
+        <v>692</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>634</v>
+        <v>693</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>635</v>
+        <v>694</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>25</v>
@@ -10135,111 +11449,111 @@
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>636</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>638</v>
+        <v>697</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>639</v>
+        <v>698</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>640</v>
+        <v>699</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>641</v>
+        <v>700</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>642</v>
+        <v>701</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>643</v>
+        <v>702</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>644</v>
+        <v>703</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>643</v>
+        <v>702</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>645</v>
+        <v>704</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>646</v>
+        <v>705</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>647</v>
+        <v>706</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>648</v>
+        <v>707</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>649</v>
+        <v>708</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>650</v>
+        <v>709</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>651</v>
+        <v>710</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>649</v>
+        <v>708</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>652</v>
+        <v>711</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>653</v>
+        <v>712</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>654</v>
+        <v>713</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>655</v>
+        <v>714</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>47</v>
@@ -10247,12 +11561,12 @@
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>656</v>
+        <v>715</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>657</v>
+        <v>716</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>50</v>
@@ -10260,25 +11574,25 @@
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>658</v>
+        <v>717</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>659</v>
+        <v>718</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>660</v>
+        <v>719</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>661</v>
+        <v>720</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>52</v>
@@ -10286,12 +11600,12 @@
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>662</v>
+        <v>721</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>663</v>
+        <v>722</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>19</v>
@@ -10304,7 +11618,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>664</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448"/>
+    <workbookView windowWidth="23040" windowHeight="10620" tabRatio="448" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="ods_shareholder_num">Tinsight!$B$41</definedName>
     <definedName name="ods_north_bound_daily">Tinsight!$B$54</definedName>
     <definedName name="ods_stock_exchange_market">Tcal!$H$9</definedName>
-    <definedName name="ods_tdx_stock_pepb_info">TDX!$C$39</definedName>
+    <definedName name="ods_tdx_stock_pepb_info">TDX!$C$40</definedName>
     <definedName name="ods_stock_kline_daily_insight">Tinsight!$B$14</definedName>
     <definedName name="ods_index_a_share_insight">Tinsight!$G$14</definedName>
     <definedName name="ods_future_inside_insight">Tinsight!$B$28</definedName>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="724">
   <si>
     <t>序号</t>
   </si>
@@ -3085,7 +3085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3166,9 +3166,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3540,10 +3537,10 @@
   <sheetPr/>
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4685,13 +4682,13 @@
       <c r="A60" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
     </row>
     <row r="61" ht="39" customHeight="1" spans="1:8">
       <c r="B61" s="3" t="s">
@@ -6001,8 +5998,8 @@
   <sheetPr/>
   <dimension ref="A3:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="C79" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -7839,8 +7836,8 @@
   <sheetPr/>
   <dimension ref="A3:O66"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F28" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -8904,7 +8901,7 @@
   <dimension ref="A3:M33"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -9460,10 +9457,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N64"/>
+  <dimension ref="A3:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -9886,15 +9883,17 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="C30" s="3"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="G30" s="3">
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>532</v>
+        <v>441</v>
       </c>
       <c r="I30" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:9">
@@ -9903,10 +9902,10 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>308</v>
+        <v>439</v>
       </c>
       <c r="I31" t="s">
-        <v>533</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:9">
@@ -9915,10 +9914,10 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:9">
@@ -9927,10 +9926,10 @@
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>574</v>
+        <v>311</v>
       </c>
       <c r="I33" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:9">
@@ -9939,178 +9938,190 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
+        <v>574</v>
+      </c>
+      <c r="I34" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:9">
+      <c r="C35" s="3"/>
+      <c r="G35" s="3">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
         <v>536</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I35" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="2:9">
-      <c r="C38" s="1" t="s">
+    <row r="39" customHeight="1" spans="2:9">
+      <c r="C39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="2:9">
-      <c r="C39" s="8" t="s">
+    <row r="40" customHeight="1" spans="2:9">
+      <c r="C40" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="2:9">
-      <c r="B40" s="5" t="s">
+    <row r="41" customHeight="1" spans="2:9">
+      <c r="B41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:9">
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>306</v>
-      </c>
-      <c r="D41" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
       <c r="B42" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D42" t="s">
-        <v>533</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
       <c r="B43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
       <c r="B44" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>576</v>
+        <v>311</v>
       </c>
       <c r="D44" t="s">
-        <v>577</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
       <c r="B45" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D45" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
       <c r="B46" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D46" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
       <c r="B47" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D47" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
       <c r="B48" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D48" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:5">
       <c r="B49" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D49" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:5">
       <c r="B50" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>354</v>
+        <v>586</v>
       </c>
       <c r="D50" t="s">
-        <v>355</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:5">
       <c r="B51" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>588</v>
+        <v>354</v>
       </c>
       <c r="D51" t="s">
-        <v>589</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:5">
       <c r="B52" s="3">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>588</v>
+      </c>
+      <c r="D52" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="2:5">
+      <c r="B53" s="3">
         <v>12</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>426</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="2:5">
-      <c r="C59" t="s">
+    <row r="60" customHeight="1" spans="2:5">
+      <c r="C60" t="s">
         <v>591</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>592</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="2:5">
-      <c r="C64" t="s">
+    <row r="65" customHeight="1" spans="3:3">
+      <c r="C65" t="s">
         <v>594</v>
       </c>
     </row>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" tabRatio="448" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$1:$K$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">T00!$A$1:$K$63</definedName>
     <definedName name="ods_akshare_stock_value_em">Takshare!$C$7</definedName>
     <definedName name="ods_akshare_stock_zh_a_gdhs_detail_em">Takshare!$H$7</definedName>
     <definedName name="ods_akshare_stock_cyq_em">Takshare!$M$7</definedName>
@@ -37,7 +37,7 @@
     <definedName name="ods_shareholder_num">Tinsight!$B$41</definedName>
     <definedName name="ods_north_bound_daily">Tinsight!$B$54</definedName>
     <definedName name="ods_stock_exchange_market">Tcal!$H$9</definedName>
-    <definedName name="ods_tdx_stock_pepb_info">TDX!$C$40</definedName>
+    <definedName name="ods_tdx_stock_pepb_info">TDX!$C$28</definedName>
     <definedName name="ods_stock_kline_daily_insight">Tinsight!$B$14</definedName>
     <definedName name="ods_index_a_share_insight">Tinsight!$G$14</definedName>
     <definedName name="ods_future_inside_insight">Tinsight!$B$28</definedName>
@@ -54,7 +54,7 @@
     <definedName name="ods_tdx_stock_style_plate">TDX!$C$17</definedName>
     <definedName name="ods_tdx_stock_index_plate">TDX!$H$17</definedName>
     <definedName name="ods_stock_plate_redbook">Tcal!$C$9</definedName>
-    <definedName name="dwd_stock_a_total_plate">TDX!$H$27</definedName>
+    <definedName name="dwd_stock_a_total_plate">ODS_DWD_DMART!$M$19</definedName>
     <definedName name="dwd_ashare_stock_base_info">ODS_DWD_DMART!$C$19</definedName>
     <definedName name="dwd_stock_ZT_list">ODS_DWD_DMART!$C$43</definedName>
     <definedName name="dwd_stock_DT_list">ODS_DWD_DMART!$H$43</definedName>
@@ -85,6 +85,7 @@
     <definedName name="ods_tushare_stock_board_concept_name_em">Tushare!$C$51</definedName>
     <definedName name="ods_tushare_stock_board_concept_hist_em">Tushare!$H$51</definedName>
     <definedName name="ods_tushare_stock_board_concept_maps_em">Tushare!$M$51</definedName>
+    <definedName name="dwd_shareholder_num_latest">ODS_DWD_DMART!$H$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="668">
   <si>
     <t>序号</t>
   </si>
@@ -490,7 +491,7 @@
     <t>DWD</t>
   </si>
   <si>
-    <t>周末手动更新，目前跟新至 20250130</t>
+    <t>每日17点  T日</t>
   </si>
   <si>
     <t>ods_tdx_stock_concept_plate
@@ -498,16 +499,21 @@
 ods_tdx_stock_industry_plate
 ods_tdx_stock_region_plate
 ods_tdx_stock_index_plate
-ods_stock_plate_redbook</t>
+ods_stock_plate_redbook
+ods_akshare_board_concept_name_ths
+ods_tushare_stock_board_concept_maps_ths</t>
+  </si>
+  <si>
+    <t>dwd_shareholder_num_latest</t>
+  </si>
+  <si>
+    <t>个股的股东数(全量最新数据表)</t>
   </si>
   <si>
     <t>dwd_ashare_stock_base_info</t>
   </si>
   <si>
     <t>股票基础信息大宽表</t>
-  </si>
-  <si>
-    <t>每日17点  T-1</t>
   </si>
   <si>
     <t>ods_stock_kline_daily_insight
@@ -520,6 +526,9 @@
   </si>
   <si>
     <t>涨停股票清单</t>
+  </si>
+  <si>
+    <t>每日17点  T-1</t>
   </si>
   <si>
     <t>ods_stock_kline_daily_insight
@@ -1724,15 +1733,6 @@
     <t>指数板块名称</t>
   </si>
   <si>
-    <t>多渠道来源</t>
-  </si>
-  <si>
-    <t>source_table</t>
-  </si>
-  <si>
-    <t>来源表</t>
-  </si>
-  <si>
     <t>market_value</t>
   </si>
   <si>
@@ -1776,18 +1776,6 @@
   </si>
   <si>
     <t>细分行业</t>
-  </si>
-  <si>
-    <t xml:space="preserve">加一个标的_股本数  </t>
-  </si>
-  <si>
-    <t>算市值</t>
-  </si>
-  <si>
-    <t>可以按周的维度，手工去加载数据</t>
-  </si>
-  <si>
-    <t>净资产</t>
   </si>
   <si>
     <r>
@@ -1834,13 +1822,13 @@
     </r>
   </si>
   <si>
-    <t>个股的股东数(全量最新数据表)</t>
-  </si>
-  <si>
-    <t>dwd_shareholder_num_latest</t>
-  </si>
-  <si>
     <t>最新收盘价</t>
+  </si>
+  <si>
+    <t>source_table</t>
+  </si>
+  <si>
+    <t>来源表</t>
   </si>
   <si>
     <t>total_value</t>
@@ -2932,7 +2920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2941,9 +2929,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3017,7 +3002,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3106,7 +3091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14270990" y="10421620"/>
+          <a:off x="14994890" y="10421620"/>
           <a:ext cx="1118870" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3391,36 +3376,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="12.1111111111111" style="3" customWidth="1"/>
     <col min="4" max="4" width="12.1759259259259" customWidth="1"/>
     <col min="5" max="5" width="48.0185185185185" customWidth="1"/>
     <col min="6" max="6" width="35.4444444444444" customWidth="1"/>
     <col min="7" max="7" width="31.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="33.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="43.6666666666667" customWidth="1"/>
     <col min="10" max="10" width="26.5555555555556" customWidth="1"/>
     <col min="11" max="11" width="31.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3440,7 +3425,7 @@
       </c>
     </row>
     <row r="2" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3452,19 +3437,19 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3476,18 +3461,18 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3499,18 +3484,18 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3522,18 +3507,18 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3545,18 +3530,18 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3565,24 +3550,24 @@
       <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3594,18 +3579,18 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -3617,18 +3602,18 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3640,18 +3625,18 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3663,18 +3648,18 @@
       <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3686,18 +3671,18 @@
       <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>41</v>
       </c>
       <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3709,25 +3694,25 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>44</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" ht="19" customHeight="1" spans="1:8">
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" ht="19.95" customHeight="1" spans="1:8">
-      <c r="F15" s="19"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" ht="19.95" customHeight="1"/>
     <row r="17" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3739,18 +3724,18 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F17" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="21" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>2</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3762,18 +3747,18 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>3</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3785,18 +3770,18 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F19" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3808,18 +3793,18 @@
       <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F20" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3831,18 +3816,18 @@
       <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F21" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>6</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3854,18 +3839,18 @@
       <c r="D22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3877,18 +3862,18 @@
       <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3900,18 +3885,18 @@
       <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>65</v>
       </c>
       <c r="F24" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>9</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -3923,18 +3908,18 @@
       <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="18" t="s">
         <v>67</v>
       </c>
       <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -3946,18 +3931,18 @@
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>69</v>
       </c>
       <c r="F26" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -3969,18 +3954,18 @@
       <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="18" t="s">
         <v>71</v>
       </c>
       <c r="F27" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -3992,18 +3977,18 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="18" t="s">
         <v>74</v>
       </c>
       <c r="F28" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="29" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4015,18 +4000,18 @@
       <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="18" t="s">
         <v>77</v>
       </c>
       <c r="F29" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="30" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>14</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4038,18 +4023,18 @@
       <c r="D30" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F30" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>15</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4061,18 +4046,18 @@
       <c r="D31" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="18" t="s">
         <v>83</v>
       </c>
       <c r="F31" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" ht="19.95" customHeight="1" spans="1:7">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4084,18 +4069,18 @@
       <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="33" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4107,18 +4092,18 @@
       <c r="D33" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>87</v>
       </c>
       <c r="F33" t="s">
         <v>88</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4130,18 +4115,18 @@
       <c r="D34" t="s">
         <v>76</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F34" t="s">
         <v>90</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4153,20 +4138,20 @@
       <c r="D35" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>91</v>
       </c>
       <c r="F35" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" ht="19.95" customHeight="1"/>
     <row r="37" ht="19.95" customHeight="1"/>
     <row r="38" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>1</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -4178,18 +4163,18 @@
       <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>94</v>
       </c>
       <c r="F38" t="s">
         <v>95</v>
       </c>
-      <c r="G38" s="21" t="s">
+      <c r="G38" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>2</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -4201,20 +4186,20 @@
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>96</v>
       </c>
       <c r="F39" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="20" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="40" ht="19.95" customHeight="1"/>
     <row r="41" ht="19.95" customHeight="1"/>
     <row r="42" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>1</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4226,18 +4211,18 @@
       <c r="D42" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>100</v>
       </c>
       <c r="F42" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>2</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -4249,18 +4234,18 @@
       <c r="D43" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>102</v>
       </c>
       <c r="F43" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="21" t="s">
+      <c r="G43" s="20" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="44" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>3</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -4272,18 +4257,18 @@
       <c r="D44" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>105</v>
       </c>
       <c r="F44" t="s">
         <v>106</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -4295,16 +4280,16 @@
       <c r="D45" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>108</v>
       </c>
       <c r="F45" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="K45" s="19" t="s">
+      <c r="K45" s="18" t="s">
         <v>110</v>
       </c>
       <c r="L45" t="s">
@@ -4312,7 +4297,7 @@
       </c>
     </row>
     <row r="46" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -4324,18 +4309,18 @@
       <c r="D46" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>112</v>
       </c>
       <c r="F46" t="s">
         <v>113</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="47" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -4347,18 +4332,18 @@
       <c r="D47" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F47" t="s">
         <v>115</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="48" ht="19.95" customHeight="1" spans="1:12">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>7</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -4370,18 +4355,18 @@
       <c r="D48" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="18" t="s">
         <v>116</v>
       </c>
       <c r="F48" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="49" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>8</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4393,18 +4378,18 @@
       <c r="D49" t="s">
         <v>118</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>119</v>
       </c>
       <c r="F49" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="23" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>9</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -4416,32 +4401,32 @@
       <c r="D50" t="s">
         <v>122</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F50" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="G50" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" ht="19.95" customHeight="1"/>
     <row r="52" ht="19.95" customHeight="1"/>
     <row r="53" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A53" s="27" t="s">
+      <c r="A53" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-    </row>
-    <row r="54" ht="105" customHeight="1" spans="1:8">
-      <c r="A54" s="16">
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+    </row>
+    <row r="54" ht="51" customHeight="1" spans="1:8">
+      <c r="A54" s="15">
         <v>26</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -4450,68 +4435,65 @@
       <c r="C54" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="18" t="s">
         <v>110</v>
       </c>
       <c r="F54" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="28" t="s">
+      <c r="G54" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="H54" s="29" t="s">
+      <c r="H54" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="55" ht="67" customHeight="1" spans="1:8">
-      <c r="A55" s="16">
-        <v>27</v>
-      </c>
       <c r="B55" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>130</v>
       </c>
       <c r="F55" t="s">
         <v>131</v>
       </c>
-      <c r="G55" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H55" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" ht="40" customHeight="1" spans="1:8">
-      <c r="A56" s="16">
-        <v>28</v>
+      <c r="G55" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" ht="67" customHeight="1" spans="1:8">
+      <c r="A56" s="15">
+        <v>27</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H56" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" ht="42" customHeight="1" spans="1:8">
-      <c r="A57" s="16">
-        <v>29</v>
+    </row>
+    <row r="57" ht="40" customHeight="1" spans="1:8">
+      <c r="A57" s="15">
+        <v>28</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>127</v>
@@ -4519,71 +4501,93 @@
       <c r="C57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F57" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F57" t="s">
+      <c r="H57" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="H57" s="29" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="58" ht="19.95" customHeight="1"/>
+    </row>
+    <row r="58" ht="42" customHeight="1" spans="1:8">
+      <c r="A58" s="15">
+        <v>29</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F58" t="s">
+        <v>140</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="59" ht="19.95" customHeight="1"/>
-    <row r="60" ht="19.95" customHeight="1" spans="1:8">
-      <c r="A60" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-    </row>
-    <row r="61" ht="39" customHeight="1" spans="1:8">
-      <c r="B61" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="3" t="s">
+    <row r="60" ht="19.95" customHeight="1"/>
+    <row r="61" ht="19.95" customHeight="1" spans="1:8">
+      <c r="A61" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+    </row>
+    <row r="62" ht="39" customHeight="1" spans="1:8">
+      <c r="B62" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E61" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="E62" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" t="s">
+        <v>144</v>
+      </c>
+      <c r="G62" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" ht="30" customHeight="1" spans="1:8">
+      <c r="B63" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="G61" t="s">
+      <c r="E63" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F63" t="s">
+        <v>148</v>
+      </c>
+      <c r="G63" t="s">
+        <v>149</v>
+      </c>
+      <c r="H63" t="s">
         <v>143</v>
       </c>
-      <c r="H61" s="29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="62" ht="30" customHeight="1" spans="1:8">
-      <c r="B62" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F62" t="s">
-        <v>146</v>
-      </c>
-      <c r="G62" t="s">
-        <v>147</v>
-      </c>
-      <c r="H62" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="63" ht="19.95" customHeight="1"/>
+    </row>
     <row r="64" ht="19.95" customHeight="1"/>
     <row r="65" ht="19.95" customHeight="1"/>
     <row r="66" ht="19.95" customHeight="1"/>
@@ -4609,13 +4613,14 @@
     <row r="86" ht="19.95" customHeight="1"/>
     <row r="87" ht="19.95" customHeight="1"/>
     <row r="88" ht="19.95" customHeight="1"/>
+    <row r="89" ht="19.95" customHeight="1"/>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K62" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K63" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A60:H60"/>
+    <mergeCell ref="A61:H61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E9" location="ods_akshare_stock_value_em" display="ods_akshare_stock_value_em"/>
@@ -4648,11 +4653,11 @@
     <hyperlink ref="E48" location="ods_tdx_stock_index_plate" display="ods_tdx_stock_index_plate"/>
     <hyperlink ref="E50" location="ods_stock_plate_redbook" display="ods_stock_plate_redbook"/>
     <hyperlink ref="E54" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
-    <hyperlink ref="E55" location="dwd_ashare_stock_base_info" display="dwd_ashare_stock_base_info"/>
-    <hyperlink ref="E56" location="dwd_stock_ZT_list" display="dwd_stock_ZT_list"/>
-    <hyperlink ref="E57" location="dwd_stock_DT_list" display="dwd_stock_DT_list"/>
-    <hyperlink ref="E61" location="dmart_stock_zt_details" display="dmart_stock_zt_details"/>
-    <hyperlink ref="E62" location="dmart_stock_zt_details_expanded" display="dmart_stock_zt_details_expanded"/>
+    <hyperlink ref="E56" location="dwd_ashare_stock_base_info" display="dwd_ashare_stock_base_info"/>
+    <hyperlink ref="E57" location="dwd_stock_ZT_list" display="dwd_stock_ZT_list"/>
+    <hyperlink ref="E58" location="dwd_stock_DT_list" display="dwd_stock_DT_list"/>
+    <hyperlink ref="E62" location="dmart_stock_zt_details" display="dmart_stock_zt_details"/>
+    <hyperlink ref="E63" location="dmart_stock_zt_details_expanded" display="dmart_stock_zt_details_expanded"/>
     <hyperlink ref="H7" location="ods_stock_code_daily_insight" display="ods_stock_code_daily_insight"/>
     <hyperlink ref="K45" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
     <hyperlink ref="E24" location="ods_akshare_stock_board_concept_name_em" display="ods_akshare_stock_board_concept_name_em"/>
@@ -4668,6 +4673,7 @@
     <hyperlink ref="E33" location="ods_tushare_stock_board_concept_name_em" display="ods_tushare_stock_board_concept_name_em"/>
     <hyperlink ref="E34" location="ods_tushare_stock_board_concept_hist_em" display="ods_tushare_stock_board_concept_hist_em"/>
     <hyperlink ref="E35" location="ods_tushare_stock_board_concept_maps_em" display="ods_tushare_stock_board_concept_maps_em"/>
+    <hyperlink ref="E55" location="dwd_shareholder_num_latest" display="dwd_shareholder_num_latest"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4717,63 +4723,63 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:13">
       <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>150</v>
+      <c r="B7" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>150</v>
+      <c r="G7" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>152</v>
+      <c r="B8" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>154</v>
+      <c r="G8" s="11" t="s">
+        <v>156</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:13">
@@ -4781,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -4793,10 +4799,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -4823,90 +4829,90 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:13">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>152</v>
+      <c r="B16" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>158</v>
+      <c r="G16" s="11" t="s">
+        <v>160</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>150</v>
+      <c r="L16" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="M16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>150</v>
+      <c r="B17" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K17" s="3">
         <v>2</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>163</v>
+      <c r="L17" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="M17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:18">
@@ -4914,28 +4920,28 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F18" s="3">
         <v>3</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>150</v>
+      <c r="G18" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K18" s="3">
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:18">
@@ -4943,28 +4949,28 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K19" s="3">
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:18">
@@ -4972,28 +4978,28 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F20" s="3">
         <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K20" s="3">
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:18">
@@ -5001,28 +5007,28 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F21" s="3">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K21" s="3">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:18">
@@ -5030,28 +5036,28 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F22" s="3">
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K22" s="3">
         <v>7</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:18">
@@ -5059,19 +5065,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F23" s="3">
         <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:18">
@@ -5103,117 +5109,117 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:18">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P29" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P29" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="3">
         <v>1</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>152</v>
+      <c r="B30" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>152</v>
+      <c r="G30" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="H30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>150</v>
+      <c r="L30" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="M30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P30" s="3">
         <v>1</v>
       </c>
-      <c r="Q30" s="12" t="s">
-        <v>150</v>
+      <c r="Q30" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="R30" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="3">
         <v>2</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>150</v>
+      <c r="B31" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>150</v>
+      <c r="G31" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K31" s="3">
         <v>2</v>
       </c>
       <c r="L31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P31" s="3">
         <v>2</v>
       </c>
-      <c r="Q31" s="12" t="s">
-        <v>152</v>
+      <c r="Q31" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="R31" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:18">
@@ -5221,37 +5227,37 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F32" s="3">
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K32" s="3">
         <v>3</v>
       </c>
       <c r="L32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P32" s="3">
         <v>3</v>
       </c>
       <c r="Q32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:18">
@@ -5259,37 +5265,37 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F33" s="3">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K33" s="3">
         <v>4</v>
       </c>
-      <c r="L33" s="12" t="s">
-        <v>198</v>
+      <c r="L33" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="M33" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P33" s="3">
         <v>4</v>
       </c>
       <c r="Q33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:18">
@@ -5297,37 +5303,37 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F34" s="3">
         <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K34" s="3">
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M34" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P34" s="3">
         <v>5</v>
       </c>
       <c r="Q34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:18">
@@ -5335,37 +5341,37 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F35" s="3">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K35" s="3">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P35" s="3">
         <v>6</v>
       </c>
       <c r="Q35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R35" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:18">
@@ -5373,37 +5379,37 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F36" s="3">
         <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K36" s="3">
         <v>7</v>
       </c>
       <c r="L36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M36" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P36" s="3">
         <v>7</v>
       </c>
       <c r="Q36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="R36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:18">
@@ -5411,37 +5417,37 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F37" s="3">
         <v>8</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K37" s="3">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P37" s="3">
         <v>8</v>
       </c>
       <c r="Q37" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:18">
@@ -5449,37 +5455,37 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F38" s="3">
         <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K38" s="3">
         <v>9</v>
       </c>
       <c r="L38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M38" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P38" s="3">
         <v>9</v>
       </c>
       <c r="Q38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R38" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:18">
@@ -5487,28 +5493,28 @@
         <v>10</v>
       </c>
       <c r="G39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K39" s="3">
         <v>10</v>
       </c>
       <c r="L39" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M39" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P39" s="3">
         <v>10</v>
       </c>
       <c r="Q39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:18">
@@ -5519,19 +5525,19 @@
         <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H40" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P40" s="3">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="R40" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:18">
@@ -5542,50 +5548,50 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H41" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:18">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F42" s="3">
         <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:18">
       <c r="A43" s="3">
         <v>1</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>152</v>
+      <c r="B43" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F43" s="3">
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:18">
@@ -5593,39 +5599,39 @@
         <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F44" s="3">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H44" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:18">
       <c r="A45" s="3">
         <v>3</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>150</v>
+      <c r="B45" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F45" s="3">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:18">
@@ -5633,19 +5639,19 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F46" s="3">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:18">
@@ -5653,19 +5659,19 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F47" s="3">
         <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H47" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:18">
@@ -5673,19 +5679,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C48" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F48" s="3">
         <v>19</v>
       </c>
       <c r="G48" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="1:8">
@@ -5693,19 +5699,19 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F49" s="3">
         <v>20</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="1:8">
@@ -5713,10 +5719,10 @@
         <v>21</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H50" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:8">
@@ -5724,10 +5730,10 @@
         <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:8">
@@ -5735,10 +5741,10 @@
         <v>23</v>
       </c>
       <c r="G52" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H52" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="1:8">
@@ -5749,10 +5755,10 @@
         <v>24</v>
       </c>
       <c r="G53" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H53" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="1:8">
@@ -5763,61 +5769,61 @@
         <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H54" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F55" s="3">
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H55" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="3">
         <v>1</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>152</v>
+      <c r="B56" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F56" s="3">
         <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H56" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="3">
         <v>2</v>
       </c>
-      <c r="B57" s="12" t="s">
-        <v>150</v>
+      <c r="B57" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F57" s="3"/>
     </row>
@@ -5826,10 +5832,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F58" s="3"/>
     </row>
@@ -5838,10 +5844,10 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C59" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F59" s="3"/>
     </row>
@@ -5879,36 +5885,36 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
@@ -5935,90 +5941,90 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>275</v>
+      <c r="C9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>276</v>
+      <c r="H9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>278</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>160</v>
+      <c r="M9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>153</v>
+      <c r="C10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>153</v>
+      <c r="H10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>153</v>
+      <c r="M10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -6026,28 +6032,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -6055,28 +6061,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N12" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -6084,28 +6090,28 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="N13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:14">
@@ -6113,28 +6119,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I14" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L14" s="3">
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N14" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:14">
@@ -6142,28 +6148,28 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L15" s="3">
         <v>7</v>
       </c>
       <c r="M15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N15" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
@@ -6171,28 +6177,28 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I16" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L16" s="3">
         <v>8</v>
       </c>
       <c r="M16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N16" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:14">
@@ -6200,28 +6206,28 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L17" s="3">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:14">
@@ -6229,28 +6235,28 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D18" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G18" s="3">
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I18" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L18" s="3">
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:14">
@@ -6258,28 +6264,28 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G19" s="3">
         <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L19" s="3">
         <v>11</v>
       </c>
       <c r="M19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:14">
@@ -6287,19 +6293,19 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D20" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G20" s="3">
         <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:14">
@@ -6307,19 +6313,19 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D21" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G21" s="3">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I21" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:14">
@@ -6327,19 +6333,19 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D22" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G22" s="3">
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="I22" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:14">
@@ -6347,10 +6353,10 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I23" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:14">
@@ -6376,61 +6382,61 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:14">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>337</v>
+      <c r="C29" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>339</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>338</v>
+      <c r="H29" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="L29" s="3">
         <v>1</v>
       </c>
-      <c r="M29" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>189</v>
+      <c r="M29" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:14">
@@ -6438,7 +6444,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
@@ -6447,7 +6453,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I30" t="s">
         <v>0</v>
@@ -6455,40 +6461,40 @@
       <c r="L30" s="3">
         <v>2</v>
       </c>
-      <c r="M30" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>341</v>
+      <c r="M30" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="3">
         <v>3</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>153</v>
+      <c r="C31" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>153</v>
+      <c r="H31" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="L31" s="3">
         <v>3</v>
       </c>
       <c r="M31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:14">
@@ -6496,28 +6502,28 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G32" s="3">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I32" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L32" s="3">
         <v>4</v>
       </c>
       <c r="M32" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="N32" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:14">
@@ -6525,28 +6531,28 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G33" s="3">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I33" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="L33" s="3">
         <v>5</v>
       </c>
       <c r="M33" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N33" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:14">
@@ -6554,28 +6560,28 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D34" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G34" s="3">
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I34" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L34" s="3">
         <v>6</v>
       </c>
       <c r="M34" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="N34" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:14">
@@ -6583,28 +6589,28 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D35" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G35" s="3">
         <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I35" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L35" s="3">
         <v>7</v>
       </c>
       <c r="M35" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N35" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:14">
@@ -6612,28 +6618,28 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D36" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G36" s="3">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I36" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L36" s="3">
         <v>8</v>
       </c>
       <c r="M36" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N36" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:14">
@@ -6641,28 +6647,28 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D37" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G37" s="3">
         <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="I37" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L37" s="3">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="N37" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:14">
@@ -6670,19 +6676,19 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G38" s="3">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I38" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:14">
@@ -6690,19 +6696,19 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D39" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G39" s="3">
         <v>11</v>
       </c>
       <c r="H39" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="I39" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:14">
@@ -6710,10 +6716,10 @@
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D40" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:14">
@@ -6721,10 +6727,10 @@
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D41" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:14">
@@ -6732,10 +6738,10 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D42" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:14">
@@ -6743,10 +6749,10 @@
         <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D43" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:14">
@@ -6754,10 +6760,10 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D44" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:14">
@@ -6765,10 +6771,10 @@
         <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D45" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:14">
@@ -6776,15 +6782,15 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D46" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:20">
-      <c r="B51" s="7" t="s">
-        <v>397</v>
+      <c r="B51" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:20">
@@ -6820,79 +6826,79 @@
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:20">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L54" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L54" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="R54" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="R54" s="6" t="s">
         <v>0</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="T54" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:20">
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>398</v>
+      <c r="C55" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
       </c>
-      <c r="H55" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>399</v>
+      <c r="H55" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="L55" s="3">
         <v>1</v>
       </c>
-      <c r="M55" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>400</v>
+      <c r="M55" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="R55" s="3">
         <v>1</v>
       </c>
-      <c r="S55" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="T55" s="14" t="s">
-        <v>401</v>
+      <c r="S55" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="T55" s="13" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:20">
@@ -6900,7 +6906,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -6909,66 +6915,66 @@
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I56" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L56" s="3">
         <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N56" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="R56" s="3">
         <v>2</v>
       </c>
-      <c r="S56" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="T56" s="14" t="s">
-        <v>407</v>
+      <c r="S56" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="T56" s="13" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:20">
       <c r="B57" s="3">
         <v>3</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>408</v>
+      <c r="C57" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="G57" s="3">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I57" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L57" s="3">
         <v>3</v>
       </c>
       <c r="M57" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="N57" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="R57" s="3">
         <v>3</v>
       </c>
       <c r="S57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T57" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:20">
@@ -6976,25 +6982,25 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G58" s="3">
         <v>4</v>
       </c>
-      <c r="H58" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>409</v>
+      <c r="H58" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="L58" s="3">
         <v>4</v>
       </c>
       <c r="M58" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N58" t="s">
         <v>0</v>
@@ -7003,10 +7009,10 @@
         <v>4</v>
       </c>
       <c r="S58" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="T58" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:20">
@@ -7014,37 +7020,37 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G59" s="3">
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I59" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L59" s="3">
         <v>5</v>
       </c>
-      <c r="M59" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="N59" s="14" t="s">
-        <v>408</v>
+      <c r="M59" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>410</v>
       </c>
       <c r="R59" s="3">
         <v>5</v>
       </c>
       <c r="S59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T59" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:20">
@@ -7052,265 +7058,265 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D60" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G60" s="3">
         <v>6</v>
       </c>
       <c r="H60" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I60" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L60" s="3">
         <v>6</v>
       </c>
       <c r="M60" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N60" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="R60" s="3">
         <v>6</v>
       </c>
       <c r="S60" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="T60" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:20">
       <c r="B61" s="3">
         <v>7</v>
       </c>
-      <c r="C61" s="11" t="s">
-        <v>416</v>
+      <c r="C61" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="D61" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G61" s="3">
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I61" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L61" s="3">
         <v>7</v>
       </c>
       <c r="M61" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N61" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="R61" s="3">
         <v>7</v>
       </c>
       <c r="S61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="T61" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:20">
       <c r="B62" s="3">
         <v>8</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>419</v>
+      <c r="C62" s="10" t="s">
+        <v>421</v>
       </c>
       <c r="D62" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G62" s="3">
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I62" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L62" s="3">
         <v>8</v>
       </c>
       <c r="M62" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N62" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="R62" s="3">
         <v>8</v>
       </c>
       <c r="S62" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="T62" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:20">
       <c r="B63" s="3">
         <v>9</v>
       </c>
-      <c r="C63" s="11" t="s">
-        <v>421</v>
+      <c r="C63" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="D63" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G63" s="3">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I63" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L63" s="3">
         <v>9</v>
       </c>
       <c r="M63" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N63" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R63" s="3">
         <v>9</v>
       </c>
       <c r="S63" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="T63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:20">
       <c r="B64" s="3">
         <v>10</v>
       </c>
-      <c r="C64" s="11" t="s">
-        <v>425</v>
+      <c r="C64" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="D64" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G64" s="3">
         <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I64" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L64" s="3">
         <v>10</v>
       </c>
       <c r="M64" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N64" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="R64" s="3">
         <v>10</v>
       </c>
       <c r="S64" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="T64" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="2:20">
       <c r="B65" s="3">
         <v>11</v>
       </c>
-      <c r="C65" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>414</v>
+      <c r="C65" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>416</v>
       </c>
       <c r="G65" s="3">
         <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I65" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L65" s="3">
         <v>11</v>
       </c>
       <c r="M65" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N65" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="R65" s="3">
         <v>11</v>
       </c>
       <c r="S65" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="T65" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="2:20">
       <c r="B66" s="3">
         <v>12</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>177</v>
+      <c r="C66" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="D66" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G66" s="3">
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="I66" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L66" s="3">
         <v>12</v>
       </c>
       <c r="M66" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N66" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="R66" s="3">
         <v>12</v>
       </c>
       <c r="S66" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="T66" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="2:20">
@@ -7318,28 +7324,28 @@
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G67" s="3">
         <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="I67" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L67" s="3">
         <v>13</v>
       </c>
       <c r="M67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N67" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:20">
@@ -7347,19 +7353,19 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L68" s="3">
         <v>14</v>
       </c>
       <c r="M68" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N68" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="2:20">
@@ -7367,19 +7373,19 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D69" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L69" s="3">
         <v>15</v>
       </c>
       <c r="M69" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N69" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="2:20">
@@ -7387,19 +7393,19 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D70" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L70" s="3">
         <v>16</v>
       </c>
       <c r="M70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N70" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="2:20">
@@ -7407,19 +7413,19 @@
         <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D71" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L71" s="3">
         <v>17</v>
       </c>
       <c r="M71" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N71" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="2:20">
@@ -7427,19 +7433,19 @@
         <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D72" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L72" s="3">
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N72" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="2:20">
@@ -7447,19 +7453,19 @@
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D73" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L73" s="3">
         <v>19</v>
       </c>
       <c r="M73" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N73" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="2:20">
@@ -7467,10 +7473,10 @@
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="2:20">
@@ -7478,10 +7484,10 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D75" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="2:20">
@@ -7489,10 +7495,10 @@
         <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D76" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="2:20">
@@ -7500,10 +7506,10 @@
         <v>23</v>
       </c>
       <c r="C77" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D77" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="2:20">
@@ -7511,15 +7517,15 @@
         <v>24</v>
       </c>
       <c r="C78" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D78" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:9">
-      <c r="B82" s="7" t="s">
-        <v>397</v>
+      <c r="B82" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:9">
@@ -7539,43 +7545,43 @@
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:9">
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G85" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:9">
       <c r="B86" s="3">
         <v>1</v>
       </c>
-      <c r="C86" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>399</v>
+      <c r="C86" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>401</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
       </c>
-      <c r="H86" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I86" s="14" t="s">
-        <v>400</v>
+      <c r="H86" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="2:9">
@@ -7583,39 +7589,39 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D87" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G87" s="3">
         <v>2</v>
       </c>
-      <c r="H87" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="I87" s="15" t="s">
-        <v>405</v>
+      <c r="H87" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="2:9">
       <c r="B88" s="3">
         <v>3</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>409</v>
+      <c r="C88" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="G88" s="3">
         <v>3</v>
       </c>
-      <c r="H88" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="I88" s="14" t="s">
-        <v>409</v>
+      <c r="H88" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="2:9">
@@ -7623,10 +7629,10 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I89" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="2:9">
@@ -7634,10 +7640,10 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I90" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="2:9">
@@ -7645,10 +7651,10 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I91" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="2:9">
@@ -7656,10 +7662,10 @@
         <v>7</v>
       </c>
       <c r="H92" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I92" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="2:9">
@@ -7667,10 +7673,10 @@
         <v>8</v>
       </c>
       <c r="H93" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I93" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="2:9">
@@ -7678,10 +7684,10 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I94" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -7717,47 +7723,47 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:14">
@@ -7765,93 +7771,93 @@
         <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>153</v>
+      <c r="C9" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="L9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:14">
       <c r="B10" s="3">
         <v>2</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>151</v>
+      <c r="C10" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="L10" s="3">
         <v>2</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:14">
       <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
@@ -7865,10 +7871,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -7882,10 +7888,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
@@ -7899,10 +7905,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G14" s="3">
         <v>6</v>
@@ -7916,10 +7922,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G15" s="3">
         <v>7</v>
@@ -7933,10 +7939,10 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
@@ -7950,10 +7956,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D17" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G17" s="3">
         <v>9</v>
@@ -7999,36 +8005,36 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:14">
-      <c r="A26" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="A26" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" customHeight="1" spans="1:14">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="30" customHeight="1" spans="1:14">
       <c r="C30" s="1" t="s">
@@ -8055,61 +8061,61 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:14">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:14">
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>275</v>
+      <c r="C33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>160</v>
+      <c r="H33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="L33" s="3">
         <v>1</v>
       </c>
-      <c r="M33" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>275</v>
+      <c r="M33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="2:14">
@@ -8117,57 +8123,57 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D34" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G34" s="3">
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I34" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L34" s="3">
         <v>2</v>
       </c>
       <c r="M34" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N34" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:14">
       <c r="B35" s="3">
         <v>3</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>409</v>
+      <c r="C35" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>409</v>
+      <c r="H35" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="L35" s="3">
         <v>3</v>
       </c>
-      <c r="M35" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>409</v>
+      <c r="M35" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:14">
@@ -8175,28 +8181,28 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D36" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G36" s="3">
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I36" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L36" s="3">
         <v>4</v>
       </c>
-      <c r="M36" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>153</v>
+      <c r="M36" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:14">
@@ -8204,28 +8210,28 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G37" s="3">
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I37" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L37" s="3">
         <v>5</v>
       </c>
       <c r="M37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" customHeight="1" spans="2:14">
@@ -8233,28 +8239,28 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G38" s="3">
         <v>6</v>
       </c>
       <c r="H38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I38" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L38" s="3">
         <v>6</v>
       </c>
       <c r="M38" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="N38" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="2:14">
@@ -8262,28 +8268,28 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D39" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G39" s="3">
         <v>7</v>
       </c>
       <c r="H39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I39" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L39" s="3">
         <v>7</v>
       </c>
       <c r="M39" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N39" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" customHeight="1" spans="2:14">
@@ -8291,19 +8297,19 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I40" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L40" s="3">
         <v>8</v>
       </c>
       <c r="M40" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N40" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="41" customHeight="1" spans="2:14">
@@ -8311,19 +8317,19 @@
         <v>9</v>
       </c>
       <c r="H41" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I41" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L41" s="3">
         <v>9</v>
       </c>
       <c r="M41" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N41" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:14">
@@ -8331,10 +8337,10 @@
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I42" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L42" s="3"/>
     </row>
@@ -8343,10 +8349,10 @@
         <v>11</v>
       </c>
       <c r="H43" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I43" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:14">
@@ -8354,10 +8360,10 @@
         <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I44" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:14">
@@ -8365,10 +8371,10 @@
         <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I45" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:14">
@@ -8376,10 +8382,10 @@
         <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:14">
@@ -8387,10 +8393,10 @@
         <v>15</v>
       </c>
       <c r="H47" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="I47" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:15">
@@ -8418,151 +8424,151 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:15">
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:15">
       <c r="B53" s="3">
         <v>1</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>275</v>
+      <c r="C53" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="G53" s="3">
         <v>1</v>
       </c>
-      <c r="H53" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>160</v>
+      <c r="H53" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="L53" s="3">
         <v>1</v>
       </c>
-      <c r="M53" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="N53" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="O53" s="14"/>
+      <c r="M53" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="O53" s="13"/>
     </row>
     <row r="54" customHeight="1" spans="2:15">
       <c r="B54" s="3">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D54" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G54" s="3">
         <v>2</v>
       </c>
       <c r="H54" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="I54" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L54" s="3">
         <v>2</v>
       </c>
-      <c r="M54" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="N54" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="O54" s="14"/>
+      <c r="M54" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="O54" s="13"/>
     </row>
     <row r="55" customHeight="1" spans="2:15">
       <c r="B55" s="3">
         <v>3</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>409</v>
+      <c r="C55" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="G55" s="3">
         <v>3</v>
       </c>
-      <c r="H55" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>409</v>
+      <c r="H55" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>411</v>
       </c>
       <c r="L55" s="3">
         <v>3</v>
       </c>
-      <c r="M55" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="O55" s="14"/>
+      <c r="M55" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="O55" s="13"/>
     </row>
     <row r="56" customHeight="1" spans="2:15">
       <c r="B56" s="3">
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D56" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G56" s="3">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I56" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L56" s="3">
         <v>4</v>
       </c>
       <c r="M56" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N56" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:15">
@@ -8570,28 +8576,28 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D57" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G57" s="3">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I57" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L57" s="3">
         <v>5</v>
       </c>
       <c r="M57" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N57" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:15">
@@ -8599,19 +8605,19 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D58" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G58" s="3">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I58" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:15">
@@ -8619,19 +8625,19 @@
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D59" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G59" s="3">
         <v>7</v>
       </c>
       <c r="H59" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I59" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:15">
@@ -8639,19 +8645,19 @@
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D60" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G60" s="3">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="I60" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:15">
@@ -8659,19 +8665,19 @@
         <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D61" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G61" s="3">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I61" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="2:15">
@@ -8679,19 +8685,19 @@
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D62" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G62" s="3">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I62" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:15">
@@ -8699,19 +8705,19 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D63" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G63" s="3">
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I63" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="2:15">
@@ -8719,10 +8725,10 @@
         <v>12</v>
       </c>
       <c r="H64" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I64" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="7:9">
@@ -8730,10 +8736,10 @@
         <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I65" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="7:9">
@@ -8741,10 +8747,10 @@
         <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I66" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -8781,40 +8787,40 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="7" customHeight="1" spans="1:13">
-      <c r="B7" s="7" t="s">
-        <v>491</v>
+      <c r="B7" s="6" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:13">
@@ -8834,23 +8840,23 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:13">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:13">
@@ -8858,19 +8864,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>160</v>
+      <c r="H11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:13">
@@ -8878,19 +8884,19 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D12" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>493</v>
+      <c r="H12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:13">
@@ -8898,19 +8904,19 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:13">
@@ -8918,19 +8924,19 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I14" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:13">
@@ -8938,47 +8944,47 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:13">
-      <c r="A22" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="A22" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" customHeight="1" spans="1:13">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="25" customHeight="1" spans="1:13">
-      <c r="B25" s="7" t="s">
-        <v>499</v>
+      <c r="B25" s="6" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:13">
@@ -8992,25 +8998,25 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:13">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:13">
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>275</v>
+      <c r="C29" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:13">
@@ -9018,21 +9024,21 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D30" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:13">
       <c r="B31" s="3">
         <v>3</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>409</v>
+      <c r="C31" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:13">
@@ -9040,10 +9046,10 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D32" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:4">
@@ -9051,10 +9057,10 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D33" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -9096,36 +9102,36 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="2:4">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:4">
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>500</v>
+      <c r="C7" s="11" t="s">
+        <v>502</v>
       </c>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:4">
       <c r="B8" s="3">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>501</v>
+      <c r="C8" s="11" t="s">
+        <v>503</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:4">
@@ -9133,10 +9139,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:4">
@@ -9144,10 +9150,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:4">
@@ -9155,10 +9161,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:4">
@@ -9166,10 +9172,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:4">
@@ -9177,10 +9183,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
@@ -9202,63 +9208,63 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>163</v>
+      <c r="C21" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>150</v>
+      <c r="H21" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
       <c r="B22" s="3">
         <v>2</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>150</v>
+      <c r="C22" s="11" t="s">
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G22" s="3">
         <v>2</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>163</v>
+      <c r="H22" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -9266,10 +9272,10 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -9278,10 +9284,10 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -9290,10 +9296,10 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G25" s="3"/>
     </row>
@@ -9302,10 +9308,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G26" s="3"/>
     </row>
@@ -9319,10 +9325,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:N65"/>
+  <dimension ref="A3:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -9338,36 +9344,36 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="1:14">
-      <c r="A3" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="A3" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
     </row>
     <row r="4" customHeight="1" spans="1:14">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
     <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1" t="s">
@@ -9394,32 +9400,32 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:14">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:14">
@@ -9427,28 +9433,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="I9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L9" s="3">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:14">
@@ -9456,28 +9462,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="I10" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L10" s="3">
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:14">
@@ -9485,28 +9491,28 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D11" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G11" s="3">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="I11" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L11" s="3">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N11" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:14">
@@ -9514,28 +9520,28 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" s="3">
         <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:14">
@@ -9543,28 +9549,28 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="3">
         <v>5</v>
       </c>
       <c r="H13" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="I13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L13" s="3">
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="N13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:14">
@@ -9584,23 +9590,23 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:9">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:9">
@@ -9608,19 +9614,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:9">
@@ -9628,19 +9634,19 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D20" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G20" s="3">
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I20" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:9">
@@ -9648,19 +9654,19 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D21" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G21" s="3">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:9">
@@ -9668,19 +9674,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G22" s="3">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:9">
@@ -9688,303 +9694,172 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:9">
-      <c r="B26" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:9">
-      <c r="C27" s="3"/>
-      <c r="D27" s="1"/>
-      <c r="H27" t="s">
-        <v>110</v>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:9">
-      <c r="C28" s="3"/>
-      <c r="G28" s="7" t="s">
+      <c r="C28" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="2:9">
+      <c r="B29" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:9">
-      <c r="C29" s="7"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="G29" s="3">
+      <c r="C29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:9">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
-        <v>150</v>
-      </c>
-      <c r="I29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:9">
-      <c r="C30" s="7"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="G30" s="3">
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="2:9">
+      <c r="B31" s="3">
         <v>2</v>
       </c>
-      <c r="H30" t="s">
-        <v>406</v>
-      </c>
-      <c r="I30" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:9">
-      <c r="C31" s="3"/>
-      <c r="G31" s="3">
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="2:9">
+      <c r="B32" s="3">
         <v>3</v>
       </c>
-      <c r="H31" t="s">
-        <v>404</v>
-      </c>
-      <c r="I31" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:9">
-      <c r="C32" s="3"/>
-      <c r="G32" s="3">
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:4">
+      <c r="B33" s="3">
         <v>4</v>
       </c>
-      <c r="H32" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:9">
-      <c r="C33" s="3"/>
-      <c r="G33" s="3">
+      <c r="C33" t="s">
+        <v>535</v>
+      </c>
+      <c r="D33" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="2:4">
+      <c r="B34" s="3">
         <v>5</v>
       </c>
-      <c r="H33" t="s">
-        <v>156</v>
-      </c>
-      <c r="I33" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="2:9">
-      <c r="C34" s="3"/>
-      <c r="G34" s="3">
+      <c r="C34" t="s">
+        <v>537</v>
+      </c>
+      <c r="D34" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="2:4">
+      <c r="B35" s="3">
         <v>6</v>
       </c>
-      <c r="H34" t="s">
-        <v>534</v>
-      </c>
-      <c r="I34" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="2:9">
-      <c r="C35" s="3"/>
-      <c r="G35" s="3">
+      <c r="C35" t="s">
+        <v>539</v>
+      </c>
+      <c r="D35" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="2:4">
+      <c r="B36" s="3">
         <v>7</v>
       </c>
-      <c r="H35" t="s">
-        <v>496</v>
-      </c>
-      <c r="I35" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:9">
-      <c r="C39" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="2:9">
-      <c r="C40" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="2:9">
-      <c r="B41" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="2:9">
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="2:9">
-      <c r="B43" s="3">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:9">
-      <c r="B44" s="3">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>156</v>
-      </c>
-      <c r="D44" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="2:9">
-      <c r="B45" s="3">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>536</v>
-      </c>
-      <c r="D45" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="2:9">
-      <c r="B46" s="3">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>538</v>
-      </c>
-      <c r="D46" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="2:9">
-      <c r="B47" s="3">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>540</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C36" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:9">
-      <c r="B48" s="3">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D36" t="s">
         <v>542</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="37" customHeight="1" spans="2:4">
+      <c r="B37" s="3">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="2:5">
-      <c r="B49" s="3">
-        <v>8</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D37" t="s">
         <v>544</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="38" customHeight="1" spans="2:4">
+      <c r="B38" s="3">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="2:5">
-      <c r="B50" s="3">
-        <v>9</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D38" t="s">
         <v>546</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="39" customHeight="1" spans="2:4">
+      <c r="B39" s="3">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>321</v>
+      </c>
+      <c r="D39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="2:4">
+      <c r="B40" s="3">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="2:5">
-      <c r="B51" s="3">
-        <v>10</v>
-      </c>
-      <c r="C51" t="s">
-        <v>319</v>
-      </c>
-      <c r="D51" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:5">
-      <c r="B52" s="3">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D40" t="s">
         <v>548</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="41" customHeight="1" spans="2:4">
+      <c r="B41" s="3">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>393</v>
+      </c>
+      <c r="D41" t="s">
         <v>549</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="2:5">
-      <c r="B53" s="3">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>391</v>
-      </c>
-      <c r="D53" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="2:5">
-      <c r="C60" t="s">
-        <v>551</v>
-      </c>
-      <c r="D60" t="s">
-        <v>552</v>
-      </c>
-      <c r="E60" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="3:3">
-      <c r="C65" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -9999,10 +9874,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I86"/>
+  <dimension ref="A2:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -10010,352 +9885,421 @@
     <col min="2" max="2" width="8.88888888888889" style="3"/>
     <col min="3" max="3" width="33.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="26.5555555555556" customWidth="1"/>
-    <col min="7" max="7" width="8.88888888888889" style="4"/>
+    <col min="7" max="7" width="8.88888888888889" style="3"/>
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="24.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="19.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:14">
+      <c r="A2" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:14">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:14">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" customHeight="1" spans="1:9">
+    <row r="7" customHeight="1" spans="1:14">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="B8" s="7"/>
+    <row r="8" customHeight="1" spans="1:14">
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:9">
+    <row r="15" customHeight="1" spans="1:14">
+      <c r="A15" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:14">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:14">
       <c r="B17"/>
     </row>
-    <row r="18" customHeight="1" spans="2:9">
+    <row r="18" customHeight="1" spans="2:14">
       <c r="C18" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="2:9">
+      <c r="L18" s="3"/>
+      <c r="M18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="2:14">
       <c r="C19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="2:9">
-      <c r="B20" s="7" t="s">
+      <c r="L19" s="3"/>
+      <c r="M19" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="2:14">
+      <c r="B20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:9">
+        <v>151</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:14">
       <c r="B21" s="3">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="4">
+        <v>162</v>
+      </c>
+      <c r="G21" s="3">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="2:9">
+        <v>153</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>152</v>
+      </c>
+      <c r="N21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="2:14">
       <c r="B22" s="3">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
+        <v>410</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="3">
+        <v>2</v>
+      </c>
+      <c r="M22" t="s">
         <v>408</v>
       </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="2:9">
+      <c r="N22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="2:14">
       <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>411</v>
-      </c>
-      <c r="G23" s="4">
+        <v>413</v>
+      </c>
+      <c r="G23" s="3">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="2:9">
+        <v>197</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>406</v>
+      </c>
+      <c r="N23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="2:14">
       <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>559</v>
-      </c>
-      <c r="G24" s="4">
+        <v>552</v>
+      </c>
+      <c r="G24" s="3">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="2:9">
+        <v>243</v>
+      </c>
+      <c r="L24" s="3">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>154</v>
+      </c>
+      <c r="N24" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="2:14">
       <c r="B25" s="3">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
-      </c>
-      <c r="G25" s="4">
+        <v>281</v>
+      </c>
+      <c r="G25" s="3">
         <v>5</v>
       </c>
       <c r="H25" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:9">
+        <v>247</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5</v>
+      </c>
+      <c r="M25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="2:14">
       <c r="B26" s="3">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="4">
+        <v>188</v>
+      </c>
+      <c r="G26" s="3">
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="2:9">
+        <v>251</v>
+      </c>
+      <c r="L26" s="3">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>553</v>
+      </c>
+      <c r="N26" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="3">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D27" t="s">
-        <v>429</v>
-      </c>
-      <c r="G27" s="4">
+        <v>431</v>
+      </c>
+      <c r="G27" s="3">
         <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="2:9">
+        <v>255</v>
+      </c>
+      <c r="L27" s="3">
+        <v>7</v>
+      </c>
+      <c r="M27" t="s">
+        <v>498</v>
+      </c>
+      <c r="N27" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="2:14">
       <c r="B28" s="3">
         <v>8</v>
       </c>
       <c r="C28" t="s">
+        <v>535</v>
+      </c>
+      <c r="D28" t="s">
         <v>536</v>
       </c>
-      <c r="D28" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="2:9">
+    </row>
+    <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="3">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D29" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="2:9">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="2:14">
       <c r="B30" s="3">
         <v>10</v>
       </c>
       <c r="C30" t="s">
+        <v>541</v>
+      </c>
+      <c r="D30" t="s">
         <v>542</v>
       </c>
-      <c r="D30" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="2:9">
+    </row>
+    <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="3">
         <v>11</v>
       </c>
       <c r="C31" t="s">
+        <v>543</v>
+      </c>
+      <c r="D31" t="s">
         <v>544</v>
       </c>
-      <c r="D31" t="s">
-        <v>545</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="2:9">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:14">
       <c r="B32" s="3">
         <v>12</v>
       </c>
       <c r="C32" t="s">
+        <v>545</v>
+      </c>
+      <c r="D32" t="s">
         <v>546</v>
       </c>
-      <c r="D32" t="s">
-        <v>547</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" customHeight="1" spans="2:9">
       <c r="B33" s="3">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" customHeight="1" spans="2:9">
       <c r="B34" s="3">
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="2:9">
@@ -10363,19 +10307,10 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
+        <v>547</v>
+      </c>
+      <c r="D35" t="s">
         <v>548</v>
-      </c>
-      <c r="D35" t="s">
-        <v>549</v>
-      </c>
-      <c r="G35" s="3">
-        <v>2</v>
-      </c>
-      <c r="H35" t="s">
-        <v>492</v>
-      </c>
-      <c r="I35" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="2:9">
@@ -10383,19 +10318,10 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D36" t="s">
-        <v>495</v>
-      </c>
-      <c r="G36" s="3">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s">
-        <v>152</v>
-      </c>
-      <c r="I36" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" customHeight="1" spans="2:9">
@@ -10403,79 +10329,46 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D37" t="s">
-        <v>405</v>
-      </c>
-      <c r="G37" s="3">
-        <v>4</v>
-      </c>
-      <c r="H37" t="s">
-        <v>156</v>
-      </c>
-      <c r="I37" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="2:9">
-      <c r="G38" s="3">
-        <v>5</v>
-      </c>
-      <c r="H38" t="s">
-        <v>534</v>
-      </c>
-      <c r="I38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="2:9">
-      <c r="G39" s="3">
-        <v>6</v>
-      </c>
-      <c r="H39" t="s">
-        <v>496</v>
-      </c>
-      <c r="I39" t="s">
-        <v>497</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="2:9">
       <c r="C42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G42" s="3"/>
+        <v>136</v>
+      </c>
       <c r="H42" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" customHeight="1" spans="2:9">
       <c r="C43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="3"/>
+        <v>135</v>
+      </c>
       <c r="H43" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:9">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" customHeight="1" spans="2:9">
@@ -10483,19 +10376,19 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I45" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" customHeight="1" spans="2:9">
@@ -10503,19 +10396,19 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G46" s="3">
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I46" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="2:9">
@@ -10523,19 +10416,19 @@
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G47" s="3">
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:9">
@@ -10543,19 +10436,19 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D48" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G48" s="3">
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="I48" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" customHeight="1" spans="2:9">
@@ -10563,19 +10456,19 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G49" s="3">
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" customHeight="1" spans="2:9">
@@ -10583,19 +10476,19 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D50" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G50" s="3">
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="I50" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" customHeight="1" spans="2:9">
@@ -10603,19 +10496,19 @@
         <v>7</v>
       </c>
       <c r="C51" t="s">
+        <v>535</v>
+      </c>
+      <c r="D51" t="s">
         <v>536</v>
-      </c>
-      <c r="D51" t="s">
-        <v>537</v>
       </c>
       <c r="G51" s="3">
         <v>7</v>
       </c>
       <c r="H51" t="s">
+        <v>535</v>
+      </c>
+      <c r="I51" t="s">
         <v>536</v>
-      </c>
-      <c r="I51" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:9">
@@ -10623,19 +10516,19 @@
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D52" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="G52" s="3">
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I52" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" customHeight="1" spans="2:9">
@@ -10643,19 +10536,19 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
+        <v>537</v>
+      </c>
+      <c r="D53" t="s">
         <v>538</v>
-      </c>
-      <c r="D53" t="s">
-        <v>539</v>
       </c>
       <c r="G53" s="3">
         <v>9</v>
       </c>
       <c r="H53" t="s">
+        <v>537</v>
+      </c>
+      <c r="I53" t="s">
         <v>538</v>
-      </c>
-      <c r="I53" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="54" customHeight="1" spans="2:9">
@@ -10663,19 +10556,19 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
+        <v>539</v>
+      </c>
+      <c r="D54" t="s">
         <v>540</v>
-      </c>
-      <c r="D54" t="s">
-        <v>541</v>
       </c>
       <c r="G54" s="3">
         <v>10</v>
       </c>
       <c r="H54" t="s">
+        <v>539</v>
+      </c>
+      <c r="I54" t="s">
         <v>540</v>
-      </c>
-      <c r="I54" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="2:9">
@@ -10683,19 +10576,19 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
+        <v>541</v>
+      </c>
+      <c r="D55" t="s">
         <v>542</v>
-      </c>
-      <c r="D55" t="s">
-        <v>543</v>
       </c>
       <c r="G55" s="3">
         <v>11</v>
       </c>
       <c r="H55" t="s">
+        <v>541</v>
+      </c>
+      <c r="I55" t="s">
         <v>542</v>
-      </c>
-      <c r="I55" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="2:9">
@@ -10703,19 +10596,19 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
+        <v>543</v>
+      </c>
+      <c r="D56" t="s">
         <v>544</v>
-      </c>
-      <c r="D56" t="s">
-        <v>545</v>
       </c>
       <c r="G56" s="3">
         <v>12</v>
       </c>
       <c r="H56" t="s">
+        <v>543</v>
+      </c>
+      <c r="I56" t="s">
         <v>544</v>
-      </c>
-      <c r="I56" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="2:9">
@@ -10723,19 +10616,19 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
+        <v>545</v>
+      </c>
+      <c r="D57" t="s">
         <v>546</v>
-      </c>
-      <c r="D57" t="s">
-        <v>547</v>
       </c>
       <c r="G57" s="3">
         <v>13</v>
       </c>
       <c r="H57" t="s">
+        <v>545</v>
+      </c>
+      <c r="I57" t="s">
         <v>546</v>
-      </c>
-      <c r="I57" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:9">
@@ -10743,19 +10636,19 @@
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D58" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G58" s="3">
         <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I58" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="2:9">
@@ -10763,19 +10656,19 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
+        <v>547</v>
+      </c>
+      <c r="D59" t="s">
         <v>548</v>
-      </c>
-      <c r="D59" t="s">
-        <v>549</v>
       </c>
       <c r="G59" s="3">
         <v>15</v>
       </c>
       <c r="H59" t="s">
+        <v>547</v>
+      </c>
+      <c r="I59" t="s">
         <v>548</v>
-      </c>
-      <c r="I59" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="2:9">
@@ -10783,19 +10676,19 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D60" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G60" s="3">
         <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="I60" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -10803,97 +10696,95 @@
         <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D61" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G61" s="3">
         <v>17</v>
       </c>
       <c r="H61" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="I61" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
       <c r="B65" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
       <c r="C67" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:9">
-      <c r="A72" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="A72" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
     </row>
     <row r="73" customHeight="1" spans="1:9">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
     </row>
     <row r="76" customHeight="1" spans="1:9">
       <c r="C76" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G76" s="3"/>
+        <v>566</v>
+      </c>
       <c r="H76" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:9">
       <c r="C77" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G77" s="3"/>
+        <v>143</v>
+      </c>
       <c r="H77" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:9">
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G78" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>0</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:9">
@@ -10901,19 +10792,19 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G79" s="3">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I79" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:9">
@@ -10921,19 +10812,19 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G80" s="3">
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I80" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="2:9">
@@ -10941,19 +10832,19 @@
         <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D81" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G81" s="3">
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I81" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="2:9">
@@ -10961,19 +10852,19 @@
         <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D82" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G82" s="3">
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="I82" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="2:9">
@@ -10981,19 +10872,19 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D83" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G83" s="3">
         <v>5</v>
       </c>
       <c r="H83" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="I83" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="2:9">
@@ -11001,19 +10892,19 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D84" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G84" s="3">
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="I84" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="2:9">
@@ -11021,19 +10912,19 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D85" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="G85" s="3">
         <v>7</v>
       </c>
       <c r="H85" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="I85" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="2:9">
@@ -11041,26 +10932,26 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D86" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="G86" s="3">
         <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="I86" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A15:I16"/>
     <mergeCell ref="A2:I3"/>
     <mergeCell ref="A72:I73"/>
+    <mergeCell ref="A15:N16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -11088,29 +10979,29 @@
   <sheetData>
     <row r="5" spans="3:9">
       <c r="C5" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="3:9">
       <c r="F7" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="3:9">
       <c r="D8" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>14</v>
@@ -11118,89 +11009,89 @@
     </row>
     <row r="9" spans="3:9">
       <c r="I9" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="3:9">
       <c r="H13" s="1" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="3:9">
       <c r="H14" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="3:9">
       <c r="I15" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="8:9">
       <c r="H19" s="1" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="8:9">
       <c r="H20" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="8:9">
       <c r="I21" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="8:9">
       <c r="H25" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="26" spans="8:9">
       <c r="H26" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="27" spans="8:9">
       <c r="I27" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="8:9">
       <c r="H31" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="8:9">
       <c r="H32" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="8:9">
       <c r="I33" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="8:9">
       <c r="H37" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="8:9">
       <c r="H38" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>17</v>
@@ -11208,12 +11099,12 @@
     </row>
     <row r="43" spans="8:9">
       <c r="H43" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="8:9">
       <c r="H44" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>100</v>
@@ -11221,17 +11112,17 @@
     </row>
     <row r="45" spans="8:9">
       <c r="I45" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="49" ht="13" customHeight="1" spans="6:9">
       <c r="H49" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="50" spans="6:9">
       <c r="H50" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>102</v>
@@ -11239,41 +11130,41 @@
     </row>
     <row r="51" spans="6:9">
       <c r="I51" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="6:9">
       <c r="H55" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="56" spans="6:9">
       <c r="H56" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="6:9">
       <c r="I57" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="61" spans="6:9">
       <c r="F61" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="62" spans="6:9">
       <c r="F62" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>47</v>
@@ -11281,17 +11172,17 @@
     </row>
     <row r="63" spans="6:9">
       <c r="I63" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="8:9">
       <c r="H65" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="8:9">
       <c r="H66" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>50</v>
@@ -11299,17 +11190,17 @@
     </row>
     <row r="67" spans="8:9">
       <c r="I67" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="69" spans="8:9">
       <c r="H69" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="70" spans="8:9">
       <c r="H70" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>94</v>
@@ -11317,35 +11208,35 @@
     </row>
     <row r="71" spans="8:9">
       <c r="I71" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="73" spans="8:9">
       <c r="H73" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="74" spans="8:9">
       <c r="H74" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="75" spans="8:9">
       <c r="I75" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="77" spans="8:9">
       <c r="H77" s="1" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="78" spans="8:9">
       <c r="H78" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>19</v>
@@ -11353,17 +11244,17 @@
     </row>
     <row r="79" spans="8:9">
       <c r="I79" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="81" spans="6:9">
       <c r="H81" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="82" spans="6:9">
       <c r="H82" s="1" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>22</v>
@@ -11371,41 +11262,41 @@
     </row>
     <row r="83" spans="6:9">
       <c r="I83" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="6:9">
       <c r="F87" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" spans="6:9">
       <c r="F88" s="1" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="89" spans="6:9">
       <c r="I89" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="92" spans="6:9">
       <c r="H92" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="93" spans="6:9">
       <c r="H93" s="1" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>25</v>
@@ -11413,111 +11304,111 @@
     </row>
     <row r="94" spans="6:9">
       <c r="I94" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="97" spans="6:9">
       <c r="H97" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="98" spans="6:9">
       <c r="H98" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="6:9">
       <c r="I99" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="101" spans="6:9">
       <c r="H101" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="102" spans="6:9">
       <c r="H102" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>47</v>
@@ -11525,12 +11416,12 @@
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>50</v>
@@ -11538,12 +11429,12 @@
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>94</v>
@@ -11551,12 +11442,12 @@
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>52</v>
@@ -11564,12 +11455,12 @@
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>19</v>
@@ -11582,7 +11473,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="666">
   <si>
     <t>序号</t>
   </si>
@@ -522,7 +522,7 @@
 dwd_stock_a_total_plate</t>
   </si>
   <si>
-    <t>dwd_stock_ZT_list</t>
+    <t>dwd_stock_zt_list</t>
   </si>
   <si>
     <t>涨停股票清单</t>
@@ -535,7 +535,7 @@
 dwd_ashare_stock_base_info</t>
   </si>
   <si>
-    <t>dwd_stock_DT_list</t>
+    <t>dwd_stock_dt_list</t>
   </si>
   <si>
     <t>跌停股票清单</t>
@@ -2152,13 +2152,7 @@
     <t>cal_ZT_DT</t>
   </si>
   <si>
-    <t>dwd_stock_zt_list</t>
-  </si>
-  <si>
     <t>ymd,stock_code,stock_name,last_close,close,rate,market_value,total_value,total_asset,net_asset,total_capital,float_capital,shareholder_num,pb,pe,market,plate_names,</t>
-  </si>
-  <si>
-    <t>dwd_stock_dt_list</t>
   </si>
   <si>
     <t>指标计算：MART层逻辑</t>
@@ -3378,10 +3372,10 @@
   <sheetPr/>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4654,8 +4648,8 @@
     <hyperlink ref="E50" location="ods_stock_plate_redbook" display="ods_stock_plate_redbook"/>
     <hyperlink ref="E54" location="dwd_stock_a_total_plate" display="dwd_stock_a_total_plate"/>
     <hyperlink ref="E56" location="dwd_ashare_stock_base_info" display="dwd_ashare_stock_base_info"/>
-    <hyperlink ref="E57" location="dwd_stock_ZT_list" display="dwd_stock_ZT_list"/>
-    <hyperlink ref="E58" location="dwd_stock_DT_list" display="dwd_stock_DT_list"/>
+    <hyperlink ref="E57" location="dwd_stock_ZT_list" display="dwd_stock_zt_list"/>
+    <hyperlink ref="E58" location="dwd_stock_DT_list" display="dwd_stock_dt_list"/>
     <hyperlink ref="E62" location="dmart_stock_zt_details" display="dmart_stock_zt_details"/>
     <hyperlink ref="E63" location="dmart_stock_zt_details_expanded" display="dmart_stock_zt_details_expanded"/>
     <hyperlink ref="H7" location="ods_stock_code_daily_insight" display="ods_stock_code_daily_insight"/>
@@ -5866,8 +5860,8 @@
   <sheetPr/>
   <dimension ref="A3:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -7704,7 +7698,7 @@
   <sheetPr/>
   <dimension ref="A3:O66"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="F28" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F28" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -9876,8 +9870,8 @@
   <sheetPr/>
   <dimension ref="A2:N86"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -11335,38 +11329,38 @@
         <v>644</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>645</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="6:9">
       <c r="I103" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="105" spans="6:9">
       <c r="I105" s="1" t="s">
-        <v>647</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="6:9">
       <c r="I106" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="109" spans="6:9">
       <c r="F109" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="110" spans="6:9">
       <c r="F110" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>143</v>
@@ -11374,17 +11368,17 @@
     </row>
     <row r="111" spans="6:9">
       <c r="I111" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="114" spans="6:9">
       <c r="H114" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="115" spans="6:9">
       <c r="H115" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>147</v>
@@ -11392,23 +11386,23 @@
     </row>
     <row r="116" spans="6:9">
       <c r="I116" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="120" spans="6:9">
       <c r="F120" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" spans="6:9">
       <c r="F121" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>47</v>
@@ -11416,12 +11410,12 @@
     </row>
     <row r="124" spans="6:9">
       <c r="H124" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="125" spans="6:9">
       <c r="H125" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>50</v>
@@ -11429,12 +11423,12 @@
     </row>
     <row r="128" spans="6:9">
       <c r="H128" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="129" spans="8:9">
       <c r="H129" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>94</v>
@@ -11442,12 +11436,12 @@
     </row>
     <row r="132" spans="8:9">
       <c r="H132" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="133" spans="8:9">
       <c r="H133" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>52</v>
@@ -11455,12 +11449,12 @@
     </row>
     <row r="136" spans="8:9">
       <c r="H136" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="137" spans="8:9">
       <c r="H137" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>19</v>
@@ -11473,7 +11467,7 @@
     </row>
     <row r="158" spans="6:6">
       <c r="F158" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/Others/Quant模型设计.xlsx
+++ b/Others/Quant模型设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="T00" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     <t>大盘情绪数据_大盘区间内的新低新高股票数</t>
   </si>
   <si>
-    <t>目前更新至20260122，可日跑</t>
+    <t>目前更新至20260122，可日跑 T-2数据</t>
   </si>
   <si>
     <t>行业标签</t>
@@ -3372,10 +3372,10 @@
   <sheetPr/>
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4681,8 +4681,8 @@
   <sheetPr/>
   <dimension ref="A4:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:D49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
@@ -5860,8 +5860,8 @@
   <sheetPr/>
   <dimension ref="A3:T94"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -7698,8 +7698,8 @@
   <sheetPr/>
   <dimension ref="A3:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F28" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
@@ -8762,8 +8762,8 @@
   <sheetPr/>
   <dimension ref="A3:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="19.95" customHeight="1"/>
